--- a/Workflows/Testing/Hydraulic_Lift_Res.xlsx
+++ b/Workflows/Testing/Hydraulic_Lift_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR19a\Demos\ssczAll\Hydraulic_Lift\SimResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\hydraulic-lift\Workflows\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA155D8D-CCB7-4C5F-AA4E-6851C48E6C10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D157BF4-65A7-4E03-884E-48C06CC5BA23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21204" windowHeight="11460" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="0" windowWidth="11772" windowHeight="12504" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2018b_Bash" sheetId="14" r:id="rId8"/>
     <sheet name="2018b" sheetId="15" r:id="rId9"/>
     <sheet name="2019a" sheetId="16" r:id="rId10"/>
+    <sheet name="2020a" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,6 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4389" uniqueCount="27">
   <si>
     <t>Run</t>
   </si>
@@ -118,6 +120,9 @@
   <si>
     <t>09-Mar-2019 01:36:52</t>
   </si>
+  <si>
+    <t>13-Mar-2020 12:42:42</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +130,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -354,6 +359,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,8 +376,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,14 +721,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="56"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -3096,13 +3101,13 @@
       <c r="H3">
         <v>2621</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="55">
         <v>0.57348564053830575</v>
       </c>
       <c r="J3">
         <v>10001</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="56">
         <v>1.2760306565559507</v>
       </c>
     </row>
@@ -3131,13 +3136,13 @@
       <c r="H4">
         <v>1737</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="55">
         <v>1.8117432169637175</v>
       </c>
       <c r="J4">
         <v>10001</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="56">
         <v>6.8799351889235822</v>
       </c>
     </row>
@@ -3166,13 +3171,13 @@
       <c r="H5">
         <v>2171</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="55">
         <v>0.59768259850807581</v>
       </c>
       <c r="J5">
         <v>10001</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="56">
         <v>1.4539596288349346</v>
       </c>
     </row>
@@ -3201,13 +3206,13 @@
       <c r="H6">
         <v>1786</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="55">
         <v>3.1536110665441908</v>
       </c>
       <c r="J6">
         <v>10001</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="56">
         <v>7.1680680269470214</v>
       </c>
     </row>
@@ -3236,13 +3241,13 @@
       <c r="H7">
         <v>2620</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="55">
         <v>0.51783344822783317</v>
       </c>
       <c r="J7">
         <v>10001</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="56">
         <v>1.2792419431333935</v>
       </c>
     </row>
@@ -3271,13 +3276,13 @@
       <c r="H8">
         <v>1767</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="55">
         <v>1.7326031802562472</v>
       </c>
       <c r="J8">
         <v>10001</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="56">
         <v>5.7599267966296832</v>
       </c>
     </row>
@@ -3306,13 +3311,13 @@
       <c r="H9">
         <v>2097</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="55">
         <v>0.49553639275935452</v>
       </c>
       <c r="J9">
         <v>10001</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="56">
         <v>1.5898604869293549</v>
       </c>
     </row>
@@ -3341,13 +3346,13 @@
       <c r="H10">
         <v>1694</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="55">
         <v>1.9395472745320326</v>
       </c>
       <c r="J10">
         <v>10001</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="56">
         <v>7.1648190103087694</v>
       </c>
     </row>
@@ -3376,13 +3381,13 @@
       <c r="H11">
         <v>2689</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="55">
         <v>0.63572437309035645</v>
       </c>
       <c r="J11">
         <v>10001</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="56">
         <v>1.2884614774316054</v>
       </c>
     </row>
@@ -3411,13 +3416,13 @@
       <c r="H12">
         <v>1778</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="55">
         <v>1.8254448709155886</v>
       </c>
       <c r="J12">
         <v>10001</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="56">
         <v>6.839824608109847</v>
       </c>
     </row>
@@ -3446,13 +3451,13 @@
       <c r="H13">
         <v>2158</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="55">
         <v>0.48353717556996195</v>
       </c>
       <c r="J13">
         <v>10001</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="56">
         <v>1.9476761632406949</v>
       </c>
     </row>
@@ -3481,13 +3486,13 @@
       <c r="H14">
         <v>1770</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="55">
         <v>1.8008279456334506</v>
       </c>
       <c r="J14">
         <v>10001</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="56">
         <v>5.7866784675953431</v>
       </c>
     </row>
@@ -3516,13 +3521,13 @@
       <c r="H15">
         <v>2648</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="55">
         <v>0.63847796229462239</v>
       </c>
       <c r="J15">
         <v>10001</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15" s="56">
         <v>1.2140151308122364</v>
       </c>
     </row>
@@ -3551,13 +3556,13 @@
       <c r="H16">
         <v>1755</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="55">
         <v>1.7795834530763224</v>
       </c>
       <c r="J16">
         <v>10001</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="56">
         <v>5.4677582525692587</v>
       </c>
     </row>
@@ -3586,13 +3591,13 @@
       <c r="H17">
         <v>2146</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="55">
         <v>0.65350369454871149</v>
       </c>
       <c r="J17">
         <v>10001</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="56">
         <v>1.4586459139578305</v>
       </c>
     </row>
@@ -3621,13 +3626,13 @@
       <c r="H18">
         <v>1703</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="55">
         <v>1.8396415996840547</v>
       </c>
       <c r="J18">
         <v>10001</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18" s="56">
         <v>5.9036039260420283</v>
       </c>
     </row>
@@ -3656,13 +3661,13 @@
       <c r="H19">
         <v>2651</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="55">
         <v>0.66314954327232467</v>
       </c>
       <c r="J19">
         <v>10001</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="56">
         <v>1.394203322713673</v>
       </c>
     </row>
@@ -3691,13 +3696,13 @@
       <c r="H20">
         <v>1785</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="55">
         <v>1.9535652262833951</v>
       </c>
       <c r="J20">
         <v>10001</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="56">
         <v>5.8850312154545152</v>
       </c>
     </row>
@@ -3726,13 +3731,13 @@
       <c r="H21">
         <v>2143</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="55">
         <v>0.58922471777385588</v>
       </c>
       <c r="J21">
         <v>10001</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="56">
         <v>1.4983767258417418</v>
       </c>
     </row>
@@ -3761,13 +3766,13 @@
       <c r="H22">
         <v>1761</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="55">
         <v>1.9363289356067752</v>
       </c>
       <c r="J22">
         <v>10001</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="56">
         <v>5.843095487026325</v>
       </c>
     </row>
@@ -3796,13 +3801,13 @@
       <c r="H23">
         <v>2651</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="55">
         <v>0.60647299744176086</v>
       </c>
       <c r="J23">
         <v>10001</v>
       </c>
-      <c r="K23" s="61">
+      <c r="K23" s="56">
         <v>1.3800929852059374</v>
       </c>
     </row>
@@ -3831,13 +3836,13 @@
       <c r="H24">
         <v>1757</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="55">
         <v>1.9051286436395756</v>
       </c>
       <c r="J24">
         <v>10001</v>
       </c>
-      <c r="K24" s="61">
+      <c r="K24" s="56">
         <v>9.7430053932829921</v>
       </c>
     </row>
@@ -3866,13 +3871,13 @@
       <c r="H25">
         <v>2137</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="55">
         <v>0.6344200413620199</v>
       </c>
       <c r="J25">
         <v>10001</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="56">
         <v>1.5261326511362214</v>
       </c>
     </row>
@@ -3901,13 +3906,13 @@
       <c r="H26">
         <v>1718</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="55">
         <v>3.0919509791303397</v>
       </c>
       <c r="J26">
         <v>10001</v>
       </c>
-      <c r="K26" s="61">
+      <c r="K26" s="56">
         <v>6.8791195848988078</v>
       </c>
     </row>
@@ -3936,13 +3941,13 @@
       <c r="H27">
         <v>2624</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="55">
         <v>0.49832524370269415</v>
       </c>
       <c r="J27">
         <v>10001</v>
       </c>
-      <c r="K27" s="61">
+      <c r="K27" s="56">
         <v>1.3764455109161529</v>
       </c>
     </row>
@@ -3971,13 +3976,13 @@
       <c r="H28">
         <v>1804</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="55">
         <v>1.8904276720023554</v>
       </c>
       <c r="J28">
         <v>10001</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28" s="56">
         <v>6.6584614950624754</v>
       </c>
     </row>
@@ -4006,13 +4011,13 @@
       <c r="H29">
         <v>2138</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="55">
         <v>0.60494404843552474</v>
       </c>
       <c r="J29">
         <v>10001</v>
       </c>
-      <c r="K29" s="61">
+      <c r="K29" s="56">
         <v>1.5080246902696994</v>
       </c>
     </row>
@@ -4041,13 +4046,13 @@
       <c r="H30">
         <v>1779</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="55">
         <v>1.9071029484103126</v>
       </c>
       <c r="J30">
         <v>10001</v>
       </c>
-      <c r="K30" s="61">
+      <c r="K30" s="56">
         <v>7.1548861310290963</v>
       </c>
     </row>
@@ -4076,13 +4081,13 @@
       <c r="H31">
         <v>2624</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="55">
         <v>0.65246206277647412</v>
       </c>
       <c r="J31">
         <v>10001</v>
       </c>
-      <c r="K31" s="61">
+      <c r="K31" s="56">
         <v>1.3346839754789865</v>
       </c>
     </row>
@@ -4111,13 +4116,13 @@
       <c r="H32">
         <v>1751</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="55">
         <v>1.977789335792252</v>
       </c>
       <c r="J32">
         <v>10001</v>
       </c>
-      <c r="K32" s="61">
+      <c r="K32" s="56">
         <v>6.2020885528053356</v>
       </c>
     </row>
@@ -4146,13 +4151,13 @@
       <c r="H33">
         <v>2115</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="55">
         <v>1.0294484887700177</v>
       </c>
       <c r="J33">
         <v>10001</v>
       </c>
-      <c r="K33" s="61">
+      <c r="K33" s="56">
         <v>1.5900248066334384</v>
       </c>
     </row>
@@ -4181,13 +4186,13 @@
       <c r="H34">
         <v>1760</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="55">
         <v>1.9882257527058977</v>
       </c>
       <c r="J34">
         <v>10001</v>
       </c>
-      <c r="K34" s="61">
+      <c r="K34" s="56">
         <v>6.0931431785284218</v>
       </c>
     </row>
@@ -4216,13 +4221,13 @@
       <c r="H35">
         <v>10245</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="55">
         <v>1.3580434671457562</v>
       </c>
       <c r="J35">
         <v>10001</v>
       </c>
-      <c r="K35" s="61">
+      <c r="K35" s="56">
         <v>1.5981917780203001</v>
       </c>
     </row>
@@ -4251,13 +4256,13 @@
       <c r="H36">
         <v>13312</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="55">
         <v>9.2754675265829434</v>
       </c>
       <c r="J36">
         <v>10001</v>
       </c>
-      <c r="K36" s="61">
+      <c r="K36" s="56">
         <v>8.079061050411946</v>
       </c>
     </row>
@@ -4286,13 +4291,13 @@
       <c r="H37">
         <v>2798</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="55">
         <v>0.53433135808824961</v>
       </c>
       <c r="J37">
         <v>10001</v>
       </c>
-      <c r="K37" s="61">
+      <c r="K37" s="56">
         <v>1.472057363797125</v>
       </c>
     </row>
@@ -4321,13 +4326,13 @@
       <c r="H38">
         <v>5386</v>
       </c>
-      <c r="I38" s="60">
+      <c r="I38" s="55">
         <v>4.8101959318531629</v>
       </c>
       <c r="J38">
         <v>1546</v>
       </c>
-      <c r="K38" s="61">
+      <c r="K38" s="56">
         <v>1.6363298171502521</v>
       </c>
     </row>
@@ -4356,13 +4361,13 @@
       <c r="H39">
         <v>10283</v>
       </c>
-      <c r="I39" s="60">
+      <c r="I39" s="55">
         <v>1.3373367161095018</v>
       </c>
       <c r="J39">
         <v>10001</v>
       </c>
-      <c r="K39" s="61">
+      <c r="K39" s="56">
         <v>1.2635134444195653</v>
       </c>
     </row>
@@ -4391,13 +4396,13 @@
       <c r="H40">
         <v>13317</v>
       </c>
-      <c r="I40" s="60">
+      <c r="I40" s="55">
         <v>8.1584581451972635</v>
       </c>
       <c r="J40">
         <v>10001</v>
       </c>
-      <c r="K40" s="61">
+      <c r="K40" s="56">
         <v>6.6543291718604269</v>
       </c>
     </row>
@@ -4426,13 +4431,13 @@
       <c r="H41">
         <v>2734</v>
       </c>
-      <c r="I41" s="60">
+      <c r="I41" s="55">
         <v>0.54074723151271098</v>
       </c>
       <c r="J41">
         <v>10001</v>
       </c>
-      <c r="K41" s="61">
+      <c r="K41" s="56">
         <v>1.6056700876430525</v>
       </c>
     </row>
@@ -4461,13 +4466,13 @@
       <c r="H42">
         <v>5470</v>
       </c>
-      <c r="I42" s="60">
+      <c r="I42" s="55">
         <v>6.4068090418151336</v>
       </c>
       <c r="J42">
         <v>1545</v>
       </c>
-      <c r="K42" s="61">
+      <c r="K42" s="56">
         <v>1.7231484501584133</v>
       </c>
     </row>
@@ -4496,13 +4501,13 @@
       <c r="H43">
         <v>10245</v>
       </c>
-      <c r="I43" s="60">
+      <c r="I43" s="55">
         <v>1.1093561735371227</v>
       </c>
       <c r="J43">
         <v>10001</v>
       </c>
-      <c r="K43" s="61">
+      <c r="K43" s="56">
         <v>1.2723835348835568</v>
       </c>
     </row>
@@ -4531,13 +4536,13 @@
       <c r="H44">
         <v>13266</v>
       </c>
-      <c r="I44" s="60">
+      <c r="I44" s="55">
         <v>14.806537526424266</v>
       </c>
       <c r="J44">
         <v>10001</v>
       </c>
-      <c r="K44" s="61">
+      <c r="K44" s="56">
         <v>5.823437420110122</v>
       </c>
     </row>
@@ -4566,13 +4571,13 @@
       <c r="H45">
         <v>2763</v>
       </c>
-      <c r="I45" s="60">
+      <c r="I45" s="55">
         <v>0.60667963123273272</v>
       </c>
       <c r="J45">
         <v>10001</v>
       </c>
-      <c r="K45" s="61">
+      <c r="K45" s="56">
         <v>1.4484379931133824</v>
       </c>
     </row>
@@ -4601,13 +4606,13 @@
       <c r="H46">
         <v>5759</v>
       </c>
-      <c r="I46" s="60">
+      <c r="I46" s="55">
         <v>4.9712905972809676</v>
       </c>
       <c r="J46">
         <v>1546</v>
       </c>
-      <c r="K46" s="61">
+      <c r="K46" s="56">
         <v>1.631973581905086</v>
       </c>
     </row>
@@ -4636,13 +4641,13 @@
       <c r="H47">
         <v>10268</v>
       </c>
-      <c r="I47" s="60">
+      <c r="I47" s="55">
         <v>1.0712371757462706</v>
       </c>
       <c r="J47">
         <v>10001</v>
       </c>
-      <c r="K47" s="61">
+      <c r="K47" s="56">
         <v>1.296846013748552</v>
       </c>
     </row>
@@ -4671,13 +4676,13 @@
       <c r="H48">
         <v>13319</v>
       </c>
-      <c r="I48" s="60">
+      <c r="I48" s="55">
         <v>8.1878163639152515</v>
       </c>
       <c r="J48">
         <v>10001</v>
       </c>
-      <c r="K48" s="61">
+      <c r="K48" s="56">
         <v>5.7452776597489015</v>
       </c>
     </row>
@@ -4706,13 +4711,13 @@
       <c r="H49">
         <v>2788</v>
       </c>
-      <c r="I49" s="60">
+      <c r="I49" s="55">
         <v>0.71597303887430419</v>
       </c>
       <c r="J49">
         <v>10001</v>
       </c>
-      <c r="K49" s="61">
+      <c r="K49" s="56">
         <v>1.4463268727950394</v>
       </c>
     </row>
@@ -4741,13 +4746,13 @@
       <c r="H50">
         <v>5758</v>
       </c>
-      <c r="I50" s="60">
+      <c r="I50" s="55">
         <v>6.5005082979687474</v>
       </c>
       <c r="J50">
         <v>1545</v>
       </c>
-      <c r="K50" s="61">
+      <c r="K50" s="56">
         <v>2.0164086976605597</v>
       </c>
     </row>
@@ -4776,13 +4781,13 @@
       <c r="H51">
         <v>10268</v>
       </c>
-      <c r="I51" s="60">
+      <c r="I51" s="55">
         <v>1.0913240254096093</v>
       </c>
       <c r="J51">
         <v>10001</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="56">
         <v>1.2905884655325317</v>
       </c>
     </row>
@@ -4811,13 +4816,13 @@
       <c r="H52">
         <v>14976</v>
       </c>
-      <c r="I52" s="60">
+      <c r="I52" s="55">
         <v>10.610057705835994</v>
       </c>
       <c r="J52">
         <v>1528</v>
       </c>
-      <c r="K52" s="61">
+      <c r="K52" s="56">
         <v>1.6365688917411718</v>
       </c>
     </row>
@@ -4846,13 +4851,13 @@
       <c r="H53">
         <v>2902</v>
       </c>
-      <c r="I53" s="60">
+      <c r="I53" s="55">
         <v>0.58001047273650486</v>
       </c>
       <c r="J53">
         <v>10001</v>
       </c>
-      <c r="K53" s="61">
+      <c r="K53" s="56">
         <v>2.3950217476775739</v>
       </c>
     </row>
@@ -4881,13 +4886,13 @@
       <c r="H54">
         <v>8694</v>
       </c>
-      <c r="I54" s="60">
+      <c r="I54" s="55">
         <v>10.296737054974814</v>
       </c>
       <c r="J54">
         <v>1526</v>
       </c>
-      <c r="K54" s="61">
+      <c r="K54" s="56">
         <v>2.2203573072020339</v>
       </c>
     </row>
@@ -4916,13 +4921,13 @@
       <c r="H55">
         <v>10291</v>
       </c>
-      <c r="I55" s="60">
+      <c r="I55" s="55">
         <v>1.0753349424440264</v>
       </c>
       <c r="J55">
         <v>10001</v>
       </c>
-      <c r="K55" s="61">
+      <c r="K55" s="56">
         <v>1.2858062684793552</v>
       </c>
     </row>
@@ -4951,13 +4956,13 @@
       <c r="H56">
         <v>14927</v>
       </c>
-      <c r="I56" s="60">
+      <c r="I56" s="55">
         <v>10.734352162514304</v>
       </c>
       <c r="J56">
         <v>10001</v>
       </c>
-      <c r="K56" s="61">
+      <c r="K56" s="56">
         <v>5.5226502017853019</v>
       </c>
     </row>
@@ -4986,13 +4991,13 @@
       <c r="H57">
         <v>2990</v>
       </c>
-      <c r="I57" s="60">
+      <c r="I57" s="55">
         <v>0.59123922092713688</v>
       </c>
       <c r="J57">
         <v>10001</v>
       </c>
-      <c r="K57" s="61">
+      <c r="K57" s="56">
         <v>1.4112544892601557</v>
       </c>
     </row>
@@ -5021,13 +5026,13 @@
       <c r="H58">
         <v>545</v>
       </c>
-      <c r="I58" s="60">
+      <c r="I58" s="55">
         <v>2.1934903303496025</v>
       </c>
       <c r="J58">
         <v>1526</v>
       </c>
-      <c r="K58" s="61">
+      <c r="K58" s="56">
         <v>1.7401943274440352</v>
       </c>
     </row>
@@ -5056,13 +5061,13 @@
       <c r="H59">
         <v>10303</v>
       </c>
-      <c r="I59" s="60">
+      <c r="I59" s="55">
         <v>1.0408651820299126</v>
       </c>
       <c r="J59">
         <v>10001</v>
       </c>
-      <c r="K59" s="61">
+      <c r="K59" s="56">
         <v>1.7442727001853005</v>
       </c>
     </row>
@@ -5091,13 +5096,13 @@
       <c r="H60">
         <v>14864</v>
       </c>
-      <c r="I60" s="60">
+      <c r="I60" s="55">
         <v>14.54556469030496</v>
       </c>
       <c r="J60">
         <v>1528</v>
       </c>
-      <c r="K60" s="61">
+      <c r="K60" s="56">
         <v>1.8972264879131573</v>
       </c>
     </row>
@@ -5126,13 +5131,13 @@
       <c r="H61">
         <v>2865</v>
       </c>
-      <c r="I61" s="60">
+      <c r="I61" s="55">
         <v>0.60959084041065825</v>
       </c>
       <c r="J61">
         <v>10001</v>
       </c>
-      <c r="K61" s="61">
+      <c r="K61" s="56">
         <v>1.5238177179660324</v>
       </c>
     </row>
@@ -5161,13 +5166,13 @@
       <c r="H62">
         <v>578</v>
       </c>
-      <c r="I62" s="60">
+      <c r="I62" s="55">
         <v>1.422684229363508</v>
       </c>
       <c r="J62">
         <v>1526</v>
       </c>
-      <c r="K62" s="61">
+      <c r="K62" s="56">
         <v>2.2674934369088149</v>
       </c>
     </row>
@@ -5196,13 +5201,13 @@
       <c r="H63">
         <v>10317</v>
       </c>
-      <c r="I63" s="60">
+      <c r="I63" s="55">
         <v>1.0359817837855945</v>
       </c>
       <c r="J63">
         <v>10001</v>
       </c>
-      <c r="K63" s="61">
+      <c r="K63" s="56">
         <v>1.3201864640762218</v>
       </c>
     </row>
@@ -5231,13 +5236,13 @@
       <c r="H64">
         <v>14905</v>
       </c>
-      <c r="I64" s="60">
+      <c r="I64" s="55">
         <v>12.119928348146201</v>
       </c>
       <c r="J64">
         <v>10001</v>
       </c>
-      <c r="K64" s="61">
+      <c r="K64" s="56">
         <v>7.5815771518035495</v>
       </c>
     </row>
@@ -5266,13 +5271,13 @@
       <c r="H65">
         <v>2867</v>
       </c>
-      <c r="I65" s="60">
+      <c r="I65" s="55">
         <v>0.58482475797223843</v>
       </c>
       <c r="J65">
         <v>10001</v>
       </c>
-      <c r="K65" s="61">
+      <c r="K65" s="56">
         <v>1.5036673971723611</v>
       </c>
     </row>
@@ -5301,19 +5306,2314 @@
       <c r="H66">
         <v>587</v>
       </c>
-      <c r="I66" s="60">
+      <c r="I66" s="55">
         <v>1.6403002889699516</v>
       </c>
       <c r="J66">
         <v>1526</v>
       </c>
-      <c r="K66" s="61">
+      <c r="K66" s="56">
         <v>1.7627914603120312</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9946F6-4865-4DA5-A0D0-318A659EFF86}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2621</v>
+      </c>
+      <c r="I3">
+        <v>0.78856599999999999</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3">
+        <v>1.0757637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1737</v>
+      </c>
+      <c r="I4">
+        <v>1.5511528999999999</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4">
+        <v>4.4240297999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2171</v>
+      </c>
+      <c r="I5">
+        <v>0.34778350000000002</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5">
+        <v>3.2215779000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1718</v>
+      </c>
+      <c r="I6">
+        <v>1.3719501999999999</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6">
+        <v>4.6248734999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2620</v>
+      </c>
+      <c r="I7">
+        <v>0.67852469999999998</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7">
+        <v>1.3828229999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1755</v>
+      </c>
+      <c r="I8">
+        <v>1.2977088000000001</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8">
+        <v>4.6053818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2097</v>
+      </c>
+      <c r="I9">
+        <v>0.68094239999999995</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9">
+        <v>1.5736602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1694</v>
+      </c>
+      <c r="I10">
+        <v>2.1200377000000001</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10">
+        <v>5.9802073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2689</v>
+      </c>
+      <c r="I11">
+        <v>0.61160999999999999</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>1.3795405000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1763</v>
+      </c>
+      <c r="I12">
+        <v>1.3148804999999999</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>4.4160664000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2158</v>
+      </c>
+      <c r="I13">
+        <v>0.31559989999999999</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
+        <v>1.6537805000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1730</v>
+      </c>
+      <c r="I14">
+        <v>1.3346256999999999</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14">
+        <v>4.6407775999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2648</v>
+      </c>
+      <c r="I15">
+        <v>0.30929590000000001</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>1.3841207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1773</v>
+      </c>
+      <c r="I16">
+        <v>1.290238</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16">
+        <v>4.5347900000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2146</v>
+      </c>
+      <c r="I17">
+        <v>0.3247872</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17">
+        <v>2.1887794999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1703</v>
+      </c>
+      <c r="I18">
+        <v>1.3611745</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18">
+        <v>4.7044779999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2651</v>
+      </c>
+      <c r="I19">
+        <v>0.31804640000000001</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19">
+        <v>1.4454123999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1759</v>
+      </c>
+      <c r="I20">
+        <v>1.3495546</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20">
+        <v>4.4306270999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2143</v>
+      </c>
+      <c r="I21">
+        <v>0.29989779999999999</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21">
+        <v>1.9823472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1758</v>
+      </c>
+      <c r="I22">
+        <v>1.4906942999999999</v>
+      </c>
+      <c r="J22">
+        <v>10001</v>
+      </c>
+      <c r="K22">
+        <v>4.6726513000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2651</v>
+      </c>
+      <c r="I23">
+        <v>0.32970899999999997</v>
+      </c>
+      <c r="J23">
+        <v>10001</v>
+      </c>
+      <c r="K23">
+        <v>1.4069723000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1757</v>
+      </c>
+      <c r="I24">
+        <v>1.5651721000000001</v>
+      </c>
+      <c r="J24">
+        <v>10001</v>
+      </c>
+      <c r="K24">
+        <v>4.8418935999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2137</v>
+      </c>
+      <c r="I25">
+        <v>0.3082259</v>
+      </c>
+      <c r="J25">
+        <v>10001</v>
+      </c>
+      <c r="K25">
+        <v>1.5858831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1718</v>
+      </c>
+      <c r="I26">
+        <v>1.7681461999999999</v>
+      </c>
+      <c r="J26">
+        <v>10001</v>
+      </c>
+      <c r="K26">
+        <v>4.6666713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2624</v>
+      </c>
+      <c r="I27">
+        <v>0.33060539999999999</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27">
+        <v>1.4283431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1790</v>
+      </c>
+      <c r="I28">
+        <v>1.3092284000000001</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28">
+        <v>4.4161577999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2138</v>
+      </c>
+      <c r="I29">
+        <v>0.32315749999999999</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29">
+        <v>2.0236936999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1770</v>
+      </c>
+      <c r="I30">
+        <v>2.4126162</v>
+      </c>
+      <c r="J30">
+        <v>10001</v>
+      </c>
+      <c r="K30">
+        <v>4.7542175000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2624</v>
+      </c>
+      <c r="I31">
+        <v>0.93289900000000003</v>
+      </c>
+      <c r="J31">
+        <v>10001</v>
+      </c>
+      <c r="K31">
+        <v>1.4248143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1751</v>
+      </c>
+      <c r="I32">
+        <v>2.3728826999999999</v>
+      </c>
+      <c r="J32">
+        <v>10001</v>
+      </c>
+      <c r="K32">
+        <v>5.6557487999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2115</v>
+      </c>
+      <c r="I33">
+        <v>0.80646470000000003</v>
+      </c>
+      <c r="J33">
+        <v>10001</v>
+      </c>
+      <c r="K33">
+        <v>2.4650200999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1760</v>
+      </c>
+      <c r="I34">
+        <v>1.8036297999999999</v>
+      </c>
+      <c r="J34">
+        <v>10001</v>
+      </c>
+      <c r="K34">
+        <v>4.5830064000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10245</v>
+      </c>
+      <c r="I35">
+        <v>1.7704498</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35">
+        <v>1.7736293000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>13308</v>
+      </c>
+      <c r="I36">
+        <v>12.1270375</v>
+      </c>
+      <c r="J36">
+        <v>10001</v>
+      </c>
+      <c r="K36">
+        <v>4.3929624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2798</v>
+      </c>
+      <c r="I37">
+        <v>0.97881439999999997</v>
+      </c>
+      <c r="J37">
+        <v>10001</v>
+      </c>
+      <c r="K37">
+        <v>1.562997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>5424</v>
+      </c>
+      <c r="I38">
+        <v>4.6609129999999999</v>
+      </c>
+      <c r="J38">
+        <v>1546</v>
+      </c>
+      <c r="K38">
+        <v>1.2205170999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10283</v>
+      </c>
+      <c r="I39">
+        <v>1.6692345</v>
+      </c>
+      <c r="J39">
+        <v>10001</v>
+      </c>
+      <c r="K39">
+        <v>1.1206370999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>13341</v>
+      </c>
+      <c r="I40">
+        <v>7.5196999</v>
+      </c>
+      <c r="J40">
+        <v>10001</v>
+      </c>
+      <c r="K40">
+        <v>4.4545953999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2734</v>
+      </c>
+      <c r="I41">
+        <v>0.7047061</v>
+      </c>
+      <c r="J41">
+        <v>10001</v>
+      </c>
+      <c r="K41">
+        <v>1.6909460000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>5470</v>
+      </c>
+      <c r="I42">
+        <v>4.1048770000000001</v>
+      </c>
+      <c r="J42">
+        <v>1545</v>
+      </c>
+      <c r="K42">
+        <v>1.1981465</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10245</v>
+      </c>
+      <c r="I43">
+        <v>1.2656198000000001</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43">
+        <v>1.0912151000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>13283</v>
+      </c>
+      <c r="I44">
+        <v>8.5962586999999999</v>
+      </c>
+      <c r="J44">
+        <v>10001</v>
+      </c>
+      <c r="K44">
+        <v>5.2486375000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>2763</v>
+      </c>
+      <c r="I45">
+        <v>0.59508380000000005</v>
+      </c>
+      <c r="J45">
+        <v>10001</v>
+      </c>
+      <c r="K45">
+        <v>1.6960473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>5186</v>
+      </c>
+      <c r="I46">
+        <v>4.3701230999999998</v>
+      </c>
+      <c r="J46">
+        <v>1546</v>
+      </c>
+      <c r="K46">
+        <v>1.1921682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10268</v>
+      </c>
+      <c r="I47">
+        <v>1.2979603</v>
+      </c>
+      <c r="J47">
+        <v>10001</v>
+      </c>
+      <c r="K47">
+        <v>1.1810482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>13294</v>
+      </c>
+      <c r="I48">
+        <v>7.0658995000000004</v>
+      </c>
+      <c r="J48">
+        <v>10001</v>
+      </c>
+      <c r="K48">
+        <v>4.6398222000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>2788</v>
+      </c>
+      <c r="I49">
+        <v>0.67028089999999996</v>
+      </c>
+      <c r="J49">
+        <v>10001</v>
+      </c>
+      <c r="K49">
+        <v>1.5922985000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>5758</v>
+      </c>
+      <c r="I50">
+        <v>4.3001469999999999</v>
+      </c>
+      <c r="J50">
+        <v>1545</v>
+      </c>
+      <c r="K50">
+        <v>1.6157842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10268</v>
+      </c>
+      <c r="I51">
+        <v>1.2481610000000001</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51">
+        <v>1.1287692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>14937</v>
+      </c>
+      <c r="I52">
+        <v>9.6258108</v>
+      </c>
+      <c r="J52">
+        <v>1528</v>
+      </c>
+      <c r="K52">
+        <v>1.1862884</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>2902</v>
+      </c>
+      <c r="I53">
+        <v>0.7129742</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53">
+        <v>1.2737372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>8722</v>
+      </c>
+      <c r="I54">
+        <v>7.1012152000000004</v>
+      </c>
+      <c r="J54">
+        <v>1526</v>
+      </c>
+      <c r="K54">
+        <v>1.1628129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10291</v>
+      </c>
+      <c r="I55">
+        <v>1.2693768000000001</v>
+      </c>
+      <c r="J55">
+        <v>10001</v>
+      </c>
+      <c r="K55">
+        <v>1.5426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>14927</v>
+      </c>
+      <c r="I56">
+        <v>10.057778300000001</v>
+      </c>
+      <c r="J56">
+        <v>10001</v>
+      </c>
+      <c r="K56">
+        <v>4.4115811000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>2990</v>
+      </c>
+      <c r="I57">
+        <v>0.62668919999999995</v>
+      </c>
+      <c r="J57">
+        <v>10001</v>
+      </c>
+      <c r="K57">
+        <v>1.7256336999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>545</v>
+      </c>
+      <c r="I58">
+        <v>0.91858629999999997</v>
+      </c>
+      <c r="J58">
+        <v>1526</v>
+      </c>
+      <c r="K58">
+        <v>1.2085793</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10303</v>
+      </c>
+      <c r="I59">
+        <v>1.0235147</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59">
+        <v>1.1227993999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>14865</v>
+      </c>
+      <c r="I60">
+        <v>9.3087985</v>
+      </c>
+      <c r="J60">
+        <v>1528</v>
+      </c>
+      <c r="K60">
+        <v>1.1554059999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>2865</v>
+      </c>
+      <c r="I61">
+        <v>0.59165080000000003</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61">
+        <v>1.3223077000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>561</v>
+      </c>
+      <c r="I62">
+        <v>0.87032419999999999</v>
+      </c>
+      <c r="J62">
+        <v>1526</v>
+      </c>
+      <c r="K62">
+        <v>1.3763570000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10317</v>
+      </c>
+      <c r="I63">
+        <v>1.2823340000000001</v>
+      </c>
+      <c r="J63">
+        <v>10001</v>
+      </c>
+      <c r="K63">
+        <v>1.2014473999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>14905</v>
+      </c>
+      <c r="I64">
+        <v>9.3393352000000007</v>
+      </c>
+      <c r="J64">
+        <v>10001</v>
+      </c>
+      <c r="K64">
+        <v>5.0903860999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>2867</v>
+      </c>
+      <c r="I65">
+        <v>0.37123820000000002</v>
+      </c>
+      <c r="J65">
+        <v>10001</v>
+      </c>
+      <c r="K65">
+        <v>1.5699262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>587</v>
+      </c>
+      <c r="I66">
+        <v>0.93225970000000002</v>
+      </c>
+      <c r="J66">
+        <v>1526</v>
+      </c>
+      <c r="K66">
+        <v>1.5742673</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5349,14 +7649,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="56"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
@@ -7675,14 +9975,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="56"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
@@ -10001,14 +12301,14 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="56"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
@@ -12327,25 +14627,25 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="56"/>
+      <c r="K1" s="58"/>
       <c r="M1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="58" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="59"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
@@ -15819,25 +18119,25 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="56"/>
+      <c r="K1" s="58"/>
       <c r="M1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="58" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="59"/>
+      <c r="Q1" s="61"/>
       <c r="R1">
         <v>9</v>
       </c>
@@ -19326,25 +21626,25 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="21"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="59"/>
+      <c r="J1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="56"/>
+      <c r="K1" s="58"/>
       <c r="M1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="58" t="s">
+      <c r="O1" s="61"/>
+      <c r="P1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="59"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
@@ -25085,7 +27385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758CE05B-3CB2-4320-9A66-7BBA607C331A}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -25167,13 +27467,13 @@
       <c r="H3">
         <v>2661</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="56">
         <v>0.48439176032762354</v>
       </c>
       <c r="J3">
         <v>10001</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="56">
         <v>0.74291504257145258</v>
       </c>
     </row>
@@ -25202,13 +27502,13 @@
       <c r="H4">
         <v>1763</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="56">
         <v>1.7925405985603353</v>
       </c>
       <c r="J4">
         <v>10001</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="56">
         <v>3.6881264682091075</v>
       </c>
     </row>
@@ -25237,13 +27537,13 @@
       <c r="H5">
         <v>2161</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="56">
         <v>0.32607095077536957</v>
       </c>
       <c r="J5">
         <v>10001</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="56">
         <v>0.79701671898327819</v>
       </c>
     </row>
@@ -25272,13 +27572,13 @@
       <c r="H6">
         <v>1769</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="56">
         <v>1.5365706161418198</v>
       </c>
       <c r="J6">
         <v>10001</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="56">
         <v>3.6031961911720214</v>
       </c>
     </row>
@@ -25307,13 +27607,13 @@
       <c r="H7">
         <v>2622</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="56">
         <v>0.31012913540422959</v>
       </c>
       <c r="J7">
         <v>10001</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="56">
         <v>0.76038792103353459</v>
       </c>
     </row>
@@ -25342,13 +27642,13 @@
       <c r="H8">
         <v>1754</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="56">
         <v>1.2510453331490321</v>
       </c>
       <c r="J8">
         <v>10001</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="56">
         <v>3.7265962796083696</v>
       </c>
     </row>
@@ -25377,13 +27677,13 @@
       <c r="H9">
         <v>2171</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="56">
         <v>0.23469377680330106</v>
       </c>
       <c r="J9">
         <v>10001</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="56">
         <v>0.81039218769944898</v>
       </c>
     </row>
@@ -25412,13 +27712,13 @@
       <c r="H10">
         <v>1767</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="56">
         <v>1.4767544283408169</v>
       </c>
       <c r="J10">
         <v>10001</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="56">
         <v>3.7513926609114869</v>
       </c>
     </row>
@@ -25447,13 +27747,13 @@
       <c r="H11">
         <v>2669</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="56">
         <v>0.25312118953235224</v>
       </c>
       <c r="J11">
         <v>10001</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="56">
         <v>0.82979282339740856</v>
       </c>
     </row>
@@ -25482,13 +27782,13 @@
       <c r="H12">
         <v>1829</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="56">
         <v>1.3176903021152084</v>
       </c>
       <c r="J12">
         <v>10001</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="56">
         <v>3.8586517053616829</v>
       </c>
     </row>
@@ -25517,13 +27817,13 @@
       <c r="H13">
         <v>2123</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="56">
         <v>0.24177679483825104</v>
       </c>
       <c r="J13">
         <v>10001</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="56">
         <v>0.84851008731502597</v>
       </c>
     </row>
@@ -25552,13 +27852,13 @@
       <c r="H14">
         <v>1811</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="56">
         <v>1.5782058705091577</v>
       </c>
       <c r="J14">
         <v>10001</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="56">
         <v>3.5973332280183841</v>
       </c>
     </row>
@@ -25587,13 +27887,13 @@
       <c r="H15">
         <v>2706</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="56">
         <v>0.20830109826096338</v>
       </c>
       <c r="J15">
         <v>10001</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15" s="56">
         <v>0.76534747938777226</v>
       </c>
     </row>
@@ -25622,13 +27922,13 @@
       <c r="H16">
         <v>1801</v>
       </c>
-      <c r="I16" s="61">
+      <c r="I16" s="56">
         <v>1.2600525822496824</v>
       </c>
       <c r="J16">
         <v>10001</v>
       </c>
-      <c r="K16" s="61">
+      <c r="K16" s="56">
         <v>3.4952216867928705</v>
       </c>
     </row>
@@ -25657,13 +27957,13 @@
       <c r="H17">
         <v>2166</v>
       </c>
-      <c r="I17" s="61">
+      <c r="I17" s="56">
         <v>0.23575797496278128</v>
       </c>
       <c r="J17">
         <v>10001</v>
       </c>
-      <c r="K17" s="61">
+      <c r="K17" s="56">
         <v>1.0131945761860803</v>
       </c>
     </row>
@@ -25692,13 +27992,13 @@
       <c r="H18">
         <v>1755</v>
       </c>
-      <c r="I18" s="61">
+      <c r="I18" s="56">
         <v>1.3626235834492855</v>
       </c>
       <c r="J18">
         <v>10001</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18" s="56">
         <v>3.7038422560718889</v>
       </c>
     </row>
@@ -25727,13 +28027,13 @@
       <c r="H19">
         <v>2691</v>
       </c>
-      <c r="I19" s="61">
+      <c r="I19" s="56">
         <v>0.25819887458752622</v>
       </c>
       <c r="J19">
         <v>10001</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="56">
         <v>0.75867420232741334</v>
       </c>
     </row>
@@ -25762,13 +28062,13 @@
       <c r="H20">
         <v>1770</v>
       </c>
-      <c r="I20" s="61">
+      <c r="I20" s="56">
         <v>1.3411365128574744</v>
       </c>
       <c r="J20">
         <v>10001</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="56">
         <v>3.8043948774620602</v>
       </c>
     </row>
@@ -25797,13 +28097,13 @@
       <c r="H21">
         <v>2132</v>
       </c>
-      <c r="I21" s="61">
+      <c r="I21" s="56">
         <v>0.28842555796353797</v>
       </c>
       <c r="J21">
         <v>10001</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="56">
         <v>0.86143138531237284</v>
       </c>
     </row>
@@ -25832,13 +28132,13 @@
       <c r="H22">
         <v>1788</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="56">
         <v>1.408670076708306</v>
       </c>
       <c r="J22">
         <v>10001</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="56">
         <v>3.5590672292553647</v>
       </c>
     </row>
@@ -25867,13 +28167,13 @@
       <c r="H23">
         <v>2691</v>
       </c>
-      <c r="I23" s="61">
+      <c r="I23" s="56">
         <v>0.26182448276372755</v>
       </c>
       <c r="J23">
         <v>10001</v>
       </c>
-      <c r="K23" s="61">
+      <c r="K23" s="56">
         <v>0.7698320626191405</v>
       </c>
     </row>
@@ -25902,13 +28202,13 @@
       <c r="H24">
         <v>1780</v>
       </c>
-      <c r="I24" s="61">
+      <c r="I24" s="56">
         <v>1.3624232969832204</v>
       </c>
       <c r="J24">
         <v>10001</v>
       </c>
-      <c r="K24" s="61">
+      <c r="K24" s="56">
         <v>3.515675942139779</v>
       </c>
     </row>
@@ -25937,13 +28237,13 @@
       <c r="H25">
         <v>2200</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I25" s="56">
         <v>0.24808476066825155</v>
       </c>
       <c r="J25">
         <v>10001</v>
       </c>
-      <c r="K25" s="61">
+      <c r="K25" s="56">
         <v>0.94886630102632707</v>
       </c>
     </row>
@@ -25972,13 +28272,13 @@
       <c r="H26">
         <v>1763</v>
       </c>
-      <c r="I26" s="61">
+      <c r="I26" s="56">
         <v>1.3941517762377034</v>
       </c>
       <c r="J26">
         <v>10001</v>
       </c>
-      <c r="K26" s="61">
+      <c r="K26" s="56">
         <v>4.1946199105904292</v>
       </c>
     </row>
@@ -26007,13 +28307,13 @@
       <c r="H27">
         <v>2686</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="56">
         <v>0.20521887290906923</v>
       </c>
       <c r="J27">
         <v>10001</v>
       </c>
-      <c r="K27" s="61">
+      <c r="K27" s="56">
         <v>0.72638188846159546</v>
       </c>
     </row>
@@ -26042,13 +28342,13 @@
       <c r="H28">
         <v>1814</v>
       </c>
-      <c r="I28" s="61">
+      <c r="I28" s="56">
         <v>1.3958679632629487</v>
       </c>
       <c r="J28">
         <v>10001</v>
       </c>
-      <c r="K28" s="61">
+      <c r="K28" s="56">
         <v>3.8609722779553008</v>
       </c>
     </row>
@@ -26077,13 +28377,13 @@
       <c r="H29">
         <v>2135</v>
       </c>
-      <c r="I29" s="61">
+      <c r="I29" s="56">
         <v>0.23139962862375693</v>
       </c>
       <c r="J29">
         <v>10001</v>
       </c>
-      <c r="K29" s="61">
+      <c r="K29" s="56">
         <v>0.9702620438105487</v>
       </c>
     </row>
@@ -26112,13 +28412,13 @@
       <c r="H30">
         <v>1753</v>
       </c>
-      <c r="I30" s="61">
+      <c r="I30" s="56">
         <v>1.4488902789835321</v>
       </c>
       <c r="J30">
         <v>10001</v>
       </c>
-      <c r="K30" s="61">
+      <c r="K30" s="56">
         <v>4.3184290347673331</v>
       </c>
     </row>
@@ -26147,13 +28447,13 @@
       <c r="H31">
         <v>2686</v>
       </c>
-      <c r="I31" s="61">
+      <c r="I31" s="56">
         <v>0.20492443769927268</v>
       </c>
       <c r="J31">
         <v>10001</v>
       </c>
-      <c r="K31" s="61">
+      <c r="K31" s="56">
         <v>0.65806904100160157</v>
       </c>
     </row>
@@ -26182,13 +28482,13 @@
       <c r="H32">
         <v>1842</v>
       </c>
-      <c r="I32" s="61">
+      <c r="I32" s="56">
         <v>1.3961609880046744</v>
       </c>
       <c r="J32">
         <v>10001</v>
       </c>
-      <c r="K32" s="61">
+      <c r="K32" s="56">
         <v>3.4597399520017715</v>
       </c>
     </row>
@@ -26217,13 +28517,13 @@
       <c r="H33">
         <v>2154</v>
       </c>
-      <c r="I33" s="61">
+      <c r="I33" s="56">
         <v>0.23475901095157933</v>
       </c>
       <c r="J33">
         <v>10001</v>
       </c>
-      <c r="K33" s="61">
+      <c r="K33" s="56">
         <v>1.092900126871603</v>
       </c>
     </row>
@@ -26252,13 +28552,13 @@
       <c r="H34">
         <v>1837</v>
       </c>
-      <c r="I34" s="61">
+      <c r="I34" s="56">
         <v>1.4059179008849982</v>
       </c>
       <c r="J34">
         <v>10001</v>
       </c>
-      <c r="K34" s="61">
+      <c r="K34" s="56">
         <v>4.3455763137275918</v>
       </c>
     </row>
@@ -26287,13 +28587,13 @@
       <c r="H35">
         <v>10321</v>
       </c>
-      <c r="I35" s="61">
+      <c r="I35" s="56">
         <v>0.8289779254694567</v>
       </c>
       <c r="J35">
         <v>10001</v>
       </c>
-      <c r="K35" s="61">
+      <c r="K35" s="56">
         <v>0.63737324299755493</v>
       </c>
     </row>
@@ -26322,13 +28622,13 @@
       <c r="H36">
         <v>13603</v>
       </c>
-      <c r="I36" s="61">
+      <c r="I36" s="56">
         <v>7.577485121324937</v>
       </c>
       <c r="J36">
         <v>10001</v>
       </c>
-      <c r="K36" s="61">
+      <c r="K36" s="56">
         <v>3.8510330620768154</v>
       </c>
     </row>
@@ -26357,13 +28657,13 @@
       <c r="H37">
         <v>2906</v>
       </c>
-      <c r="I37" s="61">
+      <c r="I37" s="56">
         <v>0.25003014875501511</v>
       </c>
       <c r="J37">
         <v>10001</v>
       </c>
-      <c r="K37" s="61">
+      <c r="K37" s="56">
         <v>0.92348210715466983</v>
       </c>
     </row>
@@ -26392,13 +28692,13 @@
       <c r="H38">
         <v>5658</v>
       </c>
-      <c r="I38" s="61">
+      <c r="I38" s="56">
         <v>3.6242819835976667</v>
       </c>
       <c r="J38">
         <v>1544</v>
       </c>
-      <c r="K38" s="61">
+      <c r="K38" s="56">
         <v>1.1216447609221358</v>
       </c>
     </row>
@@ -26427,13 +28727,13 @@
       <c r="H39">
         <v>10311</v>
       </c>
-      <c r="I39" s="61">
+      <c r="I39" s="56">
         <v>0.79023906728567406</v>
       </c>
       <c r="J39">
         <v>10001</v>
       </c>
-      <c r="K39" s="61">
+      <c r="K39" s="56">
         <v>0.63302441731800907</v>
       </c>
     </row>
@@ -26462,13 +28762,13 @@
       <c r="H40">
         <v>13607</v>
       </c>
-      <c r="I40" s="61">
+      <c r="I40" s="56">
         <v>5.95486290602968</v>
       </c>
       <c r="J40">
         <v>1545</v>
       </c>
-      <c r="K40" s="61">
+      <c r="K40" s="56">
         <v>1.0833724150527972</v>
       </c>
     </row>
@@ -26497,13 +28797,13 @@
       <c r="H41">
         <v>2887</v>
       </c>
-      <c r="I41" s="61">
+      <c r="I41" s="56">
         <v>0.24714397846497349</v>
       </c>
       <c r="J41">
         <v>10001</v>
       </c>
-      <c r="K41" s="61">
+      <c r="K41" s="56">
         <v>0.85164873138975539</v>
       </c>
     </row>
@@ -26532,13 +28832,13 @@
       <c r="H42">
         <v>5580</v>
       </c>
-      <c r="I42" s="61">
+      <c r="I42" s="56">
         <v>3.7645304657577139</v>
       </c>
       <c r="J42">
         <v>1544</v>
       </c>
-      <c r="K42" s="61">
+      <c r="K42" s="56">
         <v>1.1293254648021218</v>
       </c>
     </row>
@@ -26567,13 +28867,13 @@
       <c r="H43">
         <v>10295</v>
       </c>
-      <c r="I43" s="61">
+      <c r="I43" s="56">
         <v>0.80302883913541123</v>
       </c>
       <c r="J43">
         <v>10001</v>
       </c>
-      <c r="K43" s="61">
+      <c r="K43" s="56">
         <v>0.63512742521169363</v>
       </c>
     </row>
@@ -26602,13 +28902,13 @@
       <c r="H44">
         <v>13618</v>
       </c>
-      <c r="I44" s="61">
+      <c r="I44" s="56">
         <v>7.0397275963014705</v>
       </c>
       <c r="J44">
         <v>10001</v>
       </c>
-      <c r="K44" s="61">
+      <c r="K44" s="56">
         <v>3.3994269268228008</v>
       </c>
     </row>
@@ -26637,13 +28937,13 @@
       <c r="H45">
         <v>2918</v>
       </c>
-      <c r="I45" s="61">
+      <c r="I45" s="56">
         <v>0.38874650997306709</v>
       </c>
       <c r="J45">
         <v>10001</v>
       </c>
-      <c r="K45" s="61">
+      <c r="K45" s="56">
         <v>0.96311414424433817</v>
       </c>
     </row>
@@ -26672,13 +28972,13 @@
       <c r="H46">
         <v>5765</v>
       </c>
-      <c r="I46" s="61">
+      <c r="I46" s="56">
         <v>4.0072917673094404</v>
       </c>
       <c r="J46">
         <v>1544</v>
       </c>
-      <c r="K46" s="61">
+      <c r="K46" s="56">
         <v>1.0987905941526226</v>
       </c>
     </row>
@@ -26707,13 +29007,13 @@
       <c r="H47">
         <v>10333</v>
       </c>
-      <c r="I47" s="61">
+      <c r="I47" s="56">
         <v>0.81031038055133786</v>
       </c>
       <c r="J47">
         <v>10001</v>
       </c>
-      <c r="K47" s="61">
+      <c r="K47" s="56">
         <v>0.70108831716349229</v>
       </c>
     </row>
@@ -26742,13 +29042,13 @@
       <c r="H48">
         <v>13620</v>
       </c>
-      <c r="I48" s="61">
+      <c r="I48" s="56">
         <v>5.9202207523577739</v>
       </c>
       <c r="J48">
         <v>1545</v>
       </c>
-      <c r="K48" s="61">
+      <c r="K48" s="56">
         <v>1.2015840966904072</v>
       </c>
     </row>
@@ -26777,13 +29077,13 @@
       <c r="H49">
         <v>2801</v>
       </c>
-      <c r="I49" s="61">
+      <c r="I49" s="56">
         <v>0.29805447086642939</v>
       </c>
       <c r="J49">
         <v>10001</v>
       </c>
-      <c r="K49" s="61">
+      <c r="K49" s="56">
         <v>0.80928567549784236</v>
       </c>
     </row>
@@ -26812,13 +29112,13 @@
       <c r="H50">
         <v>5706</v>
       </c>
-      <c r="I50" s="61">
+      <c r="I50" s="56">
         <v>3.699939843536777</v>
       </c>
       <c r="J50">
         <v>1544</v>
       </c>
-      <c r="K50" s="61">
+      <c r="K50" s="56">
         <v>1.0998167096741889</v>
       </c>
     </row>
@@ -26847,13 +29147,13 @@
       <c r="H51">
         <v>10338</v>
       </c>
-      <c r="I51" s="61">
+      <c r="I51" s="56">
         <v>0.62261481033788468</v>
       </c>
       <c r="J51">
         <v>10001</v>
       </c>
-      <c r="K51" s="61">
+      <c r="K51" s="56">
         <v>0.67515968261647474</v>
       </c>
     </row>
@@ -26882,13 +29182,13 @@
       <c r="H52">
         <v>14967</v>
       </c>
-      <c r="I52" s="61">
+      <c r="I52" s="56">
         <v>8.0828526575686777</v>
       </c>
       <c r="J52">
         <v>1526</v>
       </c>
-      <c r="K52" s="61">
+      <c r="K52" s="56">
         <v>1.0867942105927562</v>
       </c>
     </row>
@@ -26917,13 +29217,13 @@
       <c r="H53">
         <v>3022</v>
       </c>
-      <c r="I53" s="61">
+      <c r="I53" s="56">
         <v>0.43080525737868741</v>
       </c>
       <c r="J53">
         <v>10001</v>
       </c>
-      <c r="K53" s="61">
+      <c r="K53" s="56">
         <v>0.95104441634478609</v>
       </c>
     </row>
@@ -26952,13 +29252,13 @@
       <c r="H54">
         <v>9095</v>
       </c>
-      <c r="I54" s="61">
+      <c r="I54" s="56">
         <v>6.3041864808045878</v>
       </c>
       <c r="J54">
         <v>1524</v>
       </c>
-      <c r="K54" s="61">
+      <c r="K54" s="56">
         <v>1.1076906476798858</v>
       </c>
     </row>
@@ -26987,13 +29287,13 @@
       <c r="H55">
         <v>10326</v>
       </c>
-      <c r="I55" s="61">
+      <c r="I55" s="56">
         <v>0.6275849472026539</v>
       </c>
       <c r="J55">
         <v>10001</v>
       </c>
-      <c r="K55" s="61">
+      <c r="K55" s="56">
         <v>0.65789132202467049</v>
       </c>
     </row>
@@ -27022,13 +29322,13 @@
       <c r="H56">
         <v>15007</v>
       </c>
-      <c r="I56" s="61">
+      <c r="I56" s="56">
         <v>6.8815869740452715</v>
       </c>
       <c r="J56">
         <v>10001</v>
       </c>
-      <c r="K56" s="61">
+      <c r="K56" s="56">
         <v>3.4645972514208703</v>
       </c>
     </row>
@@ -27057,13 +29357,13 @@
       <c r="H57">
         <v>2962</v>
       </c>
-      <c r="I57" s="61">
+      <c r="I57" s="56">
         <v>0.27580927368651925</v>
       </c>
       <c r="J57">
         <v>10001</v>
       </c>
-      <c r="K57" s="61">
+      <c r="K57" s="56">
         <v>0.98101404191487962</v>
       </c>
     </row>
@@ -27092,13 +29392,13 @@
       <c r="H58">
         <v>553</v>
       </c>
-      <c r="I58" s="61">
+      <c r="I58" s="56">
         <v>1.0635881320395579</v>
       </c>
       <c r="J58">
         <v>1524</v>
       </c>
-      <c r="K58" s="61">
+      <c r="K58" s="56">
         <v>1.1542396201891578</v>
       </c>
     </row>
@@ -27127,13 +29427,13 @@
       <c r="H59">
         <v>10332</v>
       </c>
-      <c r="I59" s="61">
+      <c r="I59" s="56">
         <v>0.56227921766977984</v>
       </c>
       <c r="J59">
         <v>10001</v>
       </c>
-      <c r="K59" s="61">
+      <c r="K59" s="56">
         <v>0.66974736401148405</v>
       </c>
     </row>
@@ -27162,13 +29462,13 @@
       <c r="H60">
         <v>14900</v>
       </c>
-      <c r="I60" s="61">
+      <c r="I60" s="56">
         <v>7.2561085609064797</v>
       </c>
       <c r="J60">
         <v>1526</v>
       </c>
-      <c r="K60" s="61">
+      <c r="K60" s="56">
         <v>1.1516168548113535</v>
       </c>
     </row>
@@ -27197,13 +29497,13 @@
       <c r="H61">
         <v>2876</v>
       </c>
-      <c r="I61" s="61">
+      <c r="I61" s="56">
         <v>0.28121242424904919</v>
       </c>
       <c r="J61">
         <v>10001</v>
       </c>
-      <c r="K61" s="61">
+      <c r="K61" s="56">
         <v>0.86779506463117317</v>
       </c>
     </row>
@@ -27232,13 +29532,13 @@
       <c r="H62">
         <v>626</v>
       </c>
-      <c r="I62" s="61">
+      <c r="I62" s="56">
         <v>1.180554722987597</v>
       </c>
       <c r="J62">
         <v>1524</v>
       </c>
-      <c r="K62" s="61">
+      <c r="K62" s="56">
         <v>1.1146241560993224</v>
       </c>
     </row>
@@ -27267,13 +29567,13 @@
       <c r="H63">
         <v>10301</v>
       </c>
-      <c r="I63" s="61">
+      <c r="I63" s="56">
         <v>0.56540410968081811</v>
       </c>
       <c r="J63">
         <v>10001</v>
       </c>
-      <c r="K63" s="61">
+      <c r="K63" s="56">
         <v>0.67110811308286711</v>
       </c>
     </row>
@@ -27302,13 +29602,13 @@
       <c r="H64">
         <v>14948</v>
       </c>
-      <c r="I64" s="61">
+      <c r="I64" s="56">
         <v>6.9525892314994193</v>
       </c>
       <c r="J64">
         <v>10001</v>
       </c>
-      <c r="K64" s="61">
+      <c r="K64" s="56">
         <v>3.5141593363465633</v>
       </c>
     </row>
@@ -27337,13 +29637,13 @@
       <c r="H65">
         <v>2931</v>
       </c>
-      <c r="I65" s="61">
+      <c r="I65" s="56">
         <v>0.28512788361381669</v>
       </c>
       <c r="J65">
         <v>10001</v>
       </c>
-      <c r="K65" s="61">
+      <c r="K65" s="56">
         <v>0.93936750380297451</v>
       </c>
     </row>
@@ -27372,13 +29672,13 @@
       <c r="H66">
         <v>9413</v>
       </c>
-      <c r="I66" s="61">
+      <c r="I66" s="56">
         <v>5.6176362106646902</v>
       </c>
       <c r="J66">
         <v>1524</v>
       </c>
-      <c r="K66" s="61">
+      <c r="K66" s="56">
         <v>1.1172398691367724</v>
       </c>
     </row>

--- a/Workflows/Testing/Hydraulic_Lift_Res.xlsx
+++ b/Workflows/Testing/Hydraulic_Lift_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658DDB04-BD2F-4B8B-ABAB-8036146616B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E8918-7BFA-4B00-B1E0-6F8433704577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2355" windowWidth="21600" windowHeight="11505" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1575" windowWidth="21600" windowHeight="11325" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="2019a" sheetId="16" r:id="rId10"/>
     <sheet name="2020a" sheetId="17" r:id="rId11"/>
     <sheet name="2021b" sheetId="18" r:id="rId12"/>
+    <sheet name="2022a" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4785" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="29">
   <si>
     <t>Run</t>
   </si>
@@ -129,6 +130,9 @@
   </si>
   <si>
     <t>13-Sep-2021 23:30:06</t>
+  </si>
+  <si>
+    <t>11-Mar-2022 11:07:41</t>
   </si>
 </sst>
 </file>
@@ -7626,7 +7630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B36D0D-310B-47A0-B999-1136232162A0}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9910,6 +9914,2301 @@
       </c>
       <c r="K66">
         <v>1.0727371000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A4D864-5D24-4A02-83A0-ACC35E8A75C7}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2616</v>
+      </c>
+      <c r="I3">
+        <v>0.42395080000000002</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3">
+        <v>0.82713789999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1730</v>
+      </c>
+      <c r="I4">
+        <v>0.90968830000000001</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4">
+        <v>2.5955168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2125</v>
+      </c>
+      <c r="I5">
+        <v>0.296653</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5">
+        <v>0.94141529999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1731</v>
+      </c>
+      <c r="I6">
+        <v>0.84782120000000005</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6">
+        <v>2.7189518000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2616</v>
+      </c>
+      <c r="I7">
+        <v>0.29720170000000001</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7">
+        <v>0.82340849999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1718</v>
+      </c>
+      <c r="I8">
+        <v>0.75169680000000005</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8">
+        <v>2.5763411999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2101</v>
+      </c>
+      <c r="I9">
+        <v>0.2055488</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9">
+        <v>0.95132879999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1720</v>
+      </c>
+      <c r="I10">
+        <v>0.88641899999999996</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10">
+        <v>2.7253010999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2607</v>
+      </c>
+      <c r="I11">
+        <v>0.29172900000000002</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>0.83191619999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1754</v>
+      </c>
+      <c r="I12">
+        <v>0.88418660000000004</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>2.6121088000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2145</v>
+      </c>
+      <c r="I13">
+        <v>0.21333260000000001</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
+        <v>0.94384170000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1715</v>
+      </c>
+      <c r="I14">
+        <v>0.86017869999999996</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14">
+        <v>2.7631586000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2608</v>
+      </c>
+      <c r="I15">
+        <v>0.22567670000000001</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>0.84455139999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1791</v>
+      </c>
+      <c r="I16">
+        <v>0.80847780000000002</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16">
+        <v>2.6730361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2172</v>
+      </c>
+      <c r="I17">
+        <v>0.2137155</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17">
+        <v>0.96756030000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1688</v>
+      </c>
+      <c r="I18">
+        <v>0.85698280000000004</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18">
+        <v>2.8548697000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2651</v>
+      </c>
+      <c r="I19">
+        <v>0.2190242</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19">
+        <v>0.88259549999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1762</v>
+      </c>
+      <c r="I20">
+        <v>0.83007129999999996</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20">
+        <v>2.7595781000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2138</v>
+      </c>
+      <c r="I21">
+        <v>0.20828140000000001</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21">
+        <v>1.0277402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1730</v>
+      </c>
+      <c r="I22">
+        <v>0.85329639999999995</v>
+      </c>
+      <c r="J22">
+        <v>10001</v>
+      </c>
+      <c r="K22">
+        <v>2.9488433000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2651</v>
+      </c>
+      <c r="I23">
+        <v>0.2208754</v>
+      </c>
+      <c r="J23">
+        <v>10001</v>
+      </c>
+      <c r="K23">
+        <v>0.87978299999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1768</v>
+      </c>
+      <c r="I24">
+        <v>0.86092970000000002</v>
+      </c>
+      <c r="J24">
+        <v>10001</v>
+      </c>
+      <c r="K24">
+        <v>2.6821579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2136</v>
+      </c>
+      <c r="I25">
+        <v>0.2059636</v>
+      </c>
+      <c r="J25">
+        <v>10001</v>
+      </c>
+      <c r="K25">
+        <v>1.0056909000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1717</v>
+      </c>
+      <c r="I26">
+        <v>0.8717859</v>
+      </c>
+      <c r="J26">
+        <v>10001</v>
+      </c>
+      <c r="K26">
+        <v>2.7964031999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2624</v>
+      </c>
+      <c r="I27">
+        <v>0.22009129999999999</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27">
+        <v>0.84288949999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1818</v>
+      </c>
+      <c r="I28">
+        <v>0.83246169999999997</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28">
+        <v>2.6681439999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2152</v>
+      </c>
+      <c r="I29">
+        <v>0.222714</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29">
+        <v>0.9894849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1795</v>
+      </c>
+      <c r="I30">
+        <v>0.8646083</v>
+      </c>
+      <c r="J30">
+        <v>10001</v>
+      </c>
+      <c r="K30">
+        <v>2.8036694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2624</v>
+      </c>
+      <c r="I31">
+        <v>0.22226570000000001</v>
+      </c>
+      <c r="J31">
+        <v>10001</v>
+      </c>
+      <c r="K31">
+        <v>0.86211269999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1796</v>
+      </c>
+      <c r="I32">
+        <v>0.86102500000000004</v>
+      </c>
+      <c r="J32">
+        <v>10001</v>
+      </c>
+      <c r="K32">
+        <v>2.7210288999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2120</v>
+      </c>
+      <c r="I33">
+        <v>0.21831149999999999</v>
+      </c>
+      <c r="J33">
+        <v>10001</v>
+      </c>
+      <c r="K33">
+        <v>0.97999179999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1769</v>
+      </c>
+      <c r="I34">
+        <v>0.86341650000000003</v>
+      </c>
+      <c r="J34">
+        <v>10001</v>
+      </c>
+      <c r="K34">
+        <v>2.7573805999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10250</v>
+      </c>
+      <c r="I35">
+        <v>0.90385530000000003</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35">
+        <v>0.86596010000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>13312</v>
+      </c>
+      <c r="I36">
+        <v>6.1354112000000001</v>
+      </c>
+      <c r="J36">
+        <v>10001</v>
+      </c>
+      <c r="K36">
+        <v>2.6808871999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2853</v>
+      </c>
+      <c r="I37">
+        <v>0.26718320000000001</v>
+      </c>
+      <c r="J37">
+        <v>10001</v>
+      </c>
+      <c r="K37">
+        <v>1.0025550000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>5191</v>
+      </c>
+      <c r="I38">
+        <v>2.7288649</v>
+      </c>
+      <c r="J38">
+        <v>1546</v>
+      </c>
+      <c r="K38">
+        <v>0.63385380000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10243</v>
+      </c>
+      <c r="I39">
+        <v>0.88517800000000002</v>
+      </c>
+      <c r="J39">
+        <v>10001</v>
+      </c>
+      <c r="K39">
+        <v>0.85792829999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>13293</v>
+      </c>
+      <c r="I40">
+        <v>4.5433617000000002</v>
+      </c>
+      <c r="J40">
+        <v>10001</v>
+      </c>
+      <c r="K40">
+        <v>2.7944659999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2725</v>
+      </c>
+      <c r="I41">
+        <v>0.26584930000000001</v>
+      </c>
+      <c r="J41">
+        <v>10001</v>
+      </c>
+      <c r="K41">
+        <v>1.0082996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>5906</v>
+      </c>
+      <c r="I42">
+        <v>3.0763061999999999</v>
+      </c>
+      <c r="J42">
+        <v>1545</v>
+      </c>
+      <c r="K42">
+        <v>0.63569129999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10241</v>
+      </c>
+      <c r="I43">
+        <v>0.88398399999999999</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43">
+        <v>0.84402940000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>13294</v>
+      </c>
+      <c r="I44">
+        <v>6.0121188999999999</v>
+      </c>
+      <c r="J44">
+        <v>10001</v>
+      </c>
+      <c r="K44">
+        <v>2.7641920999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>2815</v>
+      </c>
+      <c r="I45">
+        <v>0.2673643</v>
+      </c>
+      <c r="J45">
+        <v>10001</v>
+      </c>
+      <c r="K45">
+        <v>0.95536730000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>5162</v>
+      </c>
+      <c r="I46">
+        <v>2.6941549</v>
+      </c>
+      <c r="J46">
+        <v>1546</v>
+      </c>
+      <c r="K46">
+        <v>0.65273809999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10246</v>
+      </c>
+      <c r="I47">
+        <v>0.89172629999999997</v>
+      </c>
+      <c r="J47">
+        <v>10001</v>
+      </c>
+      <c r="K47">
+        <v>0.87966239999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>13316</v>
+      </c>
+      <c r="I48">
+        <v>4.5100733999999996</v>
+      </c>
+      <c r="J48">
+        <v>10001</v>
+      </c>
+      <c r="K48">
+        <v>2.7071793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>2753</v>
+      </c>
+      <c r="I49">
+        <v>0.27308379999999999</v>
+      </c>
+      <c r="J49">
+        <v>10001</v>
+      </c>
+      <c r="K49">
+        <v>0.95809140000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>5813</v>
+      </c>
+      <c r="I50">
+        <v>3.0334544000000001</v>
+      </c>
+      <c r="J50">
+        <v>1545</v>
+      </c>
+      <c r="K50">
+        <v>0.6322065</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10309</v>
+      </c>
+      <c r="I51">
+        <v>0.85232419999999998</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51">
+        <v>0.85612370000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>14960</v>
+      </c>
+      <c r="I52">
+        <v>6.4591814999999997</v>
+      </c>
+      <c r="J52">
+        <v>1528</v>
+      </c>
+      <c r="K52">
+        <v>0.59848760000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>2932</v>
+      </c>
+      <c r="I53">
+        <v>0.30242010000000003</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53">
+        <v>1.0376662000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>9116</v>
+      </c>
+      <c r="I54">
+        <v>5.0680012999999997</v>
+      </c>
+      <c r="J54">
+        <v>1526</v>
+      </c>
+      <c r="K54">
+        <v>0.59950239999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10305</v>
+      </c>
+      <c r="I55">
+        <v>0.87407860000000004</v>
+      </c>
+      <c r="J55">
+        <v>10001</v>
+      </c>
+      <c r="K55">
+        <v>0.88142359999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>14952</v>
+      </c>
+      <c r="I56">
+        <v>6.6845673999999997</v>
+      </c>
+      <c r="J56">
+        <v>10001</v>
+      </c>
+      <c r="K56">
+        <v>2.6335307000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>3062</v>
+      </c>
+      <c r="I57">
+        <v>0.29008070000000002</v>
+      </c>
+      <c r="J57">
+        <v>10001</v>
+      </c>
+      <c r="K57">
+        <v>0.97171890000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>8616</v>
+      </c>
+      <c r="I58">
+        <v>4.8057961999999996</v>
+      </c>
+      <c r="J58">
+        <v>1526</v>
+      </c>
+      <c r="K58">
+        <v>0.65835489999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10291</v>
+      </c>
+      <c r="I59">
+        <v>0.88524530000000001</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59">
+        <v>0.90879019999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>14850</v>
+      </c>
+      <c r="I60">
+        <v>6.4995561999999998</v>
+      </c>
+      <c r="J60">
+        <v>1528</v>
+      </c>
+      <c r="K60">
+        <v>0.61105929999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>2869</v>
+      </c>
+      <c r="I61">
+        <v>0.27550039999999998</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61">
+        <v>1.0027815</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>552</v>
+      </c>
+      <c r="I62">
+        <v>0.56153660000000005</v>
+      </c>
+      <c r="J62">
+        <v>1526</v>
+      </c>
+      <c r="K62">
+        <v>0.62003090000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10278</v>
+      </c>
+      <c r="I63">
+        <v>0.86262910000000004</v>
+      </c>
+      <c r="J63">
+        <v>10001</v>
+      </c>
+      <c r="K63">
+        <v>0.93305170000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>14888</v>
+      </c>
+      <c r="I64">
+        <v>6.6777376000000004</v>
+      </c>
+      <c r="J64">
+        <v>10001</v>
+      </c>
+      <c r="K64">
+        <v>2.6466864000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>2898</v>
+      </c>
+      <c r="I65">
+        <v>0.27356829999999999</v>
+      </c>
+      <c r="J65">
+        <v>10001</v>
+      </c>
+      <c r="K65">
+        <v>0.96353540000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>8663</v>
+      </c>
+      <c r="I66">
+        <v>4.9439326000000001</v>
+      </c>
+      <c r="J66">
+        <v>1526</v>
+      </c>
+      <c r="K66">
+        <v>0.64026850000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Workflows/Testing/Hydraulic_Lift_Res.xlsx
+++ b/Workflows/Testing/Hydraulic_Lift_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E8918-7BFA-4B00-B1E0-6F8433704577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65160F3E-52B7-48D9-BABC-6B8585C6D3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1575" windowWidth="21600" windowHeight="11325" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2020a" sheetId="17" r:id="rId11"/>
     <sheet name="2021b" sheetId="18" r:id="rId12"/>
     <sheet name="2022a" sheetId="19" r:id="rId13"/>
+    <sheet name="2022b" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5577" uniqueCount="30">
   <si>
     <t>Run</t>
   </si>
@@ -133,6 +134,9 @@
   </si>
   <si>
     <t>11-Mar-2022 11:07:41</t>
+  </si>
+  <si>
+    <t>20-Sep-2022 12:39:07</t>
   </si>
 </sst>
 </file>
@@ -9925,8 +9929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A4D864-5D24-4A02-83A0-ACC35E8A75C7}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12209,6 +12213,2299 @@
       </c>
       <c r="K66">
         <v>0.64026850000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5858F80E-C5BA-4769-8C8D-CEF1A73571CD}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2600</v>
+      </c>
+      <c r="I3">
+        <v>0.27366889999999999</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3">
+        <v>0.87552030000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1739</v>
+      </c>
+      <c r="I4">
+        <v>0.91906290000000002</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4">
+        <v>2.8478696000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2132</v>
+      </c>
+      <c r="I5">
+        <v>0.20078799999999999</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5">
+        <v>1.0093424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1672</v>
+      </c>
+      <c r="I6">
+        <v>0.8446188</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6">
+        <v>2.9453333000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2610</v>
+      </c>
+      <c r="I7">
+        <v>0.22266610000000001</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7">
+        <v>0.83786930000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1804</v>
+      </c>
+      <c r="I8">
+        <v>0.80314770000000002</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8">
+        <v>2.8359181000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2181</v>
+      </c>
+      <c r="I9">
+        <v>0.1944668</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9">
+        <v>0.96686629999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1733</v>
+      </c>
+      <c r="I10">
+        <v>0.88926570000000005</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10">
+        <v>2.9576669999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2646</v>
+      </c>
+      <c r="I11">
+        <v>0.20828540000000001</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>0.86270309999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1764</v>
+      </c>
+      <c r="I12">
+        <v>0.87183560000000004</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>2.9021290999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2130</v>
+      </c>
+      <c r="I13">
+        <v>0.1859441</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
+        <v>1.0370303000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1756</v>
+      </c>
+      <c r="I14">
+        <v>0.88289249999999997</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14">
+        <v>2.9743279999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2675</v>
+      </c>
+      <c r="I15">
+        <v>0.1971657</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>0.87694879999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1751</v>
+      </c>
+      <c r="I16">
+        <v>0.77299700000000005</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16">
+        <v>2.8557003000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2115</v>
+      </c>
+      <c r="I17">
+        <v>0.19869619999999999</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17">
+        <v>0.99984510000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1702</v>
+      </c>
+      <c r="I18">
+        <v>0.87550910000000004</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18">
+        <v>3.004086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2652</v>
+      </c>
+      <c r="I19">
+        <v>0.20507359999999999</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19">
+        <v>0.89587850000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1763</v>
+      </c>
+      <c r="I20">
+        <v>0.7999984</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20">
+        <v>2.7798463999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2137</v>
+      </c>
+      <c r="I21">
+        <v>0.213892</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21">
+        <v>1.0470094000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1744</v>
+      </c>
+      <c r="I22">
+        <v>0.86930629999999998</v>
+      </c>
+      <c r="J22">
+        <v>10001</v>
+      </c>
+      <c r="K22">
+        <v>3.0972531000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2653</v>
+      </c>
+      <c r="I23">
+        <v>0.1998393</v>
+      </c>
+      <c r="J23">
+        <v>10001</v>
+      </c>
+      <c r="K23">
+        <v>0.91504220000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1770</v>
+      </c>
+      <c r="I24">
+        <v>0.87307049999999997</v>
+      </c>
+      <c r="J24">
+        <v>10001</v>
+      </c>
+      <c r="K24">
+        <v>2.6962668000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2136</v>
+      </c>
+      <c r="I25">
+        <v>0.213002</v>
+      </c>
+      <c r="J25">
+        <v>10001</v>
+      </c>
+      <c r="K25">
+        <v>0.98111479999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1759</v>
+      </c>
+      <c r="I26">
+        <v>0.88410429999999995</v>
+      </c>
+      <c r="J26">
+        <v>10001</v>
+      </c>
+      <c r="K26">
+        <v>2.7571539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2624</v>
+      </c>
+      <c r="I27">
+        <v>0.20702470000000001</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27">
+        <v>0.87114979999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1805</v>
+      </c>
+      <c r="I28">
+        <v>0.87391569999999996</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28">
+        <v>2.6878186999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2121</v>
+      </c>
+      <c r="I29">
+        <v>0.19580330000000001</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29">
+        <v>0.98829440000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1766</v>
+      </c>
+      <c r="I30">
+        <v>0.91282629999999998</v>
+      </c>
+      <c r="J30">
+        <v>10001</v>
+      </c>
+      <c r="K30">
+        <v>2.7863313000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2624</v>
+      </c>
+      <c r="I31">
+        <v>0.21662680000000001</v>
+      </c>
+      <c r="J31">
+        <v>10001</v>
+      </c>
+      <c r="K31">
+        <v>0.83642340000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1814</v>
+      </c>
+      <c r="I32">
+        <v>0.90378809999999998</v>
+      </c>
+      <c r="J32">
+        <v>10001</v>
+      </c>
+      <c r="K32">
+        <v>2.6881336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2138</v>
+      </c>
+      <c r="I33">
+        <v>0.18815299999999999</v>
+      </c>
+      <c r="J33">
+        <v>10001</v>
+      </c>
+      <c r="K33">
+        <v>1.0010866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1749</v>
+      </c>
+      <c r="I34">
+        <v>0.88465689999999997</v>
+      </c>
+      <c r="J34">
+        <v>10001</v>
+      </c>
+      <c r="K34">
+        <v>2.7874800999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10305</v>
+      </c>
+      <c r="I35">
+        <v>0.83687400000000001</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35">
+        <v>0.85281569999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>13288</v>
+      </c>
+      <c r="I36">
+        <v>5.3769041</v>
+      </c>
+      <c r="J36">
+        <v>10001</v>
+      </c>
+      <c r="K36">
+        <v>2.6765533000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2764</v>
+      </c>
+      <c r="I37">
+        <v>0.23365859999999999</v>
+      </c>
+      <c r="J37">
+        <v>10001</v>
+      </c>
+      <c r="K37">
+        <v>0.9755703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>6035</v>
+      </c>
+      <c r="I38">
+        <v>2.8870680000000002</v>
+      </c>
+      <c r="J38">
+        <v>1546</v>
+      </c>
+      <c r="K38">
+        <v>0.67319150000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10234</v>
+      </c>
+      <c r="I39">
+        <v>0.81506049999999997</v>
+      </c>
+      <c r="J39">
+        <v>10001</v>
+      </c>
+      <c r="K39">
+        <v>0.83730990000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>13330</v>
+      </c>
+      <c r="I40">
+        <v>4.4546869999999998</v>
+      </c>
+      <c r="J40">
+        <v>10001</v>
+      </c>
+      <c r="K40">
+        <v>2.7244975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2742</v>
+      </c>
+      <c r="I41">
+        <v>0.23353689999999999</v>
+      </c>
+      <c r="J41">
+        <v>10001</v>
+      </c>
+      <c r="K41">
+        <v>1.0080610999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>582</v>
+      </c>
+      <c r="I42">
+        <v>0.61501839999999997</v>
+      </c>
+      <c r="J42">
+        <v>1545</v>
+      </c>
+      <c r="K42">
+        <v>0.67703029999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10256</v>
+      </c>
+      <c r="I43">
+        <v>0.83635809999999999</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43">
+        <v>0.87779169999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>13274</v>
+      </c>
+      <c r="I44">
+        <v>5.3727746999999999</v>
+      </c>
+      <c r="J44">
+        <v>10001</v>
+      </c>
+      <c r="K44">
+        <v>2.7636170999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>2701</v>
+      </c>
+      <c r="I45">
+        <v>0.23278650000000001</v>
+      </c>
+      <c r="J45">
+        <v>10001</v>
+      </c>
+      <c r="K45">
+        <v>0.99952030000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>5764</v>
+      </c>
+      <c r="I46">
+        <v>2.7669096</v>
+      </c>
+      <c r="J46">
+        <v>1546</v>
+      </c>
+      <c r="K46">
+        <v>0.67790229999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10262</v>
+      </c>
+      <c r="I47">
+        <v>0.81342110000000001</v>
+      </c>
+      <c r="J47">
+        <v>10001</v>
+      </c>
+      <c r="K47">
+        <v>0.85579190000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>13287</v>
+      </c>
+      <c r="I48">
+        <v>4.3707374999999997</v>
+      </c>
+      <c r="J48">
+        <v>10001</v>
+      </c>
+      <c r="K48">
+        <v>2.7284220000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>2801</v>
+      </c>
+      <c r="I49">
+        <v>0.24030699999999999</v>
+      </c>
+      <c r="J49">
+        <v>10001</v>
+      </c>
+      <c r="K49">
+        <v>0.97163100000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>5161</v>
+      </c>
+      <c r="I50">
+        <v>2.5761281999999999</v>
+      </c>
+      <c r="J50">
+        <v>1545</v>
+      </c>
+      <c r="K50">
+        <v>0.67885010000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10301</v>
+      </c>
+      <c r="I51">
+        <v>0.77231620000000001</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51">
+        <v>0.89246910000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>14957</v>
+      </c>
+      <c r="I52">
+        <v>5.8512401000000001</v>
+      </c>
+      <c r="J52">
+        <v>1528</v>
+      </c>
+      <c r="K52">
+        <v>0.66344639999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>2922</v>
+      </c>
+      <c r="I53">
+        <v>0.3066123</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53">
+        <v>1.0541450000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>8301</v>
+      </c>
+      <c r="I54">
+        <v>4.4983966000000004</v>
+      </c>
+      <c r="J54">
+        <v>1526</v>
+      </c>
+      <c r="K54">
+        <v>0.6772319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10291</v>
+      </c>
+      <c r="I55">
+        <v>0.83460279999999998</v>
+      </c>
+      <c r="J55">
+        <v>10001</v>
+      </c>
+      <c r="K55">
+        <v>0.91066279999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>14956</v>
+      </c>
+      <c r="I56">
+        <v>6.2255428000000004</v>
+      </c>
+      <c r="J56">
+        <v>10001</v>
+      </c>
+      <c r="K56">
+        <v>2.6644974000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>3001</v>
+      </c>
+      <c r="I57">
+        <v>0.26489560000000001</v>
+      </c>
+      <c r="J57">
+        <v>10001</v>
+      </c>
+      <c r="K57">
+        <v>0.9914792</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>538</v>
+      </c>
+      <c r="I58">
+        <v>0.58885969999999999</v>
+      </c>
+      <c r="J58">
+        <v>1526</v>
+      </c>
+      <c r="K58">
+        <v>0.68245549999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10320</v>
+      </c>
+      <c r="I59">
+        <v>0.89467799999999997</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59">
+        <v>0.88005270000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>14868</v>
+      </c>
+      <c r="I60">
+        <v>6.1364001000000004</v>
+      </c>
+      <c r="J60">
+        <v>1528</v>
+      </c>
+      <c r="K60">
+        <v>0.63847980000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>2817</v>
+      </c>
+      <c r="I61">
+        <v>0.26025009999999998</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61">
+        <v>1.0261217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>8465</v>
+      </c>
+      <c r="I62">
+        <v>4.4606893999999997</v>
+      </c>
+      <c r="J62">
+        <v>1526</v>
+      </c>
+      <c r="K62">
+        <v>0.68135780000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10293</v>
+      </c>
+      <c r="I63">
+        <v>0.81587569999999998</v>
+      </c>
+      <c r="J63">
+        <v>10001</v>
+      </c>
+      <c r="K63">
+        <v>0.86864699999999995</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>14915</v>
+      </c>
+      <c r="I64">
+        <v>6.1696277000000004</v>
+      </c>
+      <c r="J64">
+        <v>10001</v>
+      </c>
+      <c r="K64">
+        <v>2.6979001999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>2830</v>
+      </c>
+      <c r="I65">
+        <v>0.23847760000000001</v>
+      </c>
+      <c r="J65">
+        <v>10001</v>
+      </c>
+      <c r="K65">
+        <v>1.0508363999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>8440</v>
+      </c>
+      <c r="I66">
+        <v>4.5870509000000004</v>
+      </c>
+      <c r="J66">
+        <v>1526</v>
+      </c>
+      <c r="K66">
+        <v>0.6761142</v>
       </c>
     </row>
   </sheetData>

--- a/Workflows/Testing/Hydraulic_Lift_Res.xlsx
+++ b/Workflows/Testing/Hydraulic_Lift_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smiller\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E125AF-B0C8-445C-89DB-E8C417F6B10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB8AB2-4D4C-465A-9BF0-0F770809BACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="2022a" sheetId="19" r:id="rId13"/>
     <sheet name="2022b" sheetId="20" r:id="rId14"/>
     <sheet name="2023a" sheetId="21" r:id="rId15"/>
+    <sheet name="2023b" sheetId="22" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6369" uniqueCount="32">
   <si>
     <t>Run</t>
   </si>
@@ -141,6 +142,9 @@
   </si>
   <si>
     <t>17-Mar-2023 19:57:42</t>
+  </si>
+  <si>
+    <t>14-Sep-2023 10:15:26</t>
   </si>
 </sst>
 </file>
@@ -12172,7 +12176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5858F80E-C5BA-4769-8C8D-CEF1A73571CD}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
@@ -16751,6 +16755,2312 @@
       </c>
       <c r="K66">
         <v>0.64986379999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F3AC66-9F3C-42A2-8CA0-E86DB18FF3BD}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2618</v>
+      </c>
+      <c r="I3">
+        <v>0.2643123</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3">
+        <v>0.4372067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1701</v>
+      </c>
+      <c r="I4">
+        <v>0.28391709999999998</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4">
+        <v>1.9104878999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2135</v>
+      </c>
+      <c r="I5">
+        <v>8.71286E-2</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5">
+        <v>0.51394819999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1668</v>
+      </c>
+      <c r="I6">
+        <v>0.27306320000000001</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6">
+        <v>1.8649538999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2621</v>
+      </c>
+      <c r="I7">
+        <v>9.9241999999999997E-2</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7">
+        <v>0.4488799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1763</v>
+      </c>
+      <c r="I8">
+        <v>0.50425969999999998</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8">
+        <v>1.7375859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2132</v>
+      </c>
+      <c r="I9">
+        <v>0.1059862</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9">
+        <v>0.50696370000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1641</v>
+      </c>
+      <c r="I10">
+        <v>0.53123969999999998</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10">
+        <v>1.8102396999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2595</v>
+      </c>
+      <c r="I11">
+        <v>0.13814090000000001</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>0.41492960000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1698</v>
+      </c>
+      <c r="I12">
+        <v>0.53104989999999996</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>1.7290806999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2062</v>
+      </c>
+      <c r="I13">
+        <v>9.7611400000000001E-2</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
+        <v>0.49342920000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1633</v>
+      </c>
+      <c r="I14">
+        <v>0.51992119999999997</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14">
+        <v>1.8576085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2637</v>
+      </c>
+      <c r="I15">
+        <v>8.9697299999999994E-2</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>0.45126729999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1742</v>
+      </c>
+      <c r="I16">
+        <v>0.48344310000000001</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16">
+        <v>1.7975429000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2075</v>
+      </c>
+      <c r="I17">
+        <v>0.1142706</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17">
+        <v>0.50872039999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1660</v>
+      </c>
+      <c r="I18">
+        <v>0.49936039999999998</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18">
+        <v>1.9804816000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2564</v>
+      </c>
+      <c r="I19">
+        <v>9.9194400000000002E-2</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19">
+        <v>0.44796780000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1783</v>
+      </c>
+      <c r="I20">
+        <v>0.53181880000000004</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20">
+        <v>1.7457209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2075</v>
+      </c>
+      <c r="I21">
+        <v>0.10725999999999999</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21">
+        <v>0.52586069999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1666</v>
+      </c>
+      <c r="I22">
+        <v>0.52007179999999997</v>
+      </c>
+      <c r="J22">
+        <v>10001</v>
+      </c>
+      <c r="K22">
+        <v>1.8656474999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2623</v>
+      </c>
+      <c r="I23">
+        <v>9.5106899999999994E-2</v>
+      </c>
+      <c r="J23">
+        <v>10001</v>
+      </c>
+      <c r="K23">
+        <v>0.42711130000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1816</v>
+      </c>
+      <c r="I24">
+        <v>0.63816810000000002</v>
+      </c>
+      <c r="J24">
+        <v>10001</v>
+      </c>
+      <c r="K24">
+        <v>1.8460791999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2087</v>
+      </c>
+      <c r="I25">
+        <v>9.8096799999999998E-2</v>
+      </c>
+      <c r="J25">
+        <v>10001</v>
+      </c>
+      <c r="K25">
+        <v>0.50671739999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1671</v>
+      </c>
+      <c r="I26">
+        <v>0.52949469999999998</v>
+      </c>
+      <c r="J26">
+        <v>10001</v>
+      </c>
+      <c r="K26">
+        <v>1.8153227999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2617</v>
+      </c>
+      <c r="I27">
+        <v>0.1066329</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27">
+        <v>0.43136950000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1777</v>
+      </c>
+      <c r="I28">
+        <v>0.55732590000000004</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28">
+        <v>1.7780469999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2102</v>
+      </c>
+      <c r="I29">
+        <v>9.8208199999999995E-2</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29">
+        <v>0.538269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1642</v>
+      </c>
+      <c r="I30">
+        <v>0.51302809999999999</v>
+      </c>
+      <c r="J30">
+        <v>10001</v>
+      </c>
+      <c r="K30">
+        <v>1.8379247999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2645</v>
+      </c>
+      <c r="I31">
+        <v>0.10145949999999999</v>
+      </c>
+      <c r="J31">
+        <v>10001</v>
+      </c>
+      <c r="K31">
+        <v>0.52232140000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1785</v>
+      </c>
+      <c r="I32">
+        <v>0.54119119999999998</v>
+      </c>
+      <c r="J32">
+        <v>10001</v>
+      </c>
+      <c r="K32">
+        <v>1.7966761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2138</v>
+      </c>
+      <c r="I33">
+        <v>0.1006875</v>
+      </c>
+      <c r="J33">
+        <v>10001</v>
+      </c>
+      <c r="K33">
+        <v>0.51590040000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1640</v>
+      </c>
+      <c r="I34">
+        <v>0.50519499999999995</v>
+      </c>
+      <c r="J34">
+        <v>10001</v>
+      </c>
+      <c r="K34">
+        <v>1.9154097000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10376</v>
+      </c>
+      <c r="I35">
+        <v>0.41026109999999999</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35">
+        <v>0.42244350000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>23452</v>
+      </c>
+      <c r="I36">
+        <v>6.4447498000000003</v>
+      </c>
+      <c r="J36">
+        <v>1459</v>
+      </c>
+      <c r="K36">
+        <v>0.24950330000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2884</v>
+      </c>
+      <c r="I37">
+        <v>0.1210435</v>
+      </c>
+      <c r="J37">
+        <v>10001</v>
+      </c>
+      <c r="K37">
+        <v>0.48109619999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>424</v>
+      </c>
+      <c r="I38">
+        <v>0.1701356</v>
+      </c>
+      <c r="J38">
+        <v>1459</v>
+      </c>
+      <c r="K38">
+        <v>0.27873870000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10474</v>
+      </c>
+      <c r="I39">
+        <v>0.26331389999999999</v>
+      </c>
+      <c r="J39">
+        <v>10001</v>
+      </c>
+      <c r="K39">
+        <v>0.46892420000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>23795</v>
+      </c>
+      <c r="I40">
+        <v>5.1037046000000004</v>
+      </c>
+      <c r="J40">
+        <v>1460</v>
+      </c>
+      <c r="K40">
+        <v>0.25650139999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>3109</v>
+      </c>
+      <c r="I41">
+        <v>0.13261619999999999</v>
+      </c>
+      <c r="J41">
+        <v>10001</v>
+      </c>
+      <c r="K41">
+        <v>0.48334090000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>418</v>
+      </c>
+      <c r="I42">
+        <v>0.1712554</v>
+      </c>
+      <c r="J42">
+        <v>1460</v>
+      </c>
+      <c r="K42">
+        <v>0.42906250000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10387</v>
+      </c>
+      <c r="I43">
+        <v>0.28090349999999997</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43">
+        <v>0.42993150000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>23509</v>
+      </c>
+      <c r="I44">
+        <v>6.4319382000000003</v>
+      </c>
+      <c r="J44">
+        <v>1459</v>
+      </c>
+      <c r="K44">
+        <v>0.27281169999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>3061</v>
+      </c>
+      <c r="I45">
+        <v>0.13647000000000001</v>
+      </c>
+      <c r="J45">
+        <v>10001</v>
+      </c>
+      <c r="K45">
+        <v>0.50386209999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>928</v>
+      </c>
+      <c r="I46">
+        <v>0.51004590000000005</v>
+      </c>
+      <c r="J46">
+        <v>1459</v>
+      </c>
+      <c r="K46">
+        <v>0.2616097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10531</v>
+      </c>
+      <c r="I47">
+        <v>0.26780920000000003</v>
+      </c>
+      <c r="J47">
+        <v>10001</v>
+      </c>
+      <c r="K47">
+        <v>0.45557550000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>23848</v>
+      </c>
+      <c r="I48">
+        <v>5.0756221000000004</v>
+      </c>
+      <c r="J48">
+        <v>1460</v>
+      </c>
+      <c r="K48">
+        <v>0.27391700000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>3023</v>
+      </c>
+      <c r="I49">
+        <v>0.13322909999999999</v>
+      </c>
+      <c r="J49">
+        <v>10001</v>
+      </c>
+      <c r="K49">
+        <v>0.53078599999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>423</v>
+      </c>
+      <c r="I50">
+        <v>0.16592779999999999</v>
+      </c>
+      <c r="J50">
+        <v>1460</v>
+      </c>
+      <c r="K50">
+        <v>0.27075290000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10648</v>
+      </c>
+      <c r="I51">
+        <v>0.2853272</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51">
+        <v>0.45675890000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>28791</v>
+      </c>
+      <c r="I52">
+        <v>7.646134</v>
+      </c>
+      <c r="J52">
+        <v>1430</v>
+      </c>
+      <c r="K52">
+        <v>0.25320819999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>3347</v>
+      </c>
+      <c r="I53">
+        <v>0.145479</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53">
+        <v>0.51484649999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>459</v>
+      </c>
+      <c r="I54">
+        <v>0.18702279999999999</v>
+      </c>
+      <c r="J54">
+        <v>1429</v>
+      </c>
+      <c r="K54">
+        <v>0.2778465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10795</v>
+      </c>
+      <c r="I55">
+        <v>0.29028670000000001</v>
+      </c>
+      <c r="J55">
+        <v>10001</v>
+      </c>
+      <c r="K55">
+        <v>0.46102690000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>28921</v>
+      </c>
+      <c r="I56">
+        <v>7.7786340999999997</v>
+      </c>
+      <c r="J56">
+        <v>1430</v>
+      </c>
+      <c r="K56">
+        <v>0.2416249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>3559</v>
+      </c>
+      <c r="I57">
+        <v>0.13893179999999999</v>
+      </c>
+      <c r="J57">
+        <v>10001</v>
+      </c>
+      <c r="K57">
+        <v>0.49675809999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>422</v>
+      </c>
+      <c r="I58">
+        <v>0.17833389999999999</v>
+      </c>
+      <c r="J58">
+        <v>1430</v>
+      </c>
+      <c r="K58">
+        <v>0.25251269999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10631</v>
+      </c>
+      <c r="I59">
+        <v>0.28312009999999999</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59">
+        <v>0.46301009999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>28834</v>
+      </c>
+      <c r="I60">
+        <v>7.6361169999999996</v>
+      </c>
+      <c r="J60">
+        <v>1430</v>
+      </c>
+      <c r="K60">
+        <v>0.2307679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>3286</v>
+      </c>
+      <c r="I61">
+        <v>0.1459558</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61">
+        <v>0.54900979999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>431</v>
+      </c>
+      <c r="I62">
+        <v>0.1582885</v>
+      </c>
+      <c r="J62">
+        <v>1429</v>
+      </c>
+      <c r="K62">
+        <v>0.2516313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10764</v>
+      </c>
+      <c r="I63">
+        <v>0.27158260000000001</v>
+      </c>
+      <c r="J63">
+        <v>10001</v>
+      </c>
+      <c r="K63">
+        <v>0.423483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>28968</v>
+      </c>
+      <c r="I64">
+        <v>7.9908245999999998</v>
+      </c>
+      <c r="J64">
+        <v>1430</v>
+      </c>
+      <c r="K64">
+        <v>0.2681461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>3380</v>
+      </c>
+      <c r="I65">
+        <v>0.1548272</v>
+      </c>
+      <c r="J65">
+        <v>10001</v>
+      </c>
+      <c r="K65">
+        <v>0.57218179999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>419</v>
+      </c>
+      <c r="I66">
+        <v>0.16972880000000001</v>
+      </c>
+      <c r="J66">
+        <v>1430</v>
+      </c>
+      <c r="K66">
+        <v>0.27929490000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Workflows/Testing/Hydraulic_Lift_Res.xlsx
+++ b/Workflows/Testing/Hydraulic_Lift_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smiller\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB8AB2-4D4C-465A-9BF0-0F770809BACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1E67D-87C3-497D-8F2D-24D9AAA6F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="2370" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="2022b" sheetId="20" r:id="rId14"/>
     <sheet name="2023a" sheetId="21" r:id="rId15"/>
     <sheet name="2023b" sheetId="22" r:id="rId16"/>
+    <sheet name="2024a" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6369" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6765" uniqueCount="33">
   <si>
     <t>Run</t>
   </si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>14-Sep-2023 10:15:26</t>
+  </si>
+  <si>
+    <t>21-Mar-2024 23:04:10</t>
   </si>
 </sst>
 </file>
@@ -16766,7 +16770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F3AC66-9F3C-42A2-8CA0-E86DB18FF3BD}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -19061,6 +19065,2301 @@
       </c>
       <c r="K66">
         <v>0.27929490000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8873E718-5811-4589-B8F1-383D52E3ACA5}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2613</v>
+      </c>
+      <c r="I3">
+        <v>0.50434409999999996</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3">
+        <v>0.80274100000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1760</v>
+      </c>
+      <c r="I4">
+        <v>2.7754780000000001</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4">
+        <v>2.9817178000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2089</v>
+      </c>
+      <c r="I5">
+        <v>0.2057302</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5">
+        <v>0.92929989999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1655</v>
+      </c>
+      <c r="I6">
+        <v>0.9323688</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6">
+        <v>3.0033493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2620</v>
+      </c>
+      <c r="I7">
+        <v>0.21973699999999999</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7">
+        <v>0.80591360000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1703</v>
+      </c>
+      <c r="I8">
+        <v>0.88435649999999999</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8">
+        <v>2.7595082999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2144</v>
+      </c>
+      <c r="I9">
+        <v>0.21190980000000001</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9">
+        <v>0.90993919999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1646</v>
+      </c>
+      <c r="I10">
+        <v>0.88540220000000003</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10">
+        <v>2.8564421000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2589</v>
+      </c>
+      <c r="I11">
+        <v>0.25427149999999998</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>0.8101334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1703</v>
+      </c>
+      <c r="I12">
+        <v>1.005061</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>2.8504871000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2068</v>
+      </c>
+      <c r="I13">
+        <v>0.20248910000000001</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
+        <v>0.91100749999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1613</v>
+      </c>
+      <c r="I14">
+        <v>0.8604446</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14">
+        <v>2.9143639000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2640</v>
+      </c>
+      <c r="I15">
+        <v>0.21668580000000001</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>0.80789330000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1738</v>
+      </c>
+      <c r="I16">
+        <v>0.92493360000000002</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16">
+        <v>2.7476664999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2135</v>
+      </c>
+      <c r="I17">
+        <v>0.21199899999999999</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17">
+        <v>0.91817890000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1680</v>
+      </c>
+      <c r="I18">
+        <v>0.90431510000000004</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18">
+        <v>2.8846891000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2578</v>
+      </c>
+      <c r="I19">
+        <v>0.2168496</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19">
+        <v>0.81075439999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1793</v>
+      </c>
+      <c r="I20">
+        <v>0.99254229999999999</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20">
+        <v>2.8747341999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2112</v>
+      </c>
+      <c r="I21">
+        <v>0.19697429999999999</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21">
+        <v>0.91532480000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1672</v>
+      </c>
+      <c r="I22">
+        <v>0.87545019999999996</v>
+      </c>
+      <c r="J22">
+        <v>10001</v>
+      </c>
+      <c r="K22">
+        <v>2.8821463999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2615</v>
+      </c>
+      <c r="I23">
+        <v>0.2390523</v>
+      </c>
+      <c r="J23">
+        <v>10001</v>
+      </c>
+      <c r="K23">
+        <v>0.81915539999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1801</v>
+      </c>
+      <c r="I24">
+        <v>0.95427700000000004</v>
+      </c>
+      <c r="J24">
+        <v>10001</v>
+      </c>
+      <c r="K24">
+        <v>2.7042047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2157</v>
+      </c>
+      <c r="I25">
+        <v>0.20349610000000001</v>
+      </c>
+      <c r="J25">
+        <v>10001</v>
+      </c>
+      <c r="K25">
+        <v>0.91701699999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1603</v>
+      </c>
+      <c r="I26">
+        <v>0.84041330000000003</v>
+      </c>
+      <c r="J26">
+        <v>10001</v>
+      </c>
+      <c r="K26">
+        <v>2.8264078000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2609</v>
+      </c>
+      <c r="I27">
+        <v>0.22121099999999999</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27">
+        <v>0.8437867</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1801</v>
+      </c>
+      <c r="I28">
+        <v>0.92074529999999999</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28">
+        <v>2.7611465000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2087</v>
+      </c>
+      <c r="I29">
+        <v>0.1938646</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29">
+        <v>0.93988439999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1627</v>
+      </c>
+      <c r="I30">
+        <v>0.88168210000000002</v>
+      </c>
+      <c r="J30">
+        <v>10001</v>
+      </c>
+      <c r="K30">
+        <v>2.8288370999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2649</v>
+      </c>
+      <c r="I31">
+        <v>0.22241710000000001</v>
+      </c>
+      <c r="J31">
+        <v>10001</v>
+      </c>
+      <c r="K31">
+        <v>0.85041699999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1791</v>
+      </c>
+      <c r="I32">
+        <v>0.99253040000000003</v>
+      </c>
+      <c r="J32">
+        <v>10001</v>
+      </c>
+      <c r="K32">
+        <v>2.7436769000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2136</v>
+      </c>
+      <c r="I33">
+        <v>0.19649810000000001</v>
+      </c>
+      <c r="J33">
+        <v>10001</v>
+      </c>
+      <c r="K33">
+        <v>0.93520899999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1659</v>
+      </c>
+      <c r="I34">
+        <v>0.86101689999999997</v>
+      </c>
+      <c r="J34">
+        <v>10001</v>
+      </c>
+      <c r="K34">
+        <v>2.8706200000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10371</v>
+      </c>
+      <c r="I35">
+        <v>0.85536970000000001</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35">
+        <v>0.79550549999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>23482</v>
+      </c>
+      <c r="I36">
+        <v>11.659414099999999</v>
+      </c>
+      <c r="J36">
+        <v>1459</v>
+      </c>
+      <c r="K36">
+        <v>1.0154566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>3006</v>
+      </c>
+      <c r="I37">
+        <v>0.27665610000000002</v>
+      </c>
+      <c r="J37">
+        <v>10001</v>
+      </c>
+      <c r="K37">
+        <v>0.91976429999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>431</v>
+      </c>
+      <c r="I38">
+        <v>0.59355420000000003</v>
+      </c>
+      <c r="J38">
+        <v>1459</v>
+      </c>
+      <c r="K38">
+        <v>0.84816279999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10484</v>
+      </c>
+      <c r="I39">
+        <v>0.86967130000000004</v>
+      </c>
+      <c r="J39">
+        <v>10001</v>
+      </c>
+      <c r="K39">
+        <v>0.78352080000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>23746</v>
+      </c>
+      <c r="I40">
+        <v>9.1650019</v>
+      </c>
+      <c r="J40">
+        <v>1460</v>
+      </c>
+      <c r="K40">
+        <v>0.59853440000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2947</v>
+      </c>
+      <c r="I41">
+        <v>0.27264620000000001</v>
+      </c>
+      <c r="J41">
+        <v>10001</v>
+      </c>
+      <c r="K41">
+        <v>0.9353977</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>22481</v>
+      </c>
+      <c r="I42">
+        <v>15.2004638</v>
+      </c>
+      <c r="J42">
+        <v>1460</v>
+      </c>
+      <c r="K42">
+        <v>0.62026700000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10403</v>
+      </c>
+      <c r="I43">
+        <v>0.97343069999999998</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43">
+        <v>0.81181340000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>23517</v>
+      </c>
+      <c r="I44">
+        <v>11.5096071</v>
+      </c>
+      <c r="J44">
+        <v>1459</v>
+      </c>
+      <c r="K44">
+        <v>0.79290910000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>2932</v>
+      </c>
+      <c r="I45">
+        <v>0.27769650000000001</v>
+      </c>
+      <c r="J45">
+        <v>10001</v>
+      </c>
+      <c r="K45">
+        <v>0.91443450000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>420</v>
+      </c>
+      <c r="I46">
+        <v>0.3125889</v>
+      </c>
+      <c r="J46">
+        <v>1459</v>
+      </c>
+      <c r="K46">
+        <v>0.68875810000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10530</v>
+      </c>
+      <c r="I47">
+        <v>0.87075420000000003</v>
+      </c>
+      <c r="J47">
+        <v>10001</v>
+      </c>
+      <c r="K47">
+        <v>0.81156850000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>23803</v>
+      </c>
+      <c r="I48">
+        <v>9.4549576000000002</v>
+      </c>
+      <c r="J48">
+        <v>1460</v>
+      </c>
+      <c r="K48">
+        <v>0.60990699999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>3009</v>
+      </c>
+      <c r="I49">
+        <v>0.27744819999999998</v>
+      </c>
+      <c r="J49">
+        <v>10001</v>
+      </c>
+      <c r="K49">
+        <v>0.91029519999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>876</v>
+      </c>
+      <c r="I50">
+        <v>0.90794450000000004</v>
+      </c>
+      <c r="J50">
+        <v>1460</v>
+      </c>
+      <c r="K50">
+        <v>0.63493529999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10698</v>
+      </c>
+      <c r="I51">
+        <v>0.83402500000000002</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51">
+        <v>0.83911809999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>28806</v>
+      </c>
+      <c r="I52">
+        <v>13.5881635</v>
+      </c>
+      <c r="J52">
+        <v>1430</v>
+      </c>
+      <c r="K52">
+        <v>0.78739440000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>3402</v>
+      </c>
+      <c r="I53">
+        <v>0.31301610000000002</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53">
+        <v>0.90719609999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>424</v>
+      </c>
+      <c r="I54">
+        <v>0.54002099999999997</v>
+      </c>
+      <c r="J54">
+        <v>1429</v>
+      </c>
+      <c r="K54">
+        <v>0.68784219999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10684</v>
+      </c>
+      <c r="I55">
+        <v>0.86430980000000002</v>
+      </c>
+      <c r="J55">
+        <v>10001</v>
+      </c>
+      <c r="K55">
+        <v>0.8231792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>28914</v>
+      </c>
+      <c r="I56">
+        <v>13.883761700000001</v>
+      </c>
+      <c r="J56">
+        <v>1430</v>
+      </c>
+      <c r="K56">
+        <v>0.59259609999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>3494</v>
+      </c>
+      <c r="I57">
+        <v>0.31117400000000001</v>
+      </c>
+      <c r="J57">
+        <v>10001</v>
+      </c>
+      <c r="K57">
+        <v>0.96130329999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>992</v>
+      </c>
+      <c r="I58">
+        <v>0.97247969999999995</v>
+      </c>
+      <c r="J58">
+        <v>1430</v>
+      </c>
+      <c r="K58">
+        <v>0.62577519999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10601</v>
+      </c>
+      <c r="I59">
+        <v>0.83946670000000001</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59">
+        <v>0.83454799999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>28885</v>
+      </c>
+      <c r="I60">
+        <v>13.402277</v>
+      </c>
+      <c r="J60">
+        <v>1430</v>
+      </c>
+      <c r="K60">
+        <v>0.63000699999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>3254</v>
+      </c>
+      <c r="I61">
+        <v>0.30278240000000001</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61">
+        <v>0.94344600000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>419</v>
+      </c>
+      <c r="I62">
+        <v>0.3215751</v>
+      </c>
+      <c r="J62">
+        <v>1429</v>
+      </c>
+      <c r="K62">
+        <v>0.60467090000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10757</v>
+      </c>
+      <c r="I63">
+        <v>0.86971739999999997</v>
+      </c>
+      <c r="J63">
+        <v>10001</v>
+      </c>
+      <c r="K63">
+        <v>0.81474559999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>28982</v>
+      </c>
+      <c r="I64">
+        <v>14.2718396</v>
+      </c>
+      <c r="J64">
+        <v>1430</v>
+      </c>
+      <c r="K64">
+        <v>0.62569980000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>3395</v>
+      </c>
+      <c r="I65">
+        <v>0.3075174</v>
+      </c>
+      <c r="J65">
+        <v>10001</v>
+      </c>
+      <c r="K65">
+        <v>0.92463419999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>802</v>
+      </c>
+      <c r="I66">
+        <v>0.82854530000000004</v>
+      </c>
+      <c r="J66">
+        <v>1430</v>
+      </c>
+      <c r="K66">
+        <v>0.61744410000000005</v>
       </c>
     </row>
   </sheetData>

--- a/Workflows/Testing/Hydraulic_Lift_Res.xlsx
+++ b/Workflows/Testing/Hydraulic_Lift_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smiller\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B1E67D-87C3-497D-8F2D-24D9AAA6F428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB36A2-DD44-4BCA-A27B-26D5F5D2417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="2370" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="915" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="2023a" sheetId="21" r:id="rId15"/>
     <sheet name="2023b" sheetId="22" r:id="rId16"/>
     <sheet name="2024a" sheetId="23" r:id="rId17"/>
+    <sheet name="2024b" sheetId="24" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6765" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7368" uniqueCount="48">
   <si>
     <t>Run</t>
   </si>
@@ -149,6 +150,51 @@
   </si>
   <si>
     <t>21-Mar-2024 23:04:10</t>
+  </si>
+  <si>
+    <t>Wind Input</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>PI on AoA</t>
+  </si>
+  <si>
+    <t>Lift and Drag Simscape</t>
+  </si>
+  <si>
+    <t>Hydraulic</t>
+  </si>
+  <si>
+    <t>Ideal Actuator</t>
+  </si>
+  <si>
+    <t>Rotate</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Lift and Drag</t>
+  </si>
+  <si>
+    <t>Ideal Motor</t>
+  </si>
+  <si>
+    <t>Servomotor</t>
+  </si>
+  <si>
+    <t>12-Sep-2024 16:51:48</t>
   </si>
 </sst>
 </file>
@@ -19076,7 +19122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8873E718-5811-4589-B8F1-383D52E3ACA5}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -21360,6 +21406,3889 @@
       </c>
       <c r="K66">
         <v>0.61744410000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3CB87D-EEC0-4082-AB48-5068212A7F24}">
+  <dimension ref="A1:N89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2614</v>
+      </c>
+      <c r="I3">
+        <v>0.5439621</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3">
+        <v>0.85930390000000001</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>4579</v>
+      </c>
+      <c r="N3">
+        <v>2.2988051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1767</v>
+      </c>
+      <c r="I4">
+        <v>0.94263819999999998</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4">
+        <v>3.0841349999999998</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>4581</v>
+      </c>
+      <c r="N4">
+        <v>2.3713964000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2143</v>
+      </c>
+      <c r="I5">
+        <v>0.2051798</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5">
+        <v>1.1060672</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>4598</v>
+      </c>
+      <c r="N5">
+        <v>2.6436978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1698</v>
+      </c>
+      <c r="I6">
+        <v>0.83782840000000003</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6">
+        <v>3.0332720000000002</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>5955</v>
+      </c>
+      <c r="N6">
+        <v>2.8476894000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2637</v>
+      </c>
+      <c r="I7">
+        <v>0.23170640000000001</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7">
+        <v>0.87709090000000001</v>
+      </c>
+      <c r="L7">
+        <v>40</v>
+      </c>
+      <c r="M7">
+        <v>5965</v>
+      </c>
+      <c r="N7">
+        <v>2.8562666000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1759</v>
+      </c>
+      <c r="I8">
+        <v>0.83351690000000001</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8">
+        <v>2.8918189999999999</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>6012</v>
+      </c>
+      <c r="N8">
+        <v>3.5176287999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2095</v>
+      </c>
+      <c r="I9">
+        <v>0.20351530000000001</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9">
+        <v>1.0014228000000001</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>5165</v>
+      </c>
+      <c r="N9">
+        <v>3.1227714999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1740</v>
+      </c>
+      <c r="I10">
+        <v>0.84173240000000005</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10">
+        <v>3.0021629000000001</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>5165</v>
+      </c>
+      <c r="N10">
+        <v>3.2528499000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2675</v>
+      </c>
+      <c r="I11">
+        <v>0.2817499</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>0.88156710000000005</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>5209</v>
+      </c>
+      <c r="N11">
+        <v>3.4774177000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1744</v>
+      </c>
+      <c r="I12">
+        <v>0.82611080000000003</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>2.8859891000000002</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>1840</v>
+      </c>
+      <c r="N12">
+        <v>1.3480174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2118</v>
+      </c>
+      <c r="I13">
+        <v>0.19856360000000001</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
+        <v>1.0545652999999999</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>1839</v>
+      </c>
+      <c r="N13">
+        <v>1.4536150000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1724</v>
+      </c>
+      <c r="I14">
+        <v>0.86942280000000005</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14">
+        <v>3.0310684999999999</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>1929</v>
+      </c>
+      <c r="N14">
+        <v>1.8501373999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2650</v>
+      </c>
+      <c r="I15">
+        <v>0.2241814</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>0.84250570000000002</v>
+      </c>
+      <c r="L15">
+        <v>40</v>
+      </c>
+      <c r="M15">
+        <v>4781</v>
+      </c>
+      <c r="N15">
+        <v>3.3549614999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1773</v>
+      </c>
+      <c r="I16">
+        <v>0.84247179999999999</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16">
+        <v>2.9758141</v>
+      </c>
+      <c r="L16">
+        <v>40</v>
+      </c>
+      <c r="M16">
+        <v>4745</v>
+      </c>
+      <c r="N16">
+        <v>3.4637231000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2136</v>
+      </c>
+      <c r="I17">
+        <v>0.20068230000000001</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17">
+        <v>0.99997749999999996</v>
+      </c>
+      <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <v>4805</v>
+      </c>
+      <c r="N17">
+        <v>4.1063957000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1742</v>
+      </c>
+      <c r="I18">
+        <v>0.83254589999999995</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18">
+        <v>2.9883394000000001</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>6069</v>
+      </c>
+      <c r="N18">
+        <v>4.6096946000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2652</v>
+      </c>
+      <c r="I19">
+        <v>0.2134337</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19">
+        <v>0.88586770000000004</v>
+      </c>
+      <c r="L19">
+        <v>40</v>
+      </c>
+      <c r="M19">
+        <v>6417</v>
+      </c>
+      <c r="N19">
+        <v>5.1338388000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1759</v>
+      </c>
+      <c r="I20">
+        <v>0.81418500000000005</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20">
+        <v>2.9071286000000001</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <v>6486</v>
+      </c>
+      <c r="N20">
+        <v>5.8065338000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>2137</v>
+      </c>
+      <c r="I21">
+        <v>0.2251445</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21">
+        <v>1.0292329</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>5407</v>
+      </c>
+      <c r="N21">
+        <v>4.9165815000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1754</v>
+      </c>
+      <c r="I22">
+        <v>0.85583529999999997</v>
+      </c>
+      <c r="J22">
+        <v>10001</v>
+      </c>
+      <c r="K22">
+        <v>3.0246306000000001</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>5401</v>
+      </c>
+      <c r="N22">
+        <v>5.1515104000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2653</v>
+      </c>
+      <c r="I23">
+        <v>0.21920400000000001</v>
+      </c>
+      <c r="J23">
+        <v>10001</v>
+      </c>
+      <c r="K23">
+        <v>0.93149539999999997</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>5469</v>
+      </c>
+      <c r="N23">
+        <v>5.7449247000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>1779</v>
+      </c>
+      <c r="I24">
+        <v>0.87138230000000005</v>
+      </c>
+      <c r="J24">
+        <v>10001</v>
+      </c>
+      <c r="K24">
+        <v>3.013115</v>
+      </c>
+      <c r="L24">
+        <v>15</v>
+      </c>
+      <c r="M24">
+        <v>2479</v>
+      </c>
+      <c r="N24">
+        <v>3.4230635999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2136</v>
+      </c>
+      <c r="I25">
+        <v>0.2020738</v>
+      </c>
+      <c r="J25">
+        <v>10001</v>
+      </c>
+      <c r="K25">
+        <v>0.99540110000000004</v>
+      </c>
+      <c r="L25">
+        <v>15</v>
+      </c>
+      <c r="M25">
+        <v>2462</v>
+      </c>
+      <c r="N25">
+        <v>3.6252475999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>1709</v>
+      </c>
+      <c r="I26">
+        <v>0.824457</v>
+      </c>
+      <c r="J26">
+        <v>10001</v>
+      </c>
+      <c r="K26">
+        <v>2.9622948</v>
+      </c>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>2519</v>
+      </c>
+      <c r="N26">
+        <v>4.0384241999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2624</v>
+      </c>
+      <c r="I27">
+        <v>0.21325769999999999</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27">
+        <v>0.90184410000000004</v>
+      </c>
+      <c r="L27">
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <v>5495</v>
+      </c>
+      <c r="N27">
+        <v>7.9072750000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1769</v>
+      </c>
+      <c r="I28">
+        <v>0.89555969999999996</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28">
+        <v>2.8573829000000002</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>5513</v>
+      </c>
+      <c r="N28">
+        <v>8.5193183000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>2121</v>
+      </c>
+      <c r="I29">
+        <v>0.1971984</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29">
+        <v>0.99435289999999998</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
+      <c r="M29">
+        <v>5646</v>
+      </c>
+      <c r="N29">
+        <v>9.5794551999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1773</v>
+      </c>
+      <c r="I30">
+        <v>0.87554860000000001</v>
+      </c>
+      <c r="J30">
+        <v>10001</v>
+      </c>
+      <c r="K30">
+        <v>2.9522647000000002</v>
+      </c>
+      <c r="L30">
+        <v>40</v>
+      </c>
+      <c r="M30">
+        <v>6845</v>
+      </c>
+      <c r="N30">
+        <v>10.273775499999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2624</v>
+      </c>
+      <c r="I31">
+        <v>0.22085879999999999</v>
+      </c>
+      <c r="J31">
+        <v>10001</v>
+      </c>
+      <c r="K31">
+        <v>0.90057849999999995</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31">
+        <v>7188</v>
+      </c>
+      <c r="N31">
+        <v>11.4322012</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1760</v>
+      </c>
+      <c r="I32">
+        <v>0.83245659999999999</v>
+      </c>
+      <c r="J32">
+        <v>10001</v>
+      </c>
+      <c r="K32">
+        <v>3.1005305999999999</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="M32">
+        <v>7266</v>
+      </c>
+      <c r="N32">
+        <v>12.3263771</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2138</v>
+      </c>
+      <c r="I33">
+        <v>0.20170830000000001</v>
+      </c>
+      <c r="J33">
+        <v>10001</v>
+      </c>
+      <c r="K33">
+        <v>1.019074</v>
+      </c>
+      <c r="L33">
+        <v>40</v>
+      </c>
+      <c r="M33">
+        <v>5865</v>
+      </c>
+      <c r="N33">
+        <v>9.9905930000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1775</v>
+      </c>
+      <c r="I34">
+        <v>0.84688620000000003</v>
+      </c>
+      <c r="J34">
+        <v>10001</v>
+      </c>
+      <c r="K34">
+        <v>3.2379707999999998</v>
+      </c>
+      <c r="L34">
+        <v>40</v>
+      </c>
+      <c r="M34">
+        <v>5970</v>
+      </c>
+      <c r="N34">
+        <v>9.5997397000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>10300</v>
+      </c>
+      <c r="I35">
+        <v>0.92240140000000004</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35">
+        <v>0.89695939999999996</v>
+      </c>
+      <c r="L35">
+        <v>40</v>
+      </c>
+      <c r="M35">
+        <v>6117</v>
+      </c>
+      <c r="N35">
+        <v>10.409558799999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>13299</v>
+      </c>
+      <c r="I36">
+        <v>5.5012023000000001</v>
+      </c>
+      <c r="J36">
+        <v>10001</v>
+      </c>
+      <c r="K36">
+        <v>2.9139078999999999</v>
+      </c>
+      <c r="L36">
+        <v>80</v>
+      </c>
+      <c r="M36">
+        <v>8431</v>
+      </c>
+      <c r="N36">
+        <v>6.1674461000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2886</v>
+      </c>
+      <c r="I37">
+        <v>0.26281939999999998</v>
+      </c>
+      <c r="J37">
+        <v>10001</v>
+      </c>
+      <c r="K37">
+        <v>0.99574079999999998</v>
+      </c>
+      <c r="L37">
+        <v>80</v>
+      </c>
+      <c r="M37">
+        <v>8768</v>
+      </c>
+      <c r="N37">
+        <v>7.3512168999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>6212</v>
+      </c>
+      <c r="I38">
+        <v>2.9770181999999998</v>
+      </c>
+      <c r="J38">
+        <v>1546</v>
+      </c>
+      <c r="K38">
+        <v>0.6402196</v>
+      </c>
+      <c r="L38">
+        <v>80</v>
+      </c>
+      <c r="M38">
+        <v>22906</v>
+      </c>
+      <c r="N38">
+        <v>27.271870199999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10301</v>
+      </c>
+      <c r="I39">
+        <v>0.86187670000000005</v>
+      </c>
+      <c r="J39">
+        <v>10001</v>
+      </c>
+      <c r="K39">
+        <v>0.85742030000000002</v>
+      </c>
+      <c r="L39">
+        <v>80</v>
+      </c>
+      <c r="M39">
+        <v>8673</v>
+      </c>
+      <c r="N39">
+        <v>6.5101430999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>13327</v>
+      </c>
+      <c r="I40">
+        <v>4.7700708000000001</v>
+      </c>
+      <c r="J40">
+        <v>10001</v>
+      </c>
+      <c r="K40">
+        <v>2.8972332999999999</v>
+      </c>
+      <c r="L40">
+        <v>80</v>
+      </c>
+      <c r="M40">
+        <v>8817</v>
+      </c>
+      <c r="N40">
+        <v>7.4312136999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2692</v>
+      </c>
+      <c r="I41">
+        <v>0.24292730000000001</v>
+      </c>
+      <c r="J41">
+        <v>10001</v>
+      </c>
+      <c r="K41">
+        <v>0.97687740000000001</v>
+      </c>
+      <c r="L41">
+        <v>80</v>
+      </c>
+      <c r="M41">
+        <v>22790</v>
+      </c>
+      <c r="N41">
+        <v>27.206459200000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>5725</v>
+      </c>
+      <c r="I42">
+        <v>2.7991088999999998</v>
+      </c>
+      <c r="J42">
+        <v>1545</v>
+      </c>
+      <c r="K42">
+        <v>0.66575499999999999</v>
+      </c>
+      <c r="L42">
+        <v>80</v>
+      </c>
+      <c r="M42">
+        <v>45695</v>
+      </c>
+      <c r="N42">
+        <v>93.491024899999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10291</v>
+      </c>
+      <c r="I43">
+        <v>0.87201819999999997</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43">
+        <v>0.90741249999999996</v>
+      </c>
+      <c r="L43">
+        <v>80</v>
+      </c>
+      <c r="M43">
+        <v>27425</v>
+      </c>
+      <c r="N43">
+        <v>90.824095099999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>13257</v>
+      </c>
+      <c r="I44">
+        <v>5.8876151999999999</v>
+      </c>
+      <c r="J44">
+        <v>10001</v>
+      </c>
+      <c r="K44">
+        <v>2.9457898</v>
+      </c>
+      <c r="L44">
+        <v>80</v>
+      </c>
+      <c r="M44">
+        <v>45523</v>
+      </c>
+      <c r="N44">
+        <v>141.83277269999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>2845</v>
+      </c>
+      <c r="I45">
+        <v>0.27992699999999998</v>
+      </c>
+      <c r="J45">
+        <v>10001</v>
+      </c>
+      <c r="K45">
+        <v>0.99578900000000004</v>
+      </c>
+      <c r="L45">
+        <v>80</v>
+      </c>
+      <c r="M45">
+        <v>9236</v>
+      </c>
+      <c r="N45">
+        <v>7.1246910999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>6043</v>
+      </c>
+      <c r="I46">
+        <v>3.1693992</v>
+      </c>
+      <c r="J46">
+        <v>1546</v>
+      </c>
+      <c r="K46">
+        <v>0.64449650000000003</v>
+      </c>
+      <c r="L46">
+        <v>80</v>
+      </c>
+      <c r="M46">
+        <v>9778</v>
+      </c>
+      <c r="N46">
+        <v>8.4407206000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10253</v>
+      </c>
+      <c r="I47">
+        <v>0.86393960000000003</v>
+      </c>
+      <c r="J47">
+        <v>10001</v>
+      </c>
+      <c r="K47">
+        <v>0.8327291</v>
+      </c>
+      <c r="L47">
+        <v>80</v>
+      </c>
+      <c r="M47">
+        <v>23583</v>
+      </c>
+      <c r="N47">
+        <v>28.297115900000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>13297</v>
+      </c>
+      <c r="I48">
+        <v>4.9914256999999997</v>
+      </c>
+      <c r="J48">
+        <v>10001</v>
+      </c>
+      <c r="K48">
+        <v>2.9321613000000002</v>
+      </c>
+      <c r="L48">
+        <v>80</v>
+      </c>
+      <c r="M48">
+        <v>9540</v>
+      </c>
+      <c r="N48">
+        <v>7.732869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>2742</v>
+      </c>
+      <c r="I49">
+        <v>0.2577644</v>
+      </c>
+      <c r="J49">
+        <v>10001</v>
+      </c>
+      <c r="K49">
+        <v>1.0916925</v>
+      </c>
+      <c r="L49">
+        <v>80</v>
+      </c>
+      <c r="M49">
+        <v>9785</v>
+      </c>
+      <c r="N49">
+        <v>8.5964787000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>5601</v>
+      </c>
+      <c r="I50">
+        <v>3.0316914000000001</v>
+      </c>
+      <c r="J50">
+        <v>1545</v>
+      </c>
+      <c r="K50">
+        <v>0.66975150000000006</v>
+      </c>
+      <c r="L50">
+        <v>80</v>
+      </c>
+      <c r="M50">
+        <v>23465</v>
+      </c>
+      <c r="N50">
+        <v>28.704042999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10301</v>
+      </c>
+      <c r="I51">
+        <v>0.83963790000000005</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51">
+        <v>0.89221510000000004</v>
+      </c>
+      <c r="L51">
+        <v>80</v>
+      </c>
+      <c r="M51">
+        <v>45382</v>
+      </c>
+      <c r="N51">
+        <v>93.862337100000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>14955</v>
+      </c>
+      <c r="I52">
+        <v>6.2707069999999998</v>
+      </c>
+      <c r="J52">
+        <v>1528</v>
+      </c>
+      <c r="K52">
+        <v>0.62645450000000003</v>
+      </c>
+      <c r="L52">
+        <v>80</v>
+      </c>
+      <c r="M52">
+        <v>28264</v>
+      </c>
+      <c r="N52">
+        <v>90.453180500000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>2922</v>
+      </c>
+      <c r="I53">
+        <v>0.28591850000000002</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53">
+        <v>0.97973469999999996</v>
+      </c>
+      <c r="L53">
+        <v>80</v>
+      </c>
+      <c r="M53">
+        <v>46446</v>
+      </c>
+      <c r="N53">
+        <v>145.19509769999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>544</v>
+      </c>
+      <c r="I54">
+        <v>0.54871809999999999</v>
+      </c>
+      <c r="J54">
+        <v>1526</v>
+      </c>
+      <c r="K54">
+        <v>0.64058910000000002</v>
+      </c>
+      <c r="L54">
+        <v>80</v>
+      </c>
+      <c r="M54">
+        <v>9152</v>
+      </c>
+      <c r="N54">
+        <v>7.9463999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10291</v>
+      </c>
+      <c r="I55">
+        <v>0.94975799999999999</v>
+      </c>
+      <c r="J55">
+        <v>10001</v>
+      </c>
+      <c r="K55">
+        <v>0.8593712</v>
+      </c>
+      <c r="L55">
+        <v>80</v>
+      </c>
+      <c r="M55">
+        <v>9457</v>
+      </c>
+      <c r="N55">
+        <v>8.8263508000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>14947</v>
+      </c>
+      <c r="I56">
+        <v>6.6925052999999997</v>
+      </c>
+      <c r="J56">
+        <v>10001</v>
+      </c>
+      <c r="K56">
+        <v>2.8915715999999998</v>
+      </c>
+      <c r="L56">
+        <v>80</v>
+      </c>
+      <c r="M56">
+        <v>23250</v>
+      </c>
+      <c r="N56">
+        <v>30.1326356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>3001</v>
+      </c>
+      <c r="I57">
+        <v>0.52725520000000003</v>
+      </c>
+      <c r="J57">
+        <v>10001</v>
+      </c>
+      <c r="K57">
+        <v>0.97829860000000002</v>
+      </c>
+      <c r="L57">
+        <v>80</v>
+      </c>
+      <c r="M57">
+        <v>9219</v>
+      </c>
+      <c r="N57">
+        <v>8.1564180999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>540</v>
+      </c>
+      <c r="I58">
+        <v>0.53384860000000001</v>
+      </c>
+      <c r="J58">
+        <v>1526</v>
+      </c>
+      <c r="K58">
+        <v>0.66631569999999996</v>
+      </c>
+      <c r="L58">
+        <v>80</v>
+      </c>
+      <c r="M58">
+        <v>9543</v>
+      </c>
+      <c r="N58">
+        <v>8.9921371000000008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10320</v>
+      </c>
+      <c r="I59">
+        <v>0.86432620000000004</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59">
+        <v>0.87977749999999999</v>
+      </c>
+      <c r="L59">
+        <v>80</v>
+      </c>
+      <c r="M59">
+        <v>23112</v>
+      </c>
+      <c r="N59">
+        <v>30.023116000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>14872</v>
+      </c>
+      <c r="I60">
+        <v>6.4591976000000004</v>
+      </c>
+      <c r="J60">
+        <v>1528</v>
+      </c>
+      <c r="K60">
+        <v>0.63308779999999998</v>
+      </c>
+      <c r="L60">
+        <v>80</v>
+      </c>
+      <c r="M60">
+        <v>45939</v>
+      </c>
+      <c r="N60">
+        <v>102.0414724</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>2817</v>
+      </c>
+      <c r="I61">
+        <v>0.26583770000000001</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61">
+        <v>1.0512594</v>
+      </c>
+      <c r="L61">
+        <v>80</v>
+      </c>
+      <c r="M61">
+        <v>28398</v>
+      </c>
+      <c r="N61">
+        <v>95.884521899999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>561</v>
+      </c>
+      <c r="I62">
+        <v>0.52862379999999998</v>
+      </c>
+      <c r="J62">
+        <v>1526</v>
+      </c>
+      <c r="K62">
+        <v>0.66685640000000002</v>
+      </c>
+      <c r="L62">
+        <v>80</v>
+      </c>
+      <c r="M62">
+        <v>46306</v>
+      </c>
+      <c r="N62">
+        <v>147.89545949999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10293</v>
+      </c>
+      <c r="I63">
+        <v>0.84993879999999999</v>
+      </c>
+      <c r="J63">
+        <v>10001</v>
+      </c>
+      <c r="K63">
+        <v>0.83679289999999995</v>
+      </c>
+      <c r="L63">
+        <v>80</v>
+      </c>
+      <c r="M63">
+        <v>9370</v>
+      </c>
+      <c r="N63">
+        <v>12.617235600000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>14924</v>
+      </c>
+      <c r="I64">
+        <v>6.1403113999999999</v>
+      </c>
+      <c r="J64">
+        <v>10001</v>
+      </c>
+      <c r="K64">
+        <v>2.9727863999999999</v>
+      </c>
+      <c r="L64">
+        <v>80</v>
+      </c>
+      <c r="M64">
+        <v>9741</v>
+      </c>
+      <c r="N64">
+        <v>13.844326499999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>2830</v>
+      </c>
+      <c r="I65">
+        <v>0.29901630000000001</v>
+      </c>
+      <c r="J65">
+        <v>10001</v>
+      </c>
+      <c r="K65">
+        <v>0.9719044</v>
+      </c>
+      <c r="L65">
+        <v>80</v>
+      </c>
+      <c r="M65">
+        <v>21111</v>
+      </c>
+      <c r="N65">
+        <v>31.465658099999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>9066</v>
+      </c>
+      <c r="I66">
+        <v>5.1003926999999996</v>
+      </c>
+      <c r="J66">
+        <v>1526</v>
+      </c>
+      <c r="K66">
+        <v>0.65504150000000005</v>
+      </c>
+      <c r="L66">
+        <v>80</v>
+      </c>
+      <c r="M66">
+        <v>9425</v>
+      </c>
+      <c r="N66">
+        <v>13.0053538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>80</v>
+      </c>
+      <c r="M67">
+        <v>9678</v>
+      </c>
+      <c r="N67">
+        <v>13.819851699999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" t="s">
+        <v>41</v>
+      </c>
+      <c r="L68">
+        <v>80</v>
+      </c>
+      <c r="M68">
+        <v>21038</v>
+      </c>
+      <c r="N68">
+        <v>31.4075922</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" t="s">
+        <v>43</v>
+      </c>
+      <c r="K69" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <v>80</v>
+      </c>
+      <c r="M69">
+        <v>46492</v>
+      </c>
+      <c r="N69">
+        <v>130.45544520000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>80</v>
+      </c>
+      <c r="M70">
+        <v>29120</v>
+      </c>
+      <c r="N70">
+        <v>121.4519432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" t="s">
+        <v>41</v>
+      </c>
+      <c r="L71">
+        <v>80</v>
+      </c>
+      <c r="M71">
+        <v>44888</v>
+      </c>
+      <c r="N71">
+        <v>178.8581671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s">
+        <v>43</v>
+      </c>
+      <c r="K72" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72">
+        <v>80</v>
+      </c>
+      <c r="M72">
+        <v>9764</v>
+      </c>
+      <c r="N72">
+        <v>13.1292466</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73">
+        <v>80</v>
+      </c>
+      <c r="M73">
+        <v>10051</v>
+      </c>
+      <c r="N73">
+        <v>14.050155500000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" t="s">
+        <v>41</v>
+      </c>
+      <c r="L74">
+        <v>80</v>
+      </c>
+      <c r="M74">
+        <v>22419</v>
+      </c>
+      <c r="N74">
+        <v>33.3337018</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75">
+        <v>80</v>
+      </c>
+      <c r="M75">
+        <v>9843</v>
+      </c>
+      <c r="N75">
+        <v>13.6922859</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" t="s">
+        <v>40</v>
+      </c>
+      <c r="K76" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76">
+        <v>80</v>
+      </c>
+      <c r="M76">
+        <v>9940</v>
+      </c>
+      <c r="N76">
+        <v>14.2493169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77">
+        <v>80</v>
+      </c>
+      <c r="M77">
+        <v>22401</v>
+      </c>
+      <c r="N77">
+        <v>35.929536400000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" t="s">
+        <v>43</v>
+      </c>
+      <c r="K78" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78">
+        <v>80</v>
+      </c>
+      <c r="M78">
+        <v>47161</v>
+      </c>
+      <c r="N78">
+        <v>132.10609479999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" t="s">
+        <v>40</v>
+      </c>
+      <c r="K79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79">
+        <v>80</v>
+      </c>
+      <c r="M79">
+        <v>30056</v>
+      </c>
+      <c r="N79">
+        <v>135.31247440000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" t="s">
+        <v>40</v>
+      </c>
+      <c r="K80" t="s">
+        <v>41</v>
+      </c>
+      <c r="L80">
+        <v>80</v>
+      </c>
+      <c r="M80">
+        <v>45573</v>
+      </c>
+      <c r="N80">
+        <v>183.6984343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" t="s">
+        <v>44</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" t="s">
+        <v>43</v>
+      </c>
+      <c r="K81" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81">
+        <v>80</v>
+      </c>
+      <c r="M81">
+        <v>9541</v>
+      </c>
+      <c r="N81">
+        <v>13.975402799999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" t="s">
+        <v>44</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82">
+        <v>80</v>
+      </c>
+      <c r="M82">
+        <v>9882</v>
+      </c>
+      <c r="N82">
+        <v>14.730588900000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" t="s">
+        <v>40</v>
+      </c>
+      <c r="K83" t="s">
+        <v>41</v>
+      </c>
+      <c r="L83">
+        <v>80</v>
+      </c>
+      <c r="M83">
+        <v>21333</v>
+      </c>
+      <c r="N83">
+        <v>35.139108200000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>39</v>
+      </c>
+      <c r="J84" t="s">
+        <v>43</v>
+      </c>
+      <c r="K84" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84">
+        <v>80</v>
+      </c>
+      <c r="M84">
+        <v>9530</v>
+      </c>
+      <c r="N84">
+        <v>14.211731</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" t="s">
+        <v>40</v>
+      </c>
+      <c r="K85" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85">
+        <v>80</v>
+      </c>
+      <c r="M85">
+        <v>9860</v>
+      </c>
+      <c r="N85">
+        <v>15.223368900000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>39</v>
+      </c>
+      <c r="J86" t="s">
+        <v>40</v>
+      </c>
+      <c r="K86" t="s">
+        <v>41</v>
+      </c>
+      <c r="L86">
+        <v>80</v>
+      </c>
+      <c r="M86">
+        <v>21319</v>
+      </c>
+      <c r="N86">
+        <v>34.757887099999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J87" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87">
+        <v>80</v>
+      </c>
+      <c r="M87">
+        <v>47683</v>
+      </c>
+      <c r="N87">
+        <v>141.16673979999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" t="s">
+        <v>35</v>
+      </c>
+      <c r="F88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s">
+        <v>37</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>39</v>
+      </c>
+      <c r="J88" t="s">
+        <v>40</v>
+      </c>
+      <c r="K88" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88">
+        <v>80</v>
+      </c>
+      <c r="M88">
+        <v>30045</v>
+      </c>
+      <c r="N88">
+        <v>129.297234</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s">
+        <v>37</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>39</v>
+      </c>
+      <c r="J89" t="s">
+        <v>40</v>
+      </c>
+      <c r="K89" t="s">
+        <v>41</v>
+      </c>
+      <c r="L89">
+        <v>80</v>
+      </c>
+      <c r="M89">
+        <v>45076</v>
+      </c>
+      <c r="N89">
+        <v>185.0793457</v>
       </c>
     </row>
   </sheetData>

--- a/Workflows/Testing/Hydraulic_Lift_Res.xlsx
+++ b/Workflows/Testing/Hydraulic_Lift_Res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smiller\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AB36A2-DD44-4BCA-A27B-26D5F5D2417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07586BA-9060-4B80-B95E-0918305F73A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="915" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4950" yWindow="2085" windowWidth="21600" windowHeight="11295" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,9 @@
     <sheet name="2023a" sheetId="21" r:id="rId15"/>
     <sheet name="2023b" sheetId="22" r:id="rId16"/>
     <sheet name="2024a" sheetId="23" r:id="rId17"/>
-    <sheet name="2024b" sheetId="24" r:id="rId18"/>
+    <sheet name="2024b(H)" sheetId="24" r:id="rId18"/>
+    <sheet name="2024b (IL1)" sheetId="25" r:id="rId19"/>
+    <sheet name="2024b" sheetId="26" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7368" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8083" uniqueCount="38">
   <si>
     <t>Run</t>
   </si>
@@ -152,49 +154,19 @@
     <t>21-Mar-2024 23:04:10</t>
   </si>
   <si>
-    <t>Wind Input</t>
+    <t>12-Sep-2024 16:51:48</t>
   </si>
   <si>
-    <t>Wind</t>
+    <t>18-Dec-2025 20:03:52</t>
   </si>
   <si>
-    <t>PI on AoA</t>
+    <t>pass</t>
   </si>
   <si>
-    <t>Lift and Drag Simscape</t>
+    <t>Pass</t>
   </si>
   <si>
-    <t>Hydraulic</t>
-  </si>
-  <si>
-    <t>Ideal Actuator</t>
-  </si>
-  <si>
-    <t>Rotate</t>
-  </si>
-  <si>
-    <t>Ideal</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>Segments</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>Lift and Drag</t>
-  </si>
-  <si>
-    <t>Ideal Motor</t>
-  </si>
-  <si>
-    <t>Servomotor</t>
-  </si>
-  <si>
-    <t>12-Sep-2024 16:51:48</t>
+    <t>19-Dec-2025 11:15:45</t>
   </si>
 </sst>
 </file>
@@ -330,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -378,6 +350,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,14 +715,14 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -21415,20 +21393,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3CB87D-EEC0-4082-AB48-5068212A7F24}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -21463,7 +21441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21497,17 +21475,8 @@
       <c r="K3">
         <v>0.85930390000000001</v>
       </c>
-      <c r="L3">
-        <v>40</v>
-      </c>
-      <c r="M3">
-        <v>4579</v>
-      </c>
-      <c r="N3">
-        <v>2.2988051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -21541,17 +21510,8 @@
       <c r="K4">
         <v>3.0841349999999998</v>
       </c>
-      <c r="L4">
-        <v>40</v>
-      </c>
-      <c r="M4">
-        <v>4581</v>
-      </c>
-      <c r="N4">
-        <v>2.3713964000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21585,17 +21545,8 @@
       <c r="K5">
         <v>1.1060672</v>
       </c>
-      <c r="L5">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <v>4598</v>
-      </c>
-      <c r="N5">
-        <v>2.6436978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21629,17 +21580,8 @@
       <c r="K6">
         <v>3.0332720000000002</v>
       </c>
-      <c r="L6">
-        <v>40</v>
-      </c>
-      <c r="M6">
-        <v>5955</v>
-      </c>
-      <c r="N6">
-        <v>2.8476894000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21673,17 +21615,8 @@
       <c r="K7">
         <v>0.87709090000000001</v>
       </c>
-      <c r="L7">
-        <v>40</v>
-      </c>
-      <c r="M7">
-        <v>5965</v>
-      </c>
-      <c r="N7">
-        <v>2.8562666000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21717,17 +21650,8 @@
       <c r="K8">
         <v>2.8918189999999999</v>
       </c>
-      <c r="L8">
-        <v>40</v>
-      </c>
-      <c r="M8">
-        <v>6012</v>
-      </c>
-      <c r="N8">
-        <v>3.5176287999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -21761,17 +21685,8 @@
       <c r="K9">
         <v>1.0014228000000001</v>
       </c>
-      <c r="L9">
-        <v>40</v>
-      </c>
-      <c r="M9">
-        <v>5165</v>
-      </c>
-      <c r="N9">
-        <v>3.1227714999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21805,17 +21720,8 @@
       <c r="K10">
         <v>3.0021629000000001</v>
       </c>
-      <c r="L10">
-        <v>40</v>
-      </c>
-      <c r="M10">
-        <v>5165</v>
-      </c>
-      <c r="N10">
-        <v>3.2528499000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21849,17 +21755,8 @@
       <c r="K11">
         <v>0.88156710000000005</v>
       </c>
-      <c r="L11">
-        <v>40</v>
-      </c>
-      <c r="M11">
-        <v>5209</v>
-      </c>
-      <c r="N11">
-        <v>3.4774177000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21893,17 +21790,8 @@
       <c r="K12">
         <v>2.8859891000000002</v>
       </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>1840</v>
-      </c>
-      <c r="N12">
-        <v>1.3480174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -21937,17 +21825,8 @@
       <c r="K13">
         <v>1.0545652999999999</v>
       </c>
-      <c r="L13">
-        <v>15</v>
-      </c>
-      <c r="M13">
-        <v>1839</v>
-      </c>
-      <c r="N13">
-        <v>1.4536150000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -21981,17 +21860,8 @@
       <c r="K14">
         <v>3.0310684999999999</v>
       </c>
-      <c r="L14">
-        <v>15</v>
-      </c>
-      <c r="M14">
-        <v>1929</v>
-      </c>
-      <c r="N14">
-        <v>1.8501373999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -22025,17 +21895,8 @@
       <c r="K15">
         <v>0.84250570000000002</v>
       </c>
-      <c r="L15">
-        <v>40</v>
-      </c>
-      <c r="M15">
-        <v>4781</v>
-      </c>
-      <c r="N15">
-        <v>3.3549614999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -22069,17 +21930,8 @@
       <c r="K16">
         <v>2.9758141</v>
       </c>
-      <c r="L16">
-        <v>40</v>
-      </c>
-      <c r="M16">
-        <v>4745</v>
-      </c>
-      <c r="N16">
-        <v>3.4637231000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -22113,17 +21965,8 @@
       <c r="K17">
         <v>0.99997749999999996</v>
       </c>
-      <c r="L17">
-        <v>40</v>
-      </c>
-      <c r="M17">
-        <v>4805</v>
-      </c>
-      <c r="N17">
-        <v>4.1063957000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -22157,17 +22000,8 @@
       <c r="K18">
         <v>2.9883394000000001</v>
       </c>
-      <c r="L18">
-        <v>40</v>
-      </c>
-      <c r="M18">
-        <v>6069</v>
-      </c>
-      <c r="N18">
-        <v>4.6096946000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -22201,17 +22035,8 @@
       <c r="K19">
         <v>0.88586770000000004</v>
       </c>
-      <c r="L19">
-        <v>40</v>
-      </c>
-      <c r="M19">
-        <v>6417</v>
-      </c>
-      <c r="N19">
-        <v>5.1338388000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -22245,17 +22070,8 @@
       <c r="K20">
         <v>2.9071286000000001</v>
       </c>
-      <c r="L20">
-        <v>40</v>
-      </c>
-      <c r="M20">
-        <v>6486</v>
-      </c>
-      <c r="N20">
-        <v>5.8065338000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -22289,17 +22105,8 @@
       <c r="K21">
         <v>1.0292329</v>
       </c>
-      <c r="L21">
-        <v>40</v>
-      </c>
-      <c r="M21">
-        <v>5407</v>
-      </c>
-      <c r="N21">
-        <v>4.9165815000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -22333,17 +22140,8 @@
       <c r="K22">
         <v>3.0246306000000001</v>
       </c>
-      <c r="L22">
-        <v>40</v>
-      </c>
-      <c r="M22">
-        <v>5401</v>
-      </c>
-      <c r="N22">
-        <v>5.1515104000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -22377,17 +22175,8 @@
       <c r="K23">
         <v>0.93149539999999997</v>
       </c>
-      <c r="L23">
-        <v>40</v>
-      </c>
-      <c r="M23">
-        <v>5469</v>
-      </c>
-      <c r="N23">
-        <v>5.7449247000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -22421,17 +22210,8 @@
       <c r="K24">
         <v>3.013115</v>
       </c>
-      <c r="L24">
-        <v>15</v>
-      </c>
-      <c r="M24">
-        <v>2479</v>
-      </c>
-      <c r="N24">
-        <v>3.4230635999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -22465,17 +22245,8 @@
       <c r="K25">
         <v>0.99540110000000004</v>
       </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>2462</v>
-      </c>
-      <c r="N25">
-        <v>3.6252475999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -22509,17 +22280,8 @@
       <c r="K26">
         <v>2.9622948</v>
       </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>2519</v>
-      </c>
-      <c r="N26">
-        <v>4.0384241999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -22553,17 +22315,8 @@
       <c r="K27">
         <v>0.90184410000000004</v>
       </c>
-      <c r="L27">
-        <v>40</v>
-      </c>
-      <c r="M27">
-        <v>5495</v>
-      </c>
-      <c r="N27">
-        <v>7.9072750000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -22597,17 +22350,8 @@
       <c r="K28">
         <v>2.8573829000000002</v>
       </c>
-      <c r="L28">
-        <v>40</v>
-      </c>
-      <c r="M28">
-        <v>5513</v>
-      </c>
-      <c r="N28">
-        <v>8.5193183000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -22641,17 +22385,8 @@
       <c r="K29">
         <v>0.99435289999999998</v>
       </c>
-      <c r="L29">
-        <v>40</v>
-      </c>
-      <c r="M29">
-        <v>5646</v>
-      </c>
-      <c r="N29">
-        <v>9.5794551999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -22685,17 +22420,8 @@
       <c r="K30">
         <v>2.9522647000000002</v>
       </c>
-      <c r="L30">
-        <v>40</v>
-      </c>
-      <c r="M30">
-        <v>6845</v>
-      </c>
-      <c r="N30">
-        <v>10.273775499999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -22729,17 +22455,8 @@
       <c r="K31">
         <v>0.90057849999999995</v>
       </c>
-      <c r="L31">
-        <v>40</v>
-      </c>
-      <c r="M31">
-        <v>7188</v>
-      </c>
-      <c r="N31">
-        <v>11.4322012</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -22773,17 +22490,8 @@
       <c r="K32">
         <v>3.1005305999999999</v>
       </c>
-      <c r="L32">
-        <v>40</v>
-      </c>
-      <c r="M32">
-        <v>7266</v>
-      </c>
-      <c r="N32">
-        <v>12.3263771</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -22817,17 +22525,8 @@
       <c r="K33">
         <v>1.019074</v>
       </c>
-      <c r="L33">
-        <v>40</v>
-      </c>
-      <c r="M33">
-        <v>5865</v>
-      </c>
-      <c r="N33">
-        <v>9.9905930000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -22861,17 +22560,8 @@
       <c r="K34">
         <v>3.2379707999999998</v>
       </c>
-      <c r="L34">
-        <v>40</v>
-      </c>
-      <c r="M34">
-        <v>5970</v>
-      </c>
-      <c r="N34">
-        <v>9.5997397000000007</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -22905,17 +22595,8 @@
       <c r="K35">
         <v>0.89695939999999996</v>
       </c>
-      <c r="L35">
-        <v>40</v>
-      </c>
-      <c r="M35">
-        <v>6117</v>
-      </c>
-      <c r="N35">
-        <v>10.409558799999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -22949,17 +22630,8 @@
       <c r="K36">
         <v>2.9139078999999999</v>
       </c>
-      <c r="L36">
-        <v>80</v>
-      </c>
-      <c r="M36">
-        <v>8431</v>
-      </c>
-      <c r="N36">
-        <v>6.1674461000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -22993,17 +22665,8 @@
       <c r="K37">
         <v>0.99574079999999998</v>
       </c>
-      <c r="L37">
-        <v>80</v>
-      </c>
-      <c r="M37">
-        <v>8768</v>
-      </c>
-      <c r="N37">
-        <v>7.3512168999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -23037,17 +22700,8 @@
       <c r="K38">
         <v>0.6402196</v>
       </c>
-      <c r="L38">
-        <v>80</v>
-      </c>
-      <c r="M38">
-        <v>22906</v>
-      </c>
-      <c r="N38">
-        <v>27.271870199999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -23081,17 +22735,8 @@
       <c r="K39">
         <v>0.85742030000000002</v>
       </c>
-      <c r="L39">
-        <v>80</v>
-      </c>
-      <c r="M39">
-        <v>8673</v>
-      </c>
-      <c r="N39">
-        <v>6.5101430999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -23125,17 +22770,8 @@
       <c r="K40">
         <v>2.8972332999999999</v>
       </c>
-      <c r="L40">
-        <v>80</v>
-      </c>
-      <c r="M40">
-        <v>8817</v>
-      </c>
-      <c r="N40">
-        <v>7.4312136999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -23169,17 +22805,8 @@
       <c r="K41">
         <v>0.97687740000000001</v>
       </c>
-      <c r="L41">
-        <v>80</v>
-      </c>
-      <c r="M41">
-        <v>22790</v>
-      </c>
-      <c r="N41">
-        <v>27.206459200000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -23213,17 +22840,8 @@
       <c r="K42">
         <v>0.66575499999999999</v>
       </c>
-      <c r="L42">
-        <v>80</v>
-      </c>
-      <c r="M42">
-        <v>45695</v>
-      </c>
-      <c r="N42">
-        <v>93.491024899999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -23257,17 +22875,8 @@
       <c r="K43">
         <v>0.90741249999999996</v>
       </c>
-      <c r="L43">
-        <v>80</v>
-      </c>
-      <c r="M43">
-        <v>27425</v>
-      </c>
-      <c r="N43">
-        <v>90.824095099999994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -23301,17 +22910,8 @@
       <c r="K44">
         <v>2.9457898</v>
       </c>
-      <c r="L44">
-        <v>80</v>
-      </c>
-      <c r="M44">
-        <v>45523</v>
-      </c>
-      <c r="N44">
-        <v>141.83277269999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -23345,17 +22945,8 @@
       <c r="K45">
         <v>0.99578900000000004</v>
       </c>
-      <c r="L45">
-        <v>80</v>
-      </c>
-      <c r="M45">
-        <v>9236</v>
-      </c>
-      <c r="N45">
-        <v>7.1246910999999997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -23389,17 +22980,8 @@
       <c r="K46">
         <v>0.64449650000000003</v>
       </c>
-      <c r="L46">
-        <v>80</v>
-      </c>
-      <c r="M46">
-        <v>9778</v>
-      </c>
-      <c r="N46">
-        <v>8.4407206000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -23433,17 +23015,8 @@
       <c r="K47">
         <v>0.8327291</v>
       </c>
-      <c r="L47">
-        <v>80</v>
-      </c>
-      <c r="M47">
-        <v>23583</v>
-      </c>
-      <c r="N47">
-        <v>28.297115900000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -23477,17 +23050,8 @@
       <c r="K48">
         <v>2.9321613000000002</v>
       </c>
-      <c r="L48">
-        <v>80</v>
-      </c>
-      <c r="M48">
-        <v>9540</v>
-      </c>
-      <c r="N48">
-        <v>7.732869</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -23521,17 +23085,8 @@
       <c r="K49">
         <v>1.0916925</v>
       </c>
-      <c r="L49">
-        <v>80</v>
-      </c>
-      <c r="M49">
-        <v>9785</v>
-      </c>
-      <c r="N49">
-        <v>8.5964787000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -23565,17 +23120,8 @@
       <c r="K50">
         <v>0.66975150000000006</v>
       </c>
-      <c r="L50">
-        <v>80</v>
-      </c>
-      <c r="M50">
-        <v>23465</v>
-      </c>
-      <c r="N50">
-        <v>28.704042999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -23609,17 +23155,8 @@
       <c r="K51">
         <v>0.89221510000000004</v>
       </c>
-      <c r="L51">
-        <v>80</v>
-      </c>
-      <c r="M51">
-        <v>45382</v>
-      </c>
-      <c r="N51">
-        <v>93.862337100000005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -23653,17 +23190,8 @@
       <c r="K52">
         <v>0.62645450000000003</v>
       </c>
-      <c r="L52">
-        <v>80</v>
-      </c>
-      <c r="M52">
-        <v>28264</v>
-      </c>
-      <c r="N52">
-        <v>90.453180500000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -23697,17 +23225,8 @@
       <c r="K53">
         <v>0.97973469999999996</v>
       </c>
-      <c r="L53">
-        <v>80</v>
-      </c>
-      <c r="M53">
-        <v>46446</v>
-      </c>
-      <c r="N53">
-        <v>145.19509769999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -23741,17 +23260,8 @@
       <c r="K54">
         <v>0.64058910000000002</v>
       </c>
-      <c r="L54">
-        <v>80</v>
-      </c>
-      <c r="M54">
-        <v>9152</v>
-      </c>
-      <c r="N54">
-        <v>7.9463999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -23785,17 +23295,8 @@
       <c r="K55">
         <v>0.8593712</v>
       </c>
-      <c r="L55">
-        <v>80</v>
-      </c>
-      <c r="M55">
-        <v>9457</v>
-      </c>
-      <c r="N55">
-        <v>8.8263508000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -23829,17 +23330,8 @@
       <c r="K56">
         <v>2.8915715999999998</v>
       </c>
-      <c r="L56">
-        <v>80</v>
-      </c>
-      <c r="M56">
-        <v>23250</v>
-      </c>
-      <c r="N56">
-        <v>30.1326356</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -23873,17 +23365,8 @@
       <c r="K57">
         <v>0.97829860000000002</v>
       </c>
-      <c r="L57">
-        <v>80</v>
-      </c>
-      <c r="M57">
-        <v>9219</v>
-      </c>
-      <c r="N57">
-        <v>8.1564180999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -23917,17 +23400,8 @@
       <c r="K58">
         <v>0.66631569999999996</v>
       </c>
-      <c r="L58">
-        <v>80</v>
-      </c>
-      <c r="M58">
-        <v>9543</v>
-      </c>
-      <c r="N58">
-        <v>8.9921371000000008</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -23961,17 +23435,8 @@
       <c r="K59">
         <v>0.87977749999999999</v>
       </c>
-      <c r="L59">
-        <v>80</v>
-      </c>
-      <c r="M59">
-        <v>23112</v>
-      </c>
-      <c r="N59">
-        <v>30.023116000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -24005,17 +23470,8 @@
       <c r="K60">
         <v>0.63308779999999998</v>
       </c>
-      <c r="L60">
-        <v>80</v>
-      </c>
-      <c r="M60">
-        <v>45939</v>
-      </c>
-      <c r="N60">
-        <v>102.0414724</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -24049,17 +23505,8 @@
       <c r="K61">
         <v>1.0512594</v>
       </c>
-      <c r="L61">
-        <v>80</v>
-      </c>
-      <c r="M61">
-        <v>28398</v>
-      </c>
-      <c r="N61">
-        <v>95.884521899999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -24093,17 +23540,8 @@
       <c r="K62">
         <v>0.66685640000000002</v>
       </c>
-      <c r="L62">
-        <v>80</v>
-      </c>
-      <c r="M62">
-        <v>46306</v>
-      </c>
-      <c r="N62">
-        <v>147.89545949999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -24137,17 +23575,8 @@
       <c r="K63">
         <v>0.83679289999999995</v>
       </c>
-      <c r="L63">
-        <v>80</v>
-      </c>
-      <c r="M63">
-        <v>9370</v>
-      </c>
-      <c r="N63">
-        <v>12.617235600000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -24181,17 +23610,8 @@
       <c r="K64">
         <v>2.9727863999999999</v>
       </c>
-      <c r="L64">
-        <v>80</v>
-      </c>
-      <c r="M64">
-        <v>9741</v>
-      </c>
-      <c r="N64">
-        <v>13.844326499999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -24225,17 +23645,8 @@
       <c r="K65">
         <v>0.9719044</v>
       </c>
-      <c r="L65">
-        <v>80</v>
-      </c>
-      <c r="M65">
-        <v>21111</v>
-      </c>
-      <c r="N65">
-        <v>31.465658099999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -24269,1026 +23680,2300 @@
       <c r="K66">
         <v>0.65504150000000005</v>
       </c>
-      <c r="L66">
-        <v>80</v>
-      </c>
-      <c r="M66">
-        <v>9425</v>
-      </c>
-      <c r="N66">
-        <v>13.0053538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>65</v>
-      </c>
-      <c r="C67" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26A5AAE-C81F-499B-90DA-975F7CA7BAAD}">
+  <dimension ref="A1:K66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>1694</v>
+      </c>
+      <c r="I3">
+        <v>0.2305508</v>
+      </c>
+      <c r="J3">
+        <v>10001</v>
+      </c>
+      <c r="K3">
+        <v>0.4063619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1488</v>
+      </c>
+      <c r="I4">
+        <v>0.2400813</v>
+      </c>
+      <c r="J4">
+        <v>10001</v>
+      </c>
+      <c r="K4">
+        <v>1.4234301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1488</v>
+      </c>
+      <c r="I5">
+        <v>0.2400813</v>
+      </c>
+      <c r="J5">
+        <v>10001</v>
+      </c>
+      <c r="K5">
+        <v>1.4234301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1488</v>
+      </c>
+      <c r="I6">
+        <v>0.2400813</v>
+      </c>
+      <c r="J6">
+        <v>10001</v>
+      </c>
+      <c r="K6">
+        <v>1.4234301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>1488</v>
+      </c>
+      <c r="I7">
+        <v>0.2400813</v>
+      </c>
+      <c r="J7">
+        <v>10001</v>
+      </c>
+      <c r="K7">
+        <v>1.4234301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>1488</v>
+      </c>
+      <c r="I8">
+        <v>0.2400813</v>
+      </c>
+      <c r="J8">
+        <v>10001</v>
+      </c>
+      <c r="K8">
+        <v>1.4234301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1488</v>
+      </c>
+      <c r="I9">
+        <v>0.2400813</v>
+      </c>
+      <c r="J9">
+        <v>10001</v>
+      </c>
+      <c r="K9">
+        <v>1.4234301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>1488</v>
+      </c>
+      <c r="I10">
+        <v>0.2400813</v>
+      </c>
+      <c r="J10">
+        <v>10001</v>
+      </c>
+      <c r="K10">
+        <v>1.4234301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>1697</v>
+      </c>
+      <c r="I11">
+        <v>0.13967740000000001</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>0.29100579999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1523</v>
+      </c>
+      <c r="I12">
+        <v>0.22423999999999999</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>1.3566005999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>1523</v>
+      </c>
+      <c r="I13">
+        <v>0.22423999999999999</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
+        <v>1.3566005999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>1523</v>
+      </c>
+      <c r="I14">
+        <v>0.22423999999999999</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="K14">
+        <v>1.3566005999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1523</v>
+      </c>
+      <c r="I15">
+        <v>0.22423999999999999</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="K15">
+        <v>1.3566005999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>1523</v>
+      </c>
+      <c r="I16">
+        <v>0.22423999999999999</v>
+      </c>
+      <c r="J16">
+        <v>10001</v>
+      </c>
+      <c r="K16">
+        <v>1.3566005999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>1523</v>
+      </c>
+      <c r="I17">
+        <v>0.22423999999999999</v>
+      </c>
+      <c r="J17">
+        <v>10001</v>
+      </c>
+      <c r="K17">
+        <v>1.3566005999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1523</v>
+      </c>
+      <c r="I18">
+        <v>0.22423999999999999</v>
+      </c>
+      <c r="J18">
+        <v>10001</v>
+      </c>
+      <c r="K18">
+        <v>1.3566005999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>1688</v>
+      </c>
+      <c r="I19">
+        <v>6.9316299999999997E-2</v>
+      </c>
+      <c r="J19">
+        <v>10001</v>
+      </c>
+      <c r="K19">
+        <v>0.47641349999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1573</v>
+      </c>
+      <c r="I20">
+        <v>0.2367824</v>
+      </c>
+      <c r="J20">
+        <v>10001</v>
+      </c>
+      <c r="K20">
+        <v>1.3696812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10658</v>
+      </c>
+      <c r="I21">
+        <v>0.22773070000000001</v>
+      </c>
+      <c r="J21">
+        <v>10001</v>
+      </c>
+      <c r="K21">
+        <v>0.27001439999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>10279</v>
+      </c>
+      <c r="I22">
+        <v>2.1475016</v>
+      </c>
+      <c r="J22">
+        <v>482</v>
+      </c>
+      <c r="K22">
+        <v>0.123741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>10279</v>
+      </c>
+      <c r="I23">
+        <v>2.1475016</v>
+      </c>
+      <c r="J23">
+        <v>482</v>
+      </c>
+      <c r="K23">
+        <v>0.123741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>10279</v>
+      </c>
+      <c r="I24">
+        <v>2.1475016</v>
+      </c>
+      <c r="J24">
+        <v>482</v>
+      </c>
+      <c r="K24">
+        <v>0.123741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>10279</v>
+      </c>
+      <c r="I25">
+        <v>2.1475016</v>
+      </c>
+      <c r="J25">
+        <v>482</v>
+      </c>
+      <c r="K25">
+        <v>0.123741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>10279</v>
+      </c>
+      <c r="I26">
+        <v>2.1475016</v>
+      </c>
+      <c r="J26">
+        <v>482</v>
+      </c>
+      <c r="K26">
+        <v>0.123741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>1647</v>
+      </c>
+      <c r="I27">
+        <v>7.7130400000000002E-2</v>
+      </c>
+      <c r="J27">
+        <v>10001</v>
+      </c>
+      <c r="K27">
+        <v>0.445467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1610</v>
+      </c>
+      <c r="I28">
+        <v>0.25427830000000001</v>
+      </c>
+      <c r="J28">
+        <v>10001</v>
+      </c>
+      <c r="K28">
+        <v>1.4231813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10559</v>
+      </c>
+      <c r="I29">
+        <v>0.2514363</v>
+      </c>
+      <c r="J29">
+        <v>10001</v>
+      </c>
+      <c r="K29">
+        <v>0.26992369999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>10398</v>
+      </c>
+      <c r="I30">
+        <v>1.8130185000000001</v>
+      </c>
+      <c r="J30">
+        <v>482</v>
+      </c>
+      <c r="K30">
+        <v>9.1784500000000005E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>10398</v>
+      </c>
+      <c r="I31">
+        <v>1.8130185000000001</v>
+      </c>
+      <c r="J31">
+        <v>482</v>
+      </c>
+      <c r="K31">
+        <v>9.1784500000000005E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>10398</v>
+      </c>
+      <c r="I32">
+        <v>1.8130185000000001</v>
+      </c>
+      <c r="J32">
+        <v>482</v>
+      </c>
+      <c r="K32">
+        <v>9.1784500000000005E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>10398</v>
+      </c>
+      <c r="I33">
+        <v>1.8130185000000001</v>
+      </c>
+      <c r="J33">
+        <v>482</v>
+      </c>
+      <c r="K33">
+        <v>9.1784500000000005E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>10398</v>
+      </c>
+      <c r="I34">
+        <v>1.8130185000000001</v>
+      </c>
+      <c r="J34">
+        <v>482</v>
+      </c>
+      <c r="K34">
+        <v>9.1784500000000005E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="D67" t="s">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>1924</v>
+      </c>
+      <c r="I35">
+        <v>8.0665899999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>10001</v>
+      </c>
+      <c r="K35">
+        <v>0.2769798</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="E67" t="s">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>2768</v>
+      </c>
+      <c r="I36">
+        <v>0.7432145</v>
+      </c>
+      <c r="J36">
+        <v>1708</v>
+      </c>
+      <c r="K36">
+        <v>0.24003279999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="F67" t="s">
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>2768</v>
+      </c>
+      <c r="I37">
+        <v>0.7432145</v>
+      </c>
+      <c r="J37">
+        <v>1708</v>
+      </c>
+      <c r="K37">
+        <v>0.24003279999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="G67" t="s">
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>2768</v>
+      </c>
+      <c r="I38">
+        <v>0.7432145</v>
+      </c>
+      <c r="J38">
+        <v>1708</v>
+      </c>
+      <c r="K38">
+        <v>0.24003279999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="H67" t="s">
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>2768</v>
+      </c>
+      <c r="I39">
+        <v>0.7432145</v>
+      </c>
+      <c r="J39">
+        <v>1708</v>
+      </c>
+      <c r="K39">
+        <v>0.24003279999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="I67" t="s">
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>2768</v>
+      </c>
+      <c r="I40">
+        <v>0.7432145</v>
+      </c>
+      <c r="J40">
+        <v>1708</v>
+      </c>
+      <c r="K40">
+        <v>0.24003279999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="J67" t="s">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>2768</v>
+      </c>
+      <c r="I41">
+        <v>0.7432145</v>
+      </c>
+      <c r="J41">
+        <v>1708</v>
+      </c>
+      <c r="K41">
+        <v>0.24003279999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="K67" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67">
-        <v>80</v>
-      </c>
-      <c r="M67">
-        <v>9678</v>
-      </c>
-      <c r="N67">
-        <v>13.819851699999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>66</v>
-      </c>
-      <c r="C68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" t="s">
-        <v>38</v>
-      </c>
-      <c r="I68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J68" t="s">
-        <v>40</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>2768</v>
+      </c>
+      <c r="I42">
+        <v>0.7432145</v>
+      </c>
+      <c r="J42">
+        <v>1708</v>
+      </c>
+      <c r="K42">
+        <v>0.24003279999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="L68">
-        <v>80</v>
-      </c>
-      <c r="M68">
-        <v>21038</v>
-      </c>
-      <c r="N68">
-        <v>31.4075922</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>1902</v>
+      </c>
+      <c r="I43">
+        <v>7.6382599999999995E-2</v>
+      </c>
+      <c r="J43">
+        <v>10001</v>
+      </c>
+      <c r="K43">
+        <v>0.40853440000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="G69" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" t="s">
-        <v>38</v>
-      </c>
-      <c r="I69" t="s">
-        <v>39</v>
-      </c>
-      <c r="J69" t="s">
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>2804</v>
+      </c>
+      <c r="I44">
+        <v>0.67894239999999995</v>
+      </c>
+      <c r="J44">
+        <v>1708</v>
+      </c>
+      <c r="K44">
+        <v>0.2282198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="K69" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69">
-        <v>80</v>
-      </c>
-      <c r="M69">
-        <v>46492</v>
-      </c>
-      <c r="N69">
-        <v>130.45544520000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>68</v>
-      </c>
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" t="s">
-        <v>35</v>
-      </c>
-      <c r="F70" t="s">
-        <v>42</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s">
-        <v>38</v>
-      </c>
-      <c r="I70" t="s">
-        <v>39</v>
-      </c>
-      <c r="J70" t="s">
-        <v>40</v>
-      </c>
-      <c r="K70" t="s">
-        <v>10</v>
-      </c>
-      <c r="L70">
-        <v>80</v>
-      </c>
-      <c r="M70">
-        <v>29120</v>
-      </c>
-      <c r="N70">
-        <v>121.4519432</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I71" t="s">
-        <v>39</v>
-      </c>
-      <c r="J71" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" t="s">
-        <v>41</v>
-      </c>
-      <c r="L71">
-        <v>80</v>
-      </c>
-      <c r="M71">
-        <v>44888</v>
-      </c>
-      <c r="N71">
-        <v>178.8581671</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" t="s">
-        <v>35</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>2804</v>
+      </c>
+      <c r="I45">
+        <v>0.67894239999999995</v>
+      </c>
+      <c r="J45">
+        <v>1708</v>
+      </c>
+      <c r="K45">
+        <v>0.2282198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>2804</v>
+      </c>
+      <c r="I46">
+        <v>0.67894239999999995</v>
+      </c>
+      <c r="J46">
+        <v>1708</v>
+      </c>
+      <c r="K46">
+        <v>0.2282198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="I72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J72" t="s">
-        <v>43</v>
-      </c>
-      <c r="K72" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72">
-        <v>80</v>
-      </c>
-      <c r="M72">
-        <v>9764</v>
-      </c>
-      <c r="N72">
-        <v>13.1292466</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>71</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" t="s">
-        <v>34</v>
-      </c>
-      <c r="E73" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" t="s">
-        <v>45</v>
-      </c>
-      <c r="I73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J73" t="s">
-        <v>40</v>
-      </c>
-      <c r="K73" t="s">
-        <v>10</v>
-      </c>
-      <c r="L73">
-        <v>80</v>
-      </c>
-      <c r="M73">
-        <v>10051</v>
-      </c>
-      <c r="N73">
-        <v>14.050155500000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>72</v>
-      </c>
-      <c r="C74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" t="s">
-        <v>34</v>
-      </c>
-      <c r="E74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74" t="s">
-        <v>45</v>
-      </c>
-      <c r="I74" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74" t="s">
-        <v>40</v>
-      </c>
-      <c r="K74" t="s">
-        <v>41</v>
-      </c>
-      <c r="L74">
-        <v>80</v>
-      </c>
-      <c r="M74">
-        <v>22419</v>
-      </c>
-      <c r="N74">
-        <v>33.3337018</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>73</v>
-      </c>
-      <c r="C75" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" t="s">
-        <v>35</v>
-      </c>
-      <c r="F75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" t="s">
-        <v>45</v>
-      </c>
-      <c r="I75" t="s">
-        <v>39</v>
-      </c>
-      <c r="J75" t="s">
-        <v>43</v>
-      </c>
-      <c r="K75" t="s">
-        <v>10</v>
-      </c>
-      <c r="L75">
-        <v>80</v>
-      </c>
-      <c r="M75">
-        <v>9843</v>
-      </c>
-      <c r="N75">
-        <v>13.6922859</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" t="s">
-        <v>35</v>
-      </c>
-      <c r="F76" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" t="s">
-        <v>45</v>
-      </c>
-      <c r="I76" t="s">
-        <v>39</v>
-      </c>
-      <c r="J76" t="s">
-        <v>40</v>
-      </c>
-      <c r="K76" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76">
-        <v>80</v>
-      </c>
-      <c r="M76">
-        <v>9940</v>
-      </c>
-      <c r="N76">
-        <v>14.2493169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>75</v>
-      </c>
-      <c r="C77" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" t="s">
-        <v>45</v>
-      </c>
-      <c r="I77" t="s">
-        <v>39</v>
-      </c>
-      <c r="J77" t="s">
-        <v>40</v>
-      </c>
-      <c r="K77" t="s">
-        <v>41</v>
-      </c>
-      <c r="L77">
-        <v>80</v>
-      </c>
-      <c r="M77">
-        <v>22401</v>
-      </c>
-      <c r="N77">
-        <v>35.929536400000003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>76</v>
-      </c>
-      <c r="C78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" t="s">
-        <v>35</v>
-      </c>
-      <c r="F78" t="s">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" t="s">
-        <v>45</v>
-      </c>
-      <c r="I78" t="s">
-        <v>39</v>
-      </c>
-      <c r="J78" t="s">
-        <v>43</v>
-      </c>
-      <c r="K78" t="s">
-        <v>10</v>
-      </c>
-      <c r="L78">
-        <v>80</v>
-      </c>
-      <c r="M78">
-        <v>47161</v>
-      </c>
-      <c r="N78">
-        <v>132.10609479999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>77</v>
-      </c>
-      <c r="C79" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" t="s">
-        <v>35</v>
-      </c>
-      <c r="F79" t="s">
-        <v>42</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" t="s">
-        <v>45</v>
-      </c>
-      <c r="I79" t="s">
-        <v>39</v>
-      </c>
-      <c r="J79" t="s">
-        <v>40</v>
-      </c>
-      <c r="K79" t="s">
-        <v>10</v>
-      </c>
-      <c r="L79">
-        <v>80</v>
-      </c>
-      <c r="M79">
-        <v>30056</v>
-      </c>
-      <c r="N79">
-        <v>135.31247440000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>78</v>
-      </c>
-      <c r="C80" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" t="s">
-        <v>42</v>
-      </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" t="s">
-        <v>45</v>
-      </c>
-      <c r="I80" t="s">
-        <v>39</v>
-      </c>
-      <c r="J80" t="s">
-        <v>40</v>
-      </c>
-      <c r="K80" t="s">
-        <v>41</v>
-      </c>
-      <c r="L80">
-        <v>80</v>
-      </c>
-      <c r="M80">
-        <v>45573</v>
-      </c>
-      <c r="N80">
-        <v>183.6984343</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>79</v>
-      </c>
-      <c r="C81" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>2804</v>
+      </c>
+      <c r="I47">
+        <v>0.67894239999999995</v>
+      </c>
+      <c r="J47">
+        <v>1708</v>
+      </c>
+      <c r="K47">
+        <v>0.2282198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="I81" t="s">
-        <v>39</v>
-      </c>
-      <c r="J81" t="s">
-        <v>43</v>
-      </c>
-      <c r="K81" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81">
-        <v>80</v>
-      </c>
-      <c r="M81">
-        <v>9541</v>
-      </c>
-      <c r="N81">
-        <v>13.975402799999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>80</v>
-      </c>
-      <c r="C82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" t="s">
-        <v>35</v>
-      </c>
-      <c r="F82" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" t="s">
-        <v>46</v>
-      </c>
-      <c r="I82" t="s">
-        <v>39</v>
-      </c>
-      <c r="J82" t="s">
-        <v>40</v>
-      </c>
-      <c r="K82" t="s">
-        <v>10</v>
-      </c>
-      <c r="L82">
-        <v>80</v>
-      </c>
-      <c r="M82">
-        <v>9882</v>
-      </c>
-      <c r="N82">
-        <v>14.730588900000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" t="s">
-        <v>34</v>
-      </c>
-      <c r="E83" t="s">
-        <v>35</v>
-      </c>
-      <c r="F83" t="s">
-        <v>44</v>
-      </c>
-      <c r="G83" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" t="s">
-        <v>46</v>
-      </c>
-      <c r="I83" t="s">
-        <v>39</v>
-      </c>
-      <c r="J83" t="s">
-        <v>40</v>
-      </c>
-      <c r="K83" t="s">
-        <v>41</v>
-      </c>
-      <c r="L83">
-        <v>80</v>
-      </c>
-      <c r="M83">
-        <v>21333</v>
-      </c>
-      <c r="N83">
-        <v>35.139108200000003</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" t="s">
-        <v>35</v>
-      </c>
-      <c r="F84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
-      <c r="H84" t="s">
-        <v>46</v>
-      </c>
-      <c r="I84" t="s">
-        <v>39</v>
-      </c>
-      <c r="J84" t="s">
-        <v>43</v>
-      </c>
-      <c r="K84" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84">
-        <v>80</v>
-      </c>
-      <c r="M84">
-        <v>9530</v>
-      </c>
-      <c r="N84">
-        <v>14.211731</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" t="s">
-        <v>35</v>
-      </c>
-      <c r="F85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
-      </c>
-      <c r="H85" t="s">
-        <v>46</v>
-      </c>
-      <c r="I85" t="s">
-        <v>39</v>
-      </c>
-      <c r="J85" t="s">
-        <v>40</v>
-      </c>
-      <c r="K85" t="s">
-        <v>10</v>
-      </c>
-      <c r="L85">
-        <v>80</v>
-      </c>
-      <c r="M85">
-        <v>9860</v>
-      </c>
-      <c r="N85">
-        <v>15.223368900000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
-      </c>
-      <c r="G86" t="s">
-        <v>37</v>
-      </c>
-      <c r="H86" t="s">
-        <v>46</v>
-      </c>
-      <c r="I86" t="s">
-        <v>39</v>
-      </c>
-      <c r="J86" t="s">
-        <v>40</v>
-      </c>
-      <c r="K86" t="s">
-        <v>41</v>
-      </c>
-      <c r="L86">
-        <v>80</v>
-      </c>
-      <c r="M86">
-        <v>21319</v>
-      </c>
-      <c r="N86">
-        <v>34.757887099999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>85</v>
-      </c>
-      <c r="C87" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" t="s">
-        <v>35</v>
-      </c>
-      <c r="F87" t="s">
-        <v>42</v>
-      </c>
-      <c r="G87" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87" t="s">
-        <v>46</v>
-      </c>
-      <c r="I87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J87" t="s">
-        <v>43</v>
-      </c>
-      <c r="K87" t="s">
-        <v>10</v>
-      </c>
-      <c r="L87">
-        <v>80</v>
-      </c>
-      <c r="M87">
-        <v>47683</v>
-      </c>
-      <c r="N87">
-        <v>141.16673979999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>86</v>
-      </c>
-      <c r="C88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" t="s">
-        <v>42</v>
-      </c>
-      <c r="G88" t="s">
-        <v>37</v>
-      </c>
-      <c r="H88" t="s">
-        <v>46</v>
-      </c>
-      <c r="I88" t="s">
-        <v>39</v>
-      </c>
-      <c r="J88" t="s">
-        <v>40</v>
-      </c>
-      <c r="K88" t="s">
-        <v>10</v>
-      </c>
-      <c r="L88">
-        <v>80</v>
-      </c>
-      <c r="M88">
-        <v>30045</v>
-      </c>
-      <c r="N88">
-        <v>129.297234</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>87</v>
-      </c>
-      <c r="C89" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F89" t="s">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" t="s">
-        <v>46</v>
-      </c>
-      <c r="I89" t="s">
-        <v>39</v>
-      </c>
-      <c r="J89" t="s">
-        <v>40</v>
-      </c>
-      <c r="K89" t="s">
-        <v>41</v>
-      </c>
-      <c r="L89">
-        <v>80</v>
-      </c>
-      <c r="M89">
-        <v>45076</v>
-      </c>
-      <c r="N89">
-        <v>185.0793457</v>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>2804</v>
+      </c>
+      <c r="I48">
+        <v>0.67894239999999995</v>
+      </c>
+      <c r="J48">
+        <v>1708</v>
+      </c>
+      <c r="K48">
+        <v>0.2282198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>2804</v>
+      </c>
+      <c r="I49">
+        <v>0.67894239999999995</v>
+      </c>
+      <c r="J49">
+        <v>1708</v>
+      </c>
+      <c r="K49">
+        <v>0.2282198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>2804</v>
+      </c>
+      <c r="I50">
+        <v>0.67894239999999995</v>
+      </c>
+      <c r="J50">
+        <v>1708</v>
+      </c>
+      <c r="K50">
+        <v>0.2282198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>1896</v>
+      </c>
+      <c r="I51">
+        <v>9.1013399999999994E-2</v>
+      </c>
+      <c r="J51">
+        <v>10001</v>
+      </c>
+      <c r="K51">
+        <v>0.45152799999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>4068</v>
+      </c>
+      <c r="I52">
+        <v>1.1440846</v>
+      </c>
+      <c r="J52">
+        <v>2056</v>
+      </c>
+      <c r="K52">
+        <v>0.42165849999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>10658</v>
+      </c>
+      <c r="I53">
+        <v>0.2434346</v>
+      </c>
+      <c r="J53">
+        <v>10001</v>
+      </c>
+      <c r="K53">
+        <v>0.28410449999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>10279</v>
+      </c>
+      <c r="I54">
+        <v>1.7418392</v>
+      </c>
+      <c r="J54">
+        <v>482</v>
+      </c>
+      <c r="K54">
+        <v>9.3729599999999996E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10279</v>
+      </c>
+      <c r="I55">
+        <v>1.7418392</v>
+      </c>
+      <c r="J55">
+        <v>482</v>
+      </c>
+      <c r="K55">
+        <v>9.3729599999999996E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>10279</v>
+      </c>
+      <c r="I56">
+        <v>1.7418392</v>
+      </c>
+      <c r="J56">
+        <v>482</v>
+      </c>
+      <c r="K56">
+        <v>9.3729599999999996E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>10279</v>
+      </c>
+      <c r="I57">
+        <v>1.7418392</v>
+      </c>
+      <c r="J57">
+        <v>482</v>
+      </c>
+      <c r="K57">
+        <v>9.3729599999999996E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>10279</v>
+      </c>
+      <c r="I58">
+        <v>1.7418392</v>
+      </c>
+      <c r="J58">
+        <v>482</v>
+      </c>
+      <c r="K58">
+        <v>9.3729599999999996E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>1933</v>
+      </c>
+      <c r="I59">
+        <v>7.3983499999999994E-2</v>
+      </c>
+      <c r="J59">
+        <v>10001</v>
+      </c>
+      <c r="K59">
+        <v>0.4103678</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>4049</v>
+      </c>
+      <c r="I60">
+        <v>1.0865682999999999</v>
+      </c>
+      <c r="J60">
+        <v>1881</v>
+      </c>
+      <c r="K60">
+        <v>0.27190900000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>10559</v>
+      </c>
+      <c r="I61">
+        <v>0.23906759999999999</v>
+      </c>
+      <c r="J61">
+        <v>10001</v>
+      </c>
+      <c r="K61">
+        <v>0.28964659999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>10398</v>
+      </c>
+      <c r="I62">
+        <v>1.7415335000000001</v>
+      </c>
+      <c r="J62">
+        <v>482</v>
+      </c>
+      <c r="K62">
+        <v>9.5554500000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10398</v>
+      </c>
+      <c r="I63">
+        <v>1.7415335000000001</v>
+      </c>
+      <c r="J63">
+        <v>482</v>
+      </c>
+      <c r="K63">
+        <v>9.5554500000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>10398</v>
+      </c>
+      <c r="I64">
+        <v>1.7415335000000001</v>
+      </c>
+      <c r="J64">
+        <v>482</v>
+      </c>
+      <c r="K64">
+        <v>9.5554500000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>10398</v>
+      </c>
+      <c r="I65">
+        <v>1.7415335000000001</v>
+      </c>
+      <c r="J65">
+        <v>482</v>
+      </c>
+      <c r="K65">
+        <v>9.5554500000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>10398</v>
+      </c>
+      <c r="I66">
+        <v>1.7415335000000001</v>
+      </c>
+      <c r="J66">
+        <v>482</v>
+      </c>
+      <c r="K66">
+        <v>9.5554500000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -25327,14 +26012,14 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -27618,6 +28303,2704 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5378229-A4D7-4308-9AC4-3DD4FE13EE8F}">
+  <dimension ref="A1:M66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="37" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2304</v>
+      </c>
+      <c r="I3">
+        <v>0.45892810000000001</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>10001</v>
+      </c>
+      <c r="L3">
+        <v>1.0073326</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>1866</v>
+      </c>
+      <c r="I4">
+        <v>1.0613999000000001</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>10001</v>
+      </c>
+      <c r="L4">
+        <v>2.3773396</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2205</v>
+      </c>
+      <c r="I5">
+        <v>0.14219680000000001</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>10001</v>
+      </c>
+      <c r="L5">
+        <v>0.78681100000000004</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1977</v>
+      </c>
+      <c r="I6">
+        <v>0.94498709999999997</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>10001</v>
+      </c>
+      <c r="L6">
+        <v>3.0891229999999998</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2889</v>
+      </c>
+      <c r="I7">
+        <v>0.18343899999999999</v>
+      </c>
+      <c r="J7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>10001</v>
+      </c>
+      <c r="L7">
+        <v>0.94431960000000004</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>2786</v>
+      </c>
+      <c r="I8">
+        <v>1.1138773</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>10001</v>
+      </c>
+      <c r="L8">
+        <v>2.3160707999999999</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2727</v>
+      </c>
+      <c r="I9">
+        <v>0.15580459999999999</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>10001</v>
+      </c>
+      <c r="L9">
+        <v>0.76292470000000001</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>2745</v>
+      </c>
+      <c r="I10">
+        <v>1.1299178999999999</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>10001</v>
+      </c>
+      <c r="L10">
+        <v>2.5574043</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2252</v>
+      </c>
+      <c r="I11">
+        <v>0.16090950000000001</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>10001</v>
+      </c>
+      <c r="L11">
+        <v>0.741448</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>1896</v>
+      </c>
+      <c r="I12">
+        <v>0.90966559999999996</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>10001</v>
+      </c>
+      <c r="L12">
+        <v>2.5222015999999998</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2156</v>
+      </c>
+      <c r="I13">
+        <v>0.13518810000000001</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>10001</v>
+      </c>
+      <c r="L13">
+        <v>1.8218856999999999</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>2017</v>
+      </c>
+      <c r="I14">
+        <v>0.987035</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>10001</v>
+      </c>
+      <c r="L14">
+        <v>2.2071117</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2886</v>
+      </c>
+      <c r="I15">
+        <v>0.19838049999999999</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>10001</v>
+      </c>
+      <c r="L15">
+        <v>0.76170130000000003</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>2587</v>
+      </c>
+      <c r="I16">
+        <v>1.0613976000000001</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>10001</v>
+      </c>
+      <c r="L16">
+        <v>2.2048865000000002</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2744</v>
+      </c>
+      <c r="I17">
+        <v>0.1566777</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>10001</v>
+      </c>
+      <c r="L17">
+        <v>0.92980799999999997</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>2602</v>
+      </c>
+      <c r="I18">
+        <v>1.1602608000000001</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>10001</v>
+      </c>
+      <c r="L18">
+        <v>2.4739469000000001</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2043</v>
+      </c>
+      <c r="I19">
+        <v>0.12307949999999999</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>10001</v>
+      </c>
+      <c r="L19">
+        <v>1.3353214</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1840</v>
+      </c>
+      <c r="I20">
+        <v>1.0108485</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>10001</v>
+      </c>
+      <c r="L20">
+        <v>2.7285135</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>1975</v>
+      </c>
+      <c r="I21">
+        <v>0.1246982</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>10001</v>
+      </c>
+      <c r="L21">
+        <v>0.73754050000000004</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1814</v>
+      </c>
+      <c r="I22">
+        <v>0.91434990000000005</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22">
+        <v>10001</v>
+      </c>
+      <c r="L22">
+        <v>2.7461416999999999</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2372</v>
+      </c>
+      <c r="I23">
+        <v>0.1398365</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <v>10001</v>
+      </c>
+      <c r="L23">
+        <v>0.74944339999999998</v>
+      </c>
+      <c r="M23" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>2217</v>
+      </c>
+      <c r="I24">
+        <v>1.0286282</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <v>10001</v>
+      </c>
+      <c r="L24">
+        <v>2.4415505999999998</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2304</v>
+      </c>
+      <c r="I25">
+        <v>0.1577868</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25">
+        <v>10001</v>
+      </c>
+      <c r="L25">
+        <v>0.81723449999999997</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>2182</v>
+      </c>
+      <c r="I26">
+        <v>0.97450099999999995</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26">
+        <v>10001</v>
+      </c>
+      <c r="L26">
+        <v>2.5359961000000002</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2032</v>
+      </c>
+      <c r="I27">
+        <v>0.12818470000000001</v>
+      </c>
+      <c r="J27" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <v>10001</v>
+      </c>
+      <c r="L27">
+        <v>0.78406149999999997</v>
+      </c>
+      <c r="M27" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1576</v>
+      </c>
+      <c r="I28">
+        <v>0.91226779999999996</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28">
+        <v>10001</v>
+      </c>
+      <c r="L28">
+        <v>2.9915037</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>1847</v>
+      </c>
+      <c r="I29">
+        <v>0.17498140000000001</v>
+      </c>
+      <c r="J29" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29">
+        <v>10001</v>
+      </c>
+      <c r="L29">
+        <v>1.8718528999999999</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1585</v>
+      </c>
+      <c r="I30">
+        <v>1.122633</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30">
+        <v>10001</v>
+      </c>
+      <c r="L30">
+        <v>2.4626541999999998</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2214</v>
+      </c>
+      <c r="I31">
+        <v>0.192048</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31">
+        <v>10001</v>
+      </c>
+      <c r="L31">
+        <v>0.77606140000000001</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1838</v>
+      </c>
+      <c r="I32">
+        <v>1.2629325</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32">
+        <v>10001</v>
+      </c>
+      <c r="L32">
+        <v>2.7896806999999999</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2221</v>
+      </c>
+      <c r="I33">
+        <v>0.15471989999999999</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33">
+        <v>10001</v>
+      </c>
+      <c r="L33">
+        <v>0.93862000000000001</v>
+      </c>
+      <c r="M33" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>1807</v>
+      </c>
+      <c r="I34">
+        <v>1.1851548999999999</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34">
+        <v>10001</v>
+      </c>
+      <c r="L34">
+        <v>2.7317854000000001</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>9707</v>
+      </c>
+      <c r="I35">
+        <v>0.70166260000000003</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35">
+        <v>10001</v>
+      </c>
+      <c r="L35">
+        <v>0.72043360000000001</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>11497</v>
+      </c>
+      <c r="I36">
+        <v>3.6803553999999998</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36">
+        <v>10001</v>
+      </c>
+      <c r="L36">
+        <v>3.0104403999999998</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>9721</v>
+      </c>
+      <c r="I37">
+        <v>0.82086340000000002</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37">
+        <v>10001</v>
+      </c>
+      <c r="L37">
+        <v>1.9825238999999999</v>
+      </c>
+      <c r="M37" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>10285</v>
+      </c>
+      <c r="I38">
+        <v>3.4291239999999998</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38">
+        <v>10001</v>
+      </c>
+      <c r="L38">
+        <v>2.6526269</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10860</v>
+      </c>
+      <c r="I39">
+        <v>0.93400539999999999</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39">
+        <v>10001</v>
+      </c>
+      <c r="L39">
+        <v>0.68964650000000005</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>14923</v>
+      </c>
+      <c r="I40">
+        <v>3.8332582999999998</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40">
+        <v>10001</v>
+      </c>
+      <c r="L40">
+        <v>2.5225669000000002</v>
+      </c>
+      <c r="M40" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>10649</v>
+      </c>
+      <c r="I41">
+        <v>0.68690969999999996</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41">
+        <v>10001</v>
+      </c>
+      <c r="L41">
+        <v>0.91882439999999999</v>
+      </c>
+      <c r="M41" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>13890</v>
+      </c>
+      <c r="I42">
+        <v>4.6135859999999997</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42">
+        <v>10001</v>
+      </c>
+      <c r="L42">
+        <v>2.6932740000000002</v>
+      </c>
+      <c r="M42" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>9708</v>
+      </c>
+      <c r="I43">
+        <v>0.69525820000000005</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43">
+        <v>10001</v>
+      </c>
+      <c r="L43">
+        <v>0.74903509999999995</v>
+      </c>
+      <c r="M43" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>11514</v>
+      </c>
+      <c r="I44">
+        <v>3.5912356000000001</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44">
+        <v>10001</v>
+      </c>
+      <c r="L44">
+        <v>6.8232315999999997</v>
+      </c>
+      <c r="M44" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>9651</v>
+      </c>
+      <c r="I45">
+        <v>0.6386984</v>
+      </c>
+      <c r="J45" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45">
+        <v>10001</v>
+      </c>
+      <c r="L45">
+        <v>0.83409630000000001</v>
+      </c>
+      <c r="M45" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>10329</v>
+      </c>
+      <c r="I46">
+        <v>3.7659853000000001</v>
+      </c>
+      <c r="J46" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46">
+        <v>10001</v>
+      </c>
+      <c r="L46">
+        <v>2.2567504999999999</v>
+      </c>
+      <c r="M46" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10833</v>
+      </c>
+      <c r="I47">
+        <v>0.85946120000000004</v>
+      </c>
+      <c r="J47" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47">
+        <v>10001</v>
+      </c>
+      <c r="L47">
+        <v>0.79459820000000003</v>
+      </c>
+      <c r="M47" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>14875</v>
+      </c>
+      <c r="I48">
+        <v>5.2221564999999996</v>
+      </c>
+      <c r="J48" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48">
+        <v>10001</v>
+      </c>
+      <c r="L48">
+        <v>3.5903858</v>
+      </c>
+      <c r="M48" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>10361</v>
+      </c>
+      <c r="I49">
+        <v>0.69827519999999998</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49">
+        <v>10001</v>
+      </c>
+      <c r="L49">
+        <v>1.9091928</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>13888</v>
+      </c>
+      <c r="I50">
+        <v>7.6191715999999996</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50">
+        <v>10001</v>
+      </c>
+      <c r="L50">
+        <v>3.8818039</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10211</v>
+      </c>
+      <c r="I51">
+        <v>0.76361140000000005</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51">
+        <v>10001</v>
+      </c>
+      <c r="L51">
+        <v>0.79831459999999999</v>
+      </c>
+      <c r="M51" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>17509</v>
+      </c>
+      <c r="I52">
+        <v>13.8235733</v>
+      </c>
+      <c r="J52" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52">
+        <v>10001</v>
+      </c>
+      <c r="L52">
+        <v>2.3794875000000002</v>
+      </c>
+      <c r="M52" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>10114</v>
+      </c>
+      <c r="I53">
+        <v>0.6855753</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53">
+        <v>10001</v>
+      </c>
+      <c r="L53">
+        <v>0.72853009999999996</v>
+      </c>
+      <c r="M53" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>15973</v>
+      </c>
+      <c r="I54">
+        <v>10.099699299999999</v>
+      </c>
+      <c r="J54" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54">
+        <v>10001</v>
+      </c>
+      <c r="L54">
+        <v>2.4734045</v>
+      </c>
+      <c r="M54" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10584</v>
+      </c>
+      <c r="I55">
+        <v>0.67755670000000001</v>
+      </c>
+      <c r="J55" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55">
+        <v>10001</v>
+      </c>
+      <c r="L55">
+        <v>0.80142150000000001</v>
+      </c>
+      <c r="M55" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>18080</v>
+      </c>
+      <c r="I56">
+        <v>11.2069037</v>
+      </c>
+      <c r="J56" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56">
+        <v>10001</v>
+      </c>
+      <c r="L56">
+        <v>2.6705603999999998</v>
+      </c>
+      <c r="M56" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>10399</v>
+      </c>
+      <c r="I57">
+        <v>0.71472449999999998</v>
+      </c>
+      <c r="J57" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57">
+        <v>10001</v>
+      </c>
+      <c r="L57">
+        <v>0.94055580000000005</v>
+      </c>
+      <c r="M57" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>16926</v>
+      </c>
+      <c r="I58">
+        <v>8.2117792999999999</v>
+      </c>
+      <c r="J58" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58">
+        <v>10001</v>
+      </c>
+      <c r="L58">
+        <v>2.5718747999999998</v>
+      </c>
+      <c r="M58" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10049</v>
+      </c>
+      <c r="I59">
+        <v>0.79965660000000005</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59">
+        <v>10001</v>
+      </c>
+      <c r="L59">
+        <v>0.89888369999999995</v>
+      </c>
+      <c r="M59" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>17121</v>
+      </c>
+      <c r="I60">
+        <v>8.3509218000000001</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60">
+        <v>10001</v>
+      </c>
+      <c r="L60">
+        <v>2.5818329000000002</v>
+      </c>
+      <c r="M60" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>9930</v>
+      </c>
+      <c r="I61">
+        <v>0.75506629999999997</v>
+      </c>
+      <c r="J61" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61">
+        <v>10001</v>
+      </c>
+      <c r="L61">
+        <v>0.81613119999999995</v>
+      </c>
+      <c r="M61" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>15606</v>
+      </c>
+      <c r="I62">
+        <v>5.3178470999999998</v>
+      </c>
+      <c r="J62" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62">
+        <v>10001</v>
+      </c>
+      <c r="L62">
+        <v>2.3972625999999999</v>
+      </c>
+      <c r="M62" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10360</v>
+      </c>
+      <c r="I63">
+        <v>0.68752539999999995</v>
+      </c>
+      <c r="J63" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63">
+        <v>10001</v>
+      </c>
+      <c r="L63">
+        <v>0.81847429999999999</v>
+      </c>
+      <c r="M63" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>17480</v>
+      </c>
+      <c r="I64">
+        <v>9.6259014000000001</v>
+      </c>
+      <c r="J64" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64">
+        <v>10001</v>
+      </c>
+      <c r="L64">
+        <v>2.4176848999999998</v>
+      </c>
+      <c r="M64" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>10296</v>
+      </c>
+      <c r="I65">
+        <v>0.70708320000000002</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65">
+        <v>10001</v>
+      </c>
+      <c r="L65">
+        <v>0.76023079999999998</v>
+      </c>
+      <c r="M65" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>16427</v>
+      </c>
+      <c r="I66">
+        <v>9.6504677000000001</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K66">
+        <v>10001</v>
+      </c>
+      <c r="L66">
+        <v>2.4426760000000001</v>
+      </c>
+      <c r="M66" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -27652,14 +31035,14 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -29977,14 +33360,14 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -32302,25 +35685,25 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="40"/>
       <c r="M1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="40" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="41"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -35793,25 +39176,25 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="40"/>
       <c r="M1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="40" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="41"/>
+      <c r="Q1" s="43"/>
       <c r="R1">
         <v>9</v>
       </c>
@@ -39299,25 +42682,25 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="G1" s="19"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="37" t="s">
+      <c r="I1" s="41"/>
+      <c r="J1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="38"/>
+      <c r="K1" s="40"/>
       <c r="M1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="40" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="41"/>
+      <c r="Q1" s="43"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">

--- a/Workflows/Testing/Hydraulic_Lift_Res.xlsx
+++ b/Workflows/Testing/Hydraulic_Lift_Res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\allsimscape\hydraulic-lift\Workflows\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07586BA-9060-4B80-B95E-0918305F73A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892ABC98-CB51-468E-8ED3-4F07189F8E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2085" windowWidth="21600" windowHeight="11295" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2015b" sheetId="4" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="2024b(H)" sheetId="24" r:id="rId18"/>
     <sheet name="2024b (IL1)" sheetId="25" r:id="rId19"/>
     <sheet name="2024b" sheetId="26" r:id="rId20"/>
+    <sheet name="2025a" sheetId="27" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8083" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8609" uniqueCount="39">
   <si>
     <t>Run</t>
   </si>
@@ -167,6 +168,9 @@
   </si>
   <si>
     <t>19-Dec-2025 11:15:45</t>
+  </si>
+  <si>
+    <t>19-Dec-2025 12:31:07</t>
   </si>
 </sst>
 </file>
@@ -28310,8 +28314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5378229-A4D7-4308-9AC4-3DD4FE13EE8F}">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30996,6 +31000,2691 @@
         <v>2.4426760000000001</v>
       </c>
       <c r="M66" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C298E04D-0415-4106-849B-659B7876AACC}">
+  <dimension ref="A1:M66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>2264</v>
+      </c>
+      <c r="I3">
+        <v>0.92798320000000001</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>10001</v>
+      </c>
+      <c r="L3">
+        <v>0.52243870000000003</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>4544</v>
+      </c>
+      <c r="I4">
+        <v>1.5727434</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>10001</v>
+      </c>
+      <c r="L4">
+        <v>1.7075951</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2310</v>
+      </c>
+      <c r="I5">
+        <v>0.20253589999999999</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>10001</v>
+      </c>
+      <c r="L5">
+        <v>0.4901626</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>8566</v>
+      </c>
+      <c r="I6">
+        <v>2.9581328</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6">
+        <v>10001</v>
+      </c>
+      <c r="L6">
+        <v>1.8842797</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>2828</v>
+      </c>
+      <c r="I7">
+        <v>0.28564719999999999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>10001</v>
+      </c>
+      <c r="L7">
+        <v>0.47560469999999999</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>6037</v>
+      </c>
+      <c r="I8">
+        <v>1.4128020999999999</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>10001</v>
+      </c>
+      <c r="L8">
+        <v>1.9135206</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2697</v>
+      </c>
+      <c r="I9">
+        <v>0.14005619999999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>10001</v>
+      </c>
+      <c r="L9">
+        <v>0.52329559999999997</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>7272</v>
+      </c>
+      <c r="I10">
+        <v>2.2827299999999999</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>10001</v>
+      </c>
+      <c r="L10">
+        <v>1.6338883</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2261</v>
+      </c>
+      <c r="I11">
+        <v>0.16855229999999999</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>10001</v>
+      </c>
+      <c r="L11">
+        <v>0.51943930000000005</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>4547</v>
+      </c>
+      <c r="I12">
+        <v>1.2199768</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>10001</v>
+      </c>
+      <c r="L12">
+        <v>1.5830039</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2311</v>
+      </c>
+      <c r="I13">
+        <v>0.1195426</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>10001</v>
+      </c>
+      <c r="L13">
+        <v>0.55022550000000003</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>8460</v>
+      </c>
+      <c r="I14">
+        <v>2.7860554</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>10001</v>
+      </c>
+      <c r="L14">
+        <v>1.6840820000000001</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2821</v>
+      </c>
+      <c r="I15">
+        <v>0.14381559999999999</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>10001</v>
+      </c>
+      <c r="L15">
+        <v>0.51256970000000002</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>6039</v>
+      </c>
+      <c r="I16">
+        <v>1.3929372</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>10001</v>
+      </c>
+      <c r="L16">
+        <v>1.7993717</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>2700</v>
+      </c>
+      <c r="I17">
+        <v>0.13915430000000001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>10001</v>
+      </c>
+      <c r="L17">
+        <v>0.46902329999999998</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>7263</v>
+      </c>
+      <c r="I18">
+        <v>2.3272195</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18">
+        <v>10001</v>
+      </c>
+      <c r="L18">
+        <v>1.7921833</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>2046</v>
+      </c>
+      <c r="I19">
+        <v>0.1247588</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>10001</v>
+      </c>
+      <c r="L19">
+        <v>0.57051300000000005</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>1663</v>
+      </c>
+      <c r="I20">
+        <v>0.5210726</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <v>10001</v>
+      </c>
+      <c r="L20">
+        <v>1.7217256999999999</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>1997</v>
+      </c>
+      <c r="I21">
+        <v>0.11919490000000001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>10001</v>
+      </c>
+      <c r="L21">
+        <v>0.54165479999999999</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1750</v>
+      </c>
+      <c r="I22">
+        <v>0.61263979999999996</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22">
+        <v>10001</v>
+      </c>
+      <c r="L22">
+        <v>1.7058175</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>2471</v>
+      </c>
+      <c r="I23">
+        <v>0.1344099</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23">
+        <v>10001</v>
+      </c>
+      <c r="L23">
+        <v>0.54852040000000002</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>2459</v>
+      </c>
+      <c r="I24">
+        <v>0.73078299999999996</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24">
+        <v>10001</v>
+      </c>
+      <c r="L24">
+        <v>1.8715187</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2362</v>
+      </c>
+      <c r="I25">
+        <v>0.13338530000000001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25">
+        <v>10001</v>
+      </c>
+      <c r="L25">
+        <v>0.53578170000000003</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>2467</v>
+      </c>
+      <c r="I26">
+        <v>0.84355720000000001</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26">
+        <v>10001</v>
+      </c>
+      <c r="L26">
+        <v>1.6655238999999999</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>2011</v>
+      </c>
+      <c r="I27">
+        <v>0.1286881</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <v>10001</v>
+      </c>
+      <c r="L27">
+        <v>0.56313060000000004</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1684</v>
+      </c>
+      <c r="I28">
+        <v>0.52775459999999996</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28">
+        <v>10001</v>
+      </c>
+      <c r="L28">
+        <v>1.6774395</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>1899</v>
+      </c>
+      <c r="I29">
+        <v>0.11760909999999999</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29">
+        <v>10001</v>
+      </c>
+      <c r="L29">
+        <v>0.54748370000000002</v>
+      </c>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1842</v>
+      </c>
+      <c r="I30">
+        <v>0.63897510000000002</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30">
+        <v>10001</v>
+      </c>
+      <c r="L30">
+        <v>1.7567330000000001</v>
+      </c>
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>2391</v>
+      </c>
+      <c r="I31">
+        <v>0.13342180000000001</v>
+      </c>
+      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31">
+        <v>10001</v>
+      </c>
+      <c r="L31">
+        <v>0.56574089999999999</v>
+      </c>
+      <c r="M31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>2238</v>
+      </c>
+      <c r="I32">
+        <v>0.70057380000000002</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32">
+        <v>10001</v>
+      </c>
+      <c r="L32">
+        <v>1.6999225</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>2288</v>
+      </c>
+      <c r="I33">
+        <v>0.1278773</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33">
+        <v>10001</v>
+      </c>
+      <c r="L33">
+        <v>0.55978819999999996</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34">
+        <v>2262</v>
+      </c>
+      <c r="I34">
+        <v>0.75396620000000003</v>
+      </c>
+      <c r="J34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34">
+        <v>10001</v>
+      </c>
+      <c r="L34">
+        <v>1.8740441999999999</v>
+      </c>
+      <c r="M34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>9028</v>
+      </c>
+      <c r="I35">
+        <v>0.27780149999999998</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35">
+        <v>10001</v>
+      </c>
+      <c r="L35">
+        <v>0.50969399999999998</v>
+      </c>
+      <c r="M35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>10930</v>
+      </c>
+      <c r="I36">
+        <v>2.4769066999999998</v>
+      </c>
+      <c r="J36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36">
+        <v>10001</v>
+      </c>
+      <c r="L36">
+        <v>1.6008418</v>
+      </c>
+      <c r="M36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>8941</v>
+      </c>
+      <c r="I37">
+        <v>0.30742720000000001</v>
+      </c>
+      <c r="J37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37">
+        <v>10001</v>
+      </c>
+      <c r="L37">
+        <v>0.53685039999999995</v>
+      </c>
+      <c r="M37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>13003</v>
+      </c>
+      <c r="I38">
+        <v>4.3052507999999996</v>
+      </c>
+      <c r="J38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38">
+        <v>10001</v>
+      </c>
+      <c r="L38">
+        <v>1.7117282</v>
+      </c>
+      <c r="M38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10078</v>
+      </c>
+      <c r="I39">
+        <v>0.31374750000000001</v>
+      </c>
+      <c r="J39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39">
+        <v>10001</v>
+      </c>
+      <c r="L39">
+        <v>0.51560459999999997</v>
+      </c>
+      <c r="M39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>15706</v>
+      </c>
+      <c r="I40">
+        <v>3.2486256999999998</v>
+      </c>
+      <c r="J40" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40">
+        <v>10001</v>
+      </c>
+      <c r="L40">
+        <v>1.7160757</v>
+      </c>
+      <c r="M40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>10144</v>
+      </c>
+      <c r="I41">
+        <v>0.29836279999999998</v>
+      </c>
+      <c r="J41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41">
+        <v>10001</v>
+      </c>
+      <c r="L41">
+        <v>0.57349850000000002</v>
+      </c>
+      <c r="M41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>14742</v>
+      </c>
+      <c r="I42">
+        <v>4.6983465000000004</v>
+      </c>
+      <c r="J42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42">
+        <v>10001</v>
+      </c>
+      <c r="L42">
+        <v>1.6902476</v>
+      </c>
+      <c r="M42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>9062</v>
+      </c>
+      <c r="I43">
+        <v>0.28274470000000002</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43">
+        <v>10001</v>
+      </c>
+      <c r="L43">
+        <v>0.52693100000000004</v>
+      </c>
+      <c r="M43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>10925</v>
+      </c>
+      <c r="I44">
+        <v>2.6726432</v>
+      </c>
+      <c r="J44" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44">
+        <v>10001</v>
+      </c>
+      <c r="L44">
+        <v>1.8994074000000001</v>
+      </c>
+      <c r="M44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>8959</v>
+      </c>
+      <c r="I45">
+        <v>0.2805068</v>
+      </c>
+      <c r="J45" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45">
+        <v>10001</v>
+      </c>
+      <c r="L45">
+        <v>0.47561009999999998</v>
+      </c>
+      <c r="M45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>12959</v>
+      </c>
+      <c r="I46">
+        <v>4.1644588999999996</v>
+      </c>
+      <c r="J46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46">
+        <v>10001</v>
+      </c>
+      <c r="L46">
+        <v>1.9265933</v>
+      </c>
+      <c r="M46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10198</v>
+      </c>
+      <c r="I47">
+        <v>0.31695950000000001</v>
+      </c>
+      <c r="J47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47">
+        <v>10001</v>
+      </c>
+      <c r="L47">
+        <v>0.51087720000000003</v>
+      </c>
+      <c r="M47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>15671</v>
+      </c>
+      <c r="I48">
+        <v>3.1307046000000001</v>
+      </c>
+      <c r="J48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48">
+        <v>10001</v>
+      </c>
+      <c r="L48">
+        <v>1.6918839000000001</v>
+      </c>
+      <c r="M48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>10083</v>
+      </c>
+      <c r="I49">
+        <v>0.32417580000000001</v>
+      </c>
+      <c r="J49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49">
+        <v>10001</v>
+      </c>
+      <c r="L49">
+        <v>0.55406549999999999</v>
+      </c>
+      <c r="M49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50">
+        <v>14749</v>
+      </c>
+      <c r="I50">
+        <v>4.7777940000000001</v>
+      </c>
+      <c r="J50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50">
+        <v>10001</v>
+      </c>
+      <c r="L50">
+        <v>1.7928545</v>
+      </c>
+      <c r="M50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>9673</v>
+      </c>
+      <c r="I51">
+        <v>0.47785739999999999</v>
+      </c>
+      <c r="J51" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51">
+        <v>10001</v>
+      </c>
+      <c r="L51">
+        <v>0.53732000000000002</v>
+      </c>
+      <c r="M51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>10035</v>
+      </c>
+      <c r="I52">
+        <v>3.6515672000000001</v>
+      </c>
+      <c r="J52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52">
+        <v>10001</v>
+      </c>
+      <c r="L52">
+        <v>1.6096774</v>
+      </c>
+      <c r="M52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>9515</v>
+      </c>
+      <c r="I53">
+        <v>0.49422939999999999</v>
+      </c>
+      <c r="J53" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53">
+        <v>10001</v>
+      </c>
+      <c r="L53">
+        <v>0.54983660000000001</v>
+      </c>
+      <c r="M53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>8916</v>
+      </c>
+      <c r="I54">
+        <v>3.1401918000000002</v>
+      </c>
+      <c r="J54" t="s">
+        <v>35</v>
+      </c>
+      <c r="K54">
+        <v>10001</v>
+      </c>
+      <c r="L54">
+        <v>1.6009791</v>
+      </c>
+      <c r="M54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10256</v>
+      </c>
+      <c r="I55">
+        <v>0.5160129</v>
+      </c>
+      <c r="J55" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55">
+        <v>10001</v>
+      </c>
+      <c r="L55">
+        <v>0.54375980000000002</v>
+      </c>
+      <c r="M55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>13488</v>
+      </c>
+      <c r="I56">
+        <v>4.5794860000000002</v>
+      </c>
+      <c r="J56" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56">
+        <v>10001</v>
+      </c>
+      <c r="L56">
+        <v>1.6771297999999999</v>
+      </c>
+      <c r="M56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>10104</v>
+      </c>
+      <c r="I57">
+        <v>0.5709419</v>
+      </c>
+      <c r="J57" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57">
+        <v>10001</v>
+      </c>
+      <c r="L57">
+        <v>0.5859993</v>
+      </c>
+      <c r="M57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>12783</v>
+      </c>
+      <c r="I58">
+        <v>4.3796998</v>
+      </c>
+      <c r="J58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K58">
+        <v>10001</v>
+      </c>
+      <c r="L58">
+        <v>1.9630976</v>
+      </c>
+      <c r="M58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>9500</v>
+      </c>
+      <c r="I59">
+        <v>0.37302150000000001</v>
+      </c>
+      <c r="J59" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59">
+        <v>10001</v>
+      </c>
+      <c r="L59">
+        <v>0.49192469999999999</v>
+      </c>
+      <c r="M59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>9978</v>
+      </c>
+      <c r="I60">
+        <v>3.1397119999999998</v>
+      </c>
+      <c r="J60" t="s">
+        <v>35</v>
+      </c>
+      <c r="K60">
+        <v>10001</v>
+      </c>
+      <c r="L60">
+        <v>1.6729636999999999</v>
+      </c>
+      <c r="M60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>9428</v>
+      </c>
+      <c r="I61">
+        <v>0.2773197</v>
+      </c>
+      <c r="J61" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61">
+        <v>10001</v>
+      </c>
+      <c r="L61">
+        <v>0.54143209999999997</v>
+      </c>
+      <c r="M61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>8866</v>
+      </c>
+      <c r="I62">
+        <v>2.0701084999999999</v>
+      </c>
+      <c r="J62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62">
+        <v>10001</v>
+      </c>
+      <c r="L62">
+        <v>1.9179813999999999</v>
+      </c>
+      <c r="M62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10083</v>
+      </c>
+      <c r="I63">
+        <v>0.31300329999999998</v>
+      </c>
+      <c r="J63" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63">
+        <v>10001</v>
+      </c>
+      <c r="L63">
+        <v>0.49983030000000001</v>
+      </c>
+      <c r="M63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>13299</v>
+      </c>
+      <c r="I64">
+        <v>3.498923</v>
+      </c>
+      <c r="J64" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64">
+        <v>10001</v>
+      </c>
+      <c r="L64">
+        <v>1.6842691000000001</v>
+      </c>
+      <c r="M64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>10035</v>
+      </c>
+      <c r="I65">
+        <v>0.30818210000000001</v>
+      </c>
+      <c r="J65" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65">
+        <v>10001</v>
+      </c>
+      <c r="L65">
+        <v>0.55398029999999998</v>
+      </c>
+      <c r="M65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>12638</v>
+      </c>
+      <c r="I66">
+        <v>3.4753555</v>
+      </c>
+      <c r="J66" t="s">
+        <v>35</v>
+      </c>
+      <c r="K66">
+        <v>10001</v>
+      </c>
+      <c r="L66">
+        <v>1.8142592</v>
+      </c>
+      <c r="M66" t="s">
         <v>35</v>
       </c>
     </row>
